--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14955" windowHeight="12720" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="14955" windowHeight="12720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="HorizontalRecord" sheetId="1" r:id="rId1"/>
-    <sheet name="MapColumns" sheetId="2" r:id="rId2"/>
-    <sheet name="Column" sheetId="3" r:id="rId3"/>
-    <sheet name="IterateTable" sheetId="4" r:id="rId4"/>
-    <sheet name="LabelledCell" sheetId="5" r:id="rId5"/>
-    <sheet name="Hint" sheetId="7" r:id="rId6"/>
+    <sheet name="HorizontalRecords" sheetId="1" r:id="rId1"/>
+    <sheet name="VerticalRecords" sheetId="8" r:id="rId2"/>
+    <sheet name="MapColumns" sheetId="2" r:id="rId3"/>
+    <sheet name="Column" sheetId="3" r:id="rId4"/>
+    <sheet name="IterateTable" sheetId="4" r:id="rId5"/>
+    <sheet name="LabelledCell" sheetId="5" r:id="rId6"/>
+    <sheet name="Hint" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -192,16 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブルの名称（@XlsHorizontalRecordのtableLabelで指定）</t>
-    <rPh sb="5" eb="7">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>@XlsLabelledCellで指定したセル。</t>
     <rPh sb="17" eb="19">
       <t>シテイ</t>
@@ -252,6 +243,16 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルの名称（@XlsHorizontalRecordsのtableLabelで指定）</t>
+    <rPh sb="5" eb="7">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -464,7 +465,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +546,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -731,6 +744,720 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="542925" y="1447800"/>
+          <a:ext cx="0" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2638424" y="409575"/>
+          <a:ext cx="257175" cy="2200276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34307"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3630930" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="190500"/>
+          <a:ext cx="3630930" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブルの名称（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@XlsVerticalRecords</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tableLabel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1381125" y="1819275"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1747017" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="1543050"/>
+          <a:ext cx="1747017" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>列名（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@XlsColumn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="2647950"/>
+          <a:ext cx="1240404" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>これ以降はデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="542925" y="419100"/>
+          <a:ext cx="0" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2638424" y="409575"/>
+          <a:ext cx="257175" cy="2200276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 34307"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1381125" y="790575"/>
+          <a:ext cx="0" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1747017" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="514350"/>
+          <a:ext cx="1747017" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>列名（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@XlsColumn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240404" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="1619250"/>
+          <a:ext cx="1240404" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>これ以降はデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3611758" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="2400300"/>
+          <a:ext cx="3611758" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブルの名称の位置が上方である場合は、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@XlsVerticalRecords</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tableLabelAbove=true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1457325" y="2838450"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -886,7 +1613,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1263,7 +1990,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1318,7 +2045,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1903,7 +2630,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1933,7 +2660,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1949,7 +2676,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1964,7 +2691,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1"/>
@@ -1978,7 +2705,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2011,6 +2738,237 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -2053,7 +3011,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -2090,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="31" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2104,7 +3062,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="27"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
@@ -2169,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2214,10 +3172,10 @@
       <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -2230,7 +3188,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -2309,7 +3267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -2544,7 +3502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -2658,11 +3616,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2707,7 +3665,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2722,7 +3680,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="27"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2736,7 +3694,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2751,7 +3709,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2787,7 +3745,7 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="14955" windowHeight="12720" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="14955" windowHeight="12705" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="HorizontalRecords" sheetId="1" r:id="rId1"/>
-    <sheet name="VerticalRecords" sheetId="8" r:id="rId2"/>
-    <sheet name="MapColumns" sheetId="2" r:id="rId3"/>
-    <sheet name="Column" sheetId="3" r:id="rId4"/>
-    <sheet name="IterateTable" sheetId="4" r:id="rId5"/>
-    <sheet name="LabelledCell" sheetId="5" r:id="rId6"/>
-    <sheet name="Hint" sheetId="7" r:id="rId7"/>
+    <sheet name="Cell" sheetId="9" r:id="rId1"/>
+    <sheet name="HorizontalRecords" sheetId="1" r:id="rId2"/>
+    <sheet name="VerticalRecords" sheetId="8" r:id="rId3"/>
+    <sheet name="MapColumns" sheetId="2" r:id="rId4"/>
+    <sheet name="Column" sheetId="3" r:id="rId5"/>
+    <sheet name="IterateTable" sheetId="4" r:id="rId6"/>
+    <sheet name="LabelledCell" sheetId="5" r:id="rId7"/>
+    <sheet name="Hint" sheetId="7" r:id="rId8"/>
+    <sheet name="Converter" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -36,13 +38,6 @@
     <t>名前</t>
     <rPh sb="0" eb="2">
       <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>これ以降はデータ</t>
-    <rPh sb="2" eb="4">
-      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -68,30 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この部分が可変長の場合</t>
-    <rPh sb="2" eb="4">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カヘンチョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップのキーになる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップの値になる</t>
-    <rPh sb="4" eb="5">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -100,10 +71,6 @@
     <rPh sb="0" eb="3">
       <t>レンラクサキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xxx-xxx-xxxx</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -127,16 +94,6 @@
     <t>BBBB部門</t>
     <rPh sb="4" eb="6">
       <t>ブモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このテーブルが繰り返されている</t>
-    <rPh sb="7" eb="8">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,28 +150,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>@XlsLabelledCellで指定したセル。</t>
-    <rPh sb="17" eb="19">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>@XlsHorizontalRecordsで指定したテーブル。</t>
     <rPh sb="22" eb="24">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>列名（@XlsColumnで指定）</t>
-    <rPh sb="0" eb="1">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
       <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -247,12 +184,282 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブルの名称（@XlsHorizontalRecordsのtableLabelで指定）</t>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rangeの説明</t>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>skipの説明</t>
     <rPh sb="5" eb="7">
-      <t>メイショウ</t>
+      <t>セツメイ</t>
     </rPh>
-    <rPh sb="41" eb="43">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右方向のラベル</t>
+    <rPh sb="0" eb="3">
+      <t>ミギホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下方向のラベル</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の終端</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウタン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanako Yamada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表の終端用セルの指定</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガッピ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>鈴木次郎</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジロウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>表の操作の終了条件</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HanakoYamada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jiro Suzuki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ichiro Hayashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-xxx-xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降水</t>
+    <rPh sb="0" eb="2">
+      <t>コウスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12-18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気情報</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanako Yamada</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jiro Hayashi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -261,7 +468,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0000000"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -289,8 +500,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,8 +549,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -455,6 +707,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -465,7 +878,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,23 +960,188 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,7 +1236,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="1866900" y="438150"/>
+          <a:off x="2114550" y="438150"/>
           <a:ext cx="304800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -737,35 +1315,630 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3516027" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="571500"/>
+          <a:ext cx="3516027" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>これ以降はデータで、レコード用クラスでマッピングする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 2"/>
+        <xdr:cNvPr id="10" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2114550" y="1552575"/>
+          <a:ext cx="2438400" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60171"/>
+            <a:gd name="adj2" fmla="val 35161"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>terminal=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>RecordTerminal.Empty</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の場合、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>空のレコードがあると終端と判定するため、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>つめのレコードが読み込まれない。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2105025" y="2314575"/>
+          <a:ext cx="2438400" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -59781"/>
+            <a:gd name="adj2" fmla="val -48662"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>terminal=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>RecordTerminal.Border</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>表の罫線を元に終端を判定するため、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>最後まで読み込まれる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="1009650"/>
+          <a:ext cx="1876425" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191499" y="1952625"/>
+          <a:ext cx="2600325" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -17595"/>
+            <a:gd name="adj2" fmla="val -103075"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>隣接するテスト結果はのぞき、クラス情報のみ読み込む場合、終端のセル「平均」で判定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円/楕円 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924926" y="1533525"/>
+          <a:ext cx="361950" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1785938" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="581025"/>
+          <a:ext cx="1785938" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>読み込み対象の表データ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Line 3"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="542925" y="1447800"/>
-          <a:ext cx="0" cy="600075"/>
+          <a:off x="8458200" y="790575"/>
+          <a:ext cx="114300" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -792,32 +1965,977 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 4"/>
+        <xdr:cNvPr id="24" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9001124" y="3552825"/>
+          <a:ext cx="2600325" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -23457"/>
+            <a:gd name="adj2" fmla="val 86509"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>隣接する余分な表なので、見出しの個数を指定して、処理対象から除外する。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3272114" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7419975" y="4714875"/>
+          <a:ext cx="3272114" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>読み込み対象の表データ。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>見出しの個数は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>headerLimit=3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 4"/>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="5400000">
-          <a:off x="2638424" y="409575"/>
-          <a:ext cx="257175" cy="2200276"/>
+          <a:off x="8253413" y="3690941"/>
+          <a:ext cx="219074" cy="1771649"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 34307"/>
+            <a:gd name="adj1" fmla="val 38011"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2428874" y="4048124"/>
+          <a:ext cx="2676525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60171"/>
+            <a:gd name="adj2" fmla="val 35161"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>行目のレコードを書き込む際に、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>行が足りない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ときの操作を属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>overRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>で定義します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2438399" y="5210174"/>
+          <a:ext cx="2676525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -60171"/>
+            <a:gd name="adj2" fmla="val 35161"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="107763" dir="2700000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="808080">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>レコードの書き込みが終了した場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>行が余った</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ときの操作を属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>remainedRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>で定義します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="761999" y="7991475"/>
+          <a:ext cx="1447800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114298</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371473</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152403</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="右矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="461959" y="7929564"/>
+          <a:ext cx="304803" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2882328" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="7791450"/>
+          <a:ext cx="2882328" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表の名称から、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ下から表が開始するので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>bottom=3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2480294" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="104775"/>
+          <a:ext cx="2480294" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>表の名称。属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>tableLabel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>で指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3799310" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="314325"/>
+          <a:ext cx="3799310" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>見出しセルの指定。レコードクラスの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>@XlsColumn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>で指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6657974" y="1314450"/>
+          <a:ext cx="0" cy="219074"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176705</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41713</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2480294" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5863130" y="1070413"/>
+          <a:ext cx="2480294" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表の名称。属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tableLabel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7381875" y="2066267"/>
+          <a:ext cx="0" cy="248308"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100014</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="8732044" y="964408"/>
+          <a:ext cx="247650" cy="2138362"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35020"/>
             <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
@@ -846,20 +2964,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>138605</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>79813</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3630930" cy="275717"/>
+    <xdr:ext cx="2043188" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="171450" y="190500"/>
-          <a:ext cx="3630930" cy="275717"/>
+          <a:off x="5825030" y="2137213"/>
+          <a:ext cx="2043188" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,24 +3006,73 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブルの名称（</a:t>
-          </a:r>
+            <a:t>見出し用セル。レコードクラスの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>@XlsVerticalRecords</a:t>
+            <a:t>@XlsColumn</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tableLabel</a:t>
-          </a:r>
+            <a:t>で指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>186230</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60763</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2737945" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7930055" y="2289613"/>
+          <a:ext cx="2737945" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で指定）</a:t>
-          </a:r>
+            <a:t>これ以降はデータで、レコード用クラスでマッピングする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -913,28 +3080,28 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 2"/>
+        <xdr:cNvPr id="26" name="Line 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="1381125" y="1819275"/>
-          <a:ext cx="0" cy="247650"/>
+          <a:off x="7324725" y="2867025"/>
+          <a:ext cx="0" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -961,21 +3128,21 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1747017" cy="275717"/>
+    <xdr:ext cx="2884700" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="1543050"/>
-          <a:ext cx="1747017" cy="275717"/>
+          <a:off x="6762750" y="3495675"/>
+          <a:ext cx="2884700" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1004,38 +3171,108 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>列名（</a:t>
+            <a:t>テーブルの名称の位置が上方にある場合は、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>@XlsColumn</a:t>
+            <a:t>tableLabelAbove=true</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で指定）</a:t>
+            <a:t>と指定する。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="右矢印 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1443036" y="6824664"/>
+          <a:ext cx="1262064" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>445477</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118698</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1240404" cy="275717"/>
+    <xdr:ext cx="4157357" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295525" y="2647950"/>
-          <a:ext cx="1240404" cy="275717"/>
+          <a:off x="1134208" y="7027986"/>
+          <a:ext cx="4157357" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,8 +3301,33 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>これ以降はデータ</a:t>
-          </a:r>
+            <a:t>表の名称から、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>右から表が開始</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>するので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>right=3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1073,28 +3335,28 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 2"/>
+        <xdr:cNvPr id="30" name="Line 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="542925" y="419100"/>
-          <a:ext cx="0" cy="600075"/>
+        <a:xfrm flipV="1">
+          <a:off x="1743075" y="6962117"/>
+          <a:ext cx="0" cy="248308"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1121,81 +3383,91 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1181100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431005</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="AutoShape 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
+        <xdr:cNvPr id="36" name="右矢印 35"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2638424" y="409575"/>
-          <a:ext cx="257175" cy="2200276"/>
+          <a:off x="2858690" y="8106970"/>
+          <a:ext cx="373856" cy="257175"/>
         </a:xfrm>
-        <a:prstGeom prst="rightBrace">
+        <a:prstGeom prst="rightArrow">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 34307"/>
-            <a:gd name="adj2" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
           </a:avLst>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234460</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Line 2"/>
+        <xdr:cNvPr id="38" name="Line 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="1381125" y="790575"/>
-          <a:ext cx="0" cy="247650"/>
+          <a:off x="3135921" y="8037635"/>
+          <a:ext cx="937847" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1222,21 +3494,21 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232997</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1747017" cy="275717"/>
+    <xdr:ext cx="2884187" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085850" y="514350"/>
-          <a:ext cx="1747017" cy="275717"/>
+          <a:off x="2987920" y="7760678"/>
+          <a:ext cx="2884187" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1265,192 +3537,29 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>列名（</a:t>
+            <a:t>属性</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>@XlsColumn</a:t>
+            <a:t>tableLabelAbobe=true</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で指定）</a:t>
-          </a:r>
+            <a:t>と組み合わせると、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下方向の意味になります。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1240404" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2295525" y="1619250"/>
-          <a:ext cx="1240404" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>これ以降はデータ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3611758" cy="459100"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1047750" y="2400300"/>
-          <a:ext cx="3611758" cy="459100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブルの名称の位置が上方である場合は、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>@XlsVerticalRecords</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>tableLabelAbove=true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で指定する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="1457325" y="2838450"/>
-          <a:ext cx="0" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1610,6 +3719,354 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1707712" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="1000125"/>
+          <a:ext cx="1707712" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この部分が可変長の場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1240981" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="276225"/>
+          <a:ext cx="1240981" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のキーになる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1110945" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3914775" y="552450"/>
+          <a:ext cx="1110945" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値になる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238123</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240631</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2734676" y="2798592"/>
+          <a:ext cx="2508" cy="219328"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="円/楕円 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="2562225"/>
+          <a:ext cx="561975" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>128400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4024435" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="357000" y="3038850"/>
+          <a:ext cx="4024435" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位置情報、見出し情報のキーは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"attendedMap[4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>]" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>となる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1617,16 +4074,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1637,7 +4094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="352425" y="1009650"/>
+          <a:off x="857250" y="1343025"/>
           <a:ext cx="1590675" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1739,15 +4196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1758,7 +4215,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2076450" y="1009650"/>
+          <a:off x="2571750" y="1343025"/>
           <a:ext cx="2371725" cy="495299"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1891,13 +4348,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1941,13 +4398,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1987,35 +4444,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 3"/>
+        <xdr:cNvPr id="6" name="Rectangle 4"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="142875" y="114300"/>
-          <a:ext cx="2628900" cy="1028700"/>
+          <a:off x="7210425" y="857250"/>
+          <a:ext cx="657225" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2042,10 +4494,1260 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2700932" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="1609725"/>
+          <a:ext cx="2700932" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>結合しているセルは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>merged=true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>とすると</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>異なるレコードだが同じ値が設定される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7134225" y="1219199"/>
+          <a:ext cx="171450" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1000127</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3109913" y="-814392"/>
+          <a:ext cx="276225" cy="2724153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 32239"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1488356" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="180975"/>
+          <a:ext cx="1488356" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>結合されている見出し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2085975" y="114300"/>
+          <a:ext cx="2981325" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1381286" cy="476250"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="152400"/>
+          <a:ext cx="1381286" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このテーブルが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>繰り返されている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2714625" y="571499"/>
+          <a:ext cx="257175" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11111"/>
+            <a:gd name="adj2" fmla="val 47959"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1790697</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4743447" y="447675"/>
+          <a:ext cx="438152" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1900457" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="314325"/>
+          <a:ext cx="1900457" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>@XlsLabelledCell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>でマッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85722</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4943472" y="800100"/>
+          <a:ext cx="257177" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2271776" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5133975" y="657225"/>
+          <a:ext cx="2271776" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>@XlsHorizontalRecords</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>でマッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1938335" y="1785938"/>
+          <a:ext cx="342903" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1800224" cy="642484"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247652" y="1743075"/>
+          <a:ext cx="1800224" cy="642484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表の名称から、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ下から表が開始するので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>bottom=2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="704850"/>
+          <a:ext cx="2105025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3609258" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7915275" y="1000125"/>
+          <a:ext cx="3609258" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定した方向に、属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>range</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の値分を検索し、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空白でない値をマッピングする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2800351" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134349" y="3705225"/>
+          <a:ext cx="2800351" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>結合しているセル分を属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>skip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="8934451" y="2581278"/>
+          <a:ext cx="228597" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22222"/>
+            <a:gd name="adj2" fmla="val 49065"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104778</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="9277349" y="2038353"/>
+          <a:ext cx="247651" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22222"/>
+            <a:gd name="adj2" fmla="val 49065"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1933576" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486775" y="2800350"/>
+          <a:ext cx="1933576" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>skip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>分を読み飛ばします。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8048625" y="5133975"/>
+          <a:ext cx="1228725" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7662862" y="5548315"/>
+          <a:ext cx="419100" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2146,15 +5848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:colOff>1009649</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2163,7 +5865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266699" y="1866900"/>
+          <a:off x="571499" y="1857375"/>
           <a:ext cx="3019425" cy="561975"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -2335,6 +6037,143 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2204321" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1466850"/>
+          <a:ext cx="2204321" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@XlsLabelledCell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で指定したセル。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513704</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1885950"/>
+          <a:ext cx="5171429" cy="4200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>513704</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6343650"/>
+          <a:ext cx="5171429" cy="4200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2627,22 +6466,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2652,21 +6518,22 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:18">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -2675,42 +6542,56 @@
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:18">
       <c r="A4" s="1"/>
       <c r="B4" s="17">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="31" t="s">
-        <v>3</v>
-      </c>
+      <c r="E4" s="85"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1"/>
       <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="13"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2719,172 +6600,269 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="13"/>
+      <c r="K6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="5.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="J7" s="13"/>
+      <c r="K7" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
-        <v>1</v>
-      </c>
-      <c r="E7" s="29">
-        <v>2</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
+      <c r="L8" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="50">
+        <v>36617</v>
+      </c>
+      <c r="N8" s="44">
+        <v>90</v>
+      </c>
+      <c r="O8" s="44">
+        <v>70</v>
+      </c>
+      <c r="P8" s="59">
+        <f>SUM(N8:O8)</f>
+        <v>160</v>
+      </c>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="44">
+        <v>2</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="50">
+        <v>36618</v>
+      </c>
+      <c r="N9" s="44">
+        <v>80</v>
+      </c>
+      <c r="O9" s="44">
+        <v>90</v>
+      </c>
+      <c r="P9" s="59">
+        <f>SUM(N9:O9)</f>
+        <v>170</v>
+      </c>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="88"/>
+      <c r="N10" s="51">
+        <f>AVERAGE(N8:N9)</f>
+        <v>85</v>
+      </c>
+      <c r="O10" s="51">
+        <f>AVERAGE(O8:O9)</f>
+        <v>80</v>
+      </c>
+      <c r="P10" s="59">
+        <f>AVERAGE(P8:P9)</f>
+        <v>165</v>
+      </c>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B11" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="13"/>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="13"/>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="H15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2892,47 +6870,32 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1</v>
-      </c>
-      <c r="E20" s="29">
-        <v>2</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="30"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2940,26 +6903,530 @@
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="46"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="48"/>
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="43"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="48"/>
+      <c r="B26" s="17">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="48"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="44">
+        <v>1</v>
+      </c>
+      <c r="L27" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="50">
+        <v>36617</v>
+      </c>
+      <c r="N27" s="44">
+        <v>90</v>
+      </c>
+      <c r="O27" s="44">
+        <v>70</v>
+      </c>
+      <c r="P27" s="59">
+        <f>SUM(N27:O27)</f>
+        <v>160</v>
+      </c>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="48"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="44">
+        <v>2</v>
+      </c>
+      <c r="L28" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="50">
+        <v>36618</v>
+      </c>
+      <c r="N28" s="44">
+        <v>80</v>
+      </c>
+      <c r="O28" s="44">
+        <v>90</v>
+      </c>
+      <c r="P28" s="59">
+        <f>SUM(N28:O28)</f>
+        <v>170</v>
+      </c>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="48"/>
+      <c r="B29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="48"/>
+      <c r="B30" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="48"/>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="48"/>
+      <c r="B32" s="17">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="48"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="43"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="13"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="13"/>
+      <c r="B46" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="66"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="13"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="13"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="13"/>
+      <c r="B49" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="13"/>
+      <c r="B50" s="17">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="13"/>
+      <c r="B51" s="17">
+        <v>2</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2970,10 +7437,645 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="9" width="7.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="74"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="72">
+        <v>0</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="72">
+        <v>0</v>
+      </c>
+      <c r="H27" s="72"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="13"/>
+      <c r="B40" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="74"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="G41" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="72">
+        <v>0</v>
+      </c>
+      <c r="I41" s="72"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="E50" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="F50" s="72">
+        <v>0</v>
+      </c>
+      <c r="G50" s="72"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3011,7 +8113,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>2</v>
@@ -3026,9 +8128,7 @@
         <v>39175</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
@@ -3036,21 +8136,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="31" t="s">
-        <v>9</v>
-      </c>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -3062,7 +8160,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="31"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
@@ -3079,9 +8177,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3116,9 +8212,124 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>39173</v>
+      </c>
+      <c r="E15" s="18">
+        <v>39174</v>
+      </c>
+      <c r="F15" s="18">
+        <v>39175</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -3127,24 +8338,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="6.75" customWidth="1"/>
+    <col min="10" max="10" width="8.25" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3153,79 +8367,102 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="32"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
-      <c r="B5" s="17">
+      <c r="B5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="89"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="13"/>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="13"/>
+      <c r="I7" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3233,17 +8470,37 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="13"/>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="13"/>
+      <c r="I9" s="17">
+        <v>2</v>
+      </c>
+      <c r="J9" s="91"/>
+      <c r="K9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3251,14 +8508,227 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="63">
+        <v>3</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="63">
+        <v>4</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="17">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="2">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J8:J9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3267,232 +8737,298 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="1.25" customWidth="1"/>
-    <col min="5" max="5" width="4.375" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="1.25" customWidth="1"/>
+    <col min="8" max="8" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+    <row r="1" spans="1:12">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="10" t="s">
-        <v>16</v>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="23">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="10"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="24">
+      <c r="I5" s="11"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="9" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="23">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="24">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="80">
+        <v>2</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="24">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="9:9">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="L18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3502,21 +9038,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3524,32 +9060,50 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="13"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -3557,32 +9111,57 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="31"/>
+      <c r="J4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="31"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="31"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3590,8 +9169,15 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="31"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3599,8 +9185,15 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="31"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3608,25 +9201,230 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="I15" s="13"/>
+      <c r="J15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="9:15">
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="9:15">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="9:15">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="9:15">
+      <c r="I20" s="31"/>
+      <c r="J20" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="9:15">
+      <c r="I21" s="31"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="9:15">
+      <c r="I22" s="31"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="9:15">
+      <c r="I23" s="31"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="9:15">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="27" spans="9:15">
+      <c r="J27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="9:15">
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="9:15">
+      <c r="I30" s="31"/>
+      <c r="J30" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="9:15">
+      <c r="I31" s="31"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="9:15">
+      <c r="I32" s="31"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="9:15">
+      <c r="I33" s="31"/>
+      <c r="J33" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="9:15">
+      <c r="I34" s="31"/>
+      <c r="J34" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="9:15">
+      <c r="I35" s="31"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="9:15">
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J34:M34"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -3665,7 +9463,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3677,10 +9475,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="31"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3691,10 +9489,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="85"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3705,11 +9503,11 @@
         <v>3</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -3738,15 +9536,13 @@
     <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="12">
         <v>41913</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
@@ -3790,16 +9586,6 @@
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3811,4 +9597,119 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="98">
+        <v>1</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="98">
+        <v>2</v>
+      </c>
+      <c r="C6" s="96" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="99">
+        <v>3</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14955" windowHeight="12705" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="675" yWindow="135" windowWidth="14955" windowHeight="10470" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cell" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -463,14 +463,115 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>データの開始位置が離れている場合</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気温</t>
+    <rPh sb="0" eb="2">
+      <t>キオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天気</t>
+    <rPh sb="0" eb="2">
+      <t>テンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>晴</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定結果</t>
+    <rPh sb="0" eb="2">
+      <t>ソクテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現、正規化による一致</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（必須）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コメント
+ （オプション）
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0000000"/>
+    <numFmt numFmtId="178" formatCode="0&quot;℃&quot;_ "/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -568,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -868,6 +969,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -878,7 +1050,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,6 +1261,70 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,6 +1333,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1110,7 +1352,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,17 +1379,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2746,6 +2988,331 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3200400" cy="642484"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953625" y="7477125"/>
+          <a:ext cx="3200400" cy="642484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>見出し用セルが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>縦に結合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>され、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データレコードの開始が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ離れている場合。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>headerBottom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>=2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="角丸四角形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="8420101"/>
+          <a:ext cx="1076325" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>48491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="8353423" y="8106641"/>
+          <a:ext cx="0" cy="322983"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="右矢印 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8572499" y="8715376"/>
+          <a:ext cx="409578" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 47223"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2447925" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048751" y="8839201"/>
+          <a:ext cx="2447925" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下記の表と見立ててマッピングする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3560,6 +4127,331 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3200400" cy="642484"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304926" y="9515475"/>
+          <a:ext cx="3200400" cy="642484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>見出し用セルが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>横に結合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>され、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>データレコードの開始が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ離れている場合。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>headerRight</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>=2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="10458451"/>
+          <a:ext cx="1400175" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>170583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1685925" y="10134600"/>
+          <a:ext cx="0" cy="322983"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2300285" y="11110913"/>
+          <a:ext cx="381003" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 47223"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2447925" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="11277600"/>
+          <a:ext cx="2447925" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下記の表と見立ててマッピングする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5744,6 +6636,235 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1866900" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639800" y="6762751"/>
+          <a:ext cx="1866900" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>正規表現</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> “</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>”に一致</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361948</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361948</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="13954123" y="6991350"/>
+          <a:ext cx="0" cy="247649"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342898</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342898</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13935073" y="7991474"/>
+          <a:ext cx="0" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2419350" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13630275" y="8172451"/>
+          <a:ext cx="2419350" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>空白、改行を除去して正規化し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>“コメント（オプション）”一致。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6492,10 +7613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6506,6 +7627,11 @@
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="17" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -6556,7 +7682,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="85"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6577,7 +7703,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6606,11 +7732,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="86" t="s">
+      <c r="N6" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
     </row>
@@ -6711,10 +7837,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="88"/>
+      <c r="M10" s="114"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -6974,11 +8100,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="82" t="s">
+      <c r="N25" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="108"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
     </row>
@@ -7164,7 +8290,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:20">
       <c r="A33" s="48"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -7183,7 +8309,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:20">
       <c r="A34" s="13"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -7201,7 +8327,7 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:20">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -7219,7 +8345,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:20">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -7228,7 +8354,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:20">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -7237,7 +8363,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:20">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -7246,7 +8372,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:20">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -7254,8 +8380,11 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -7264,7 +8393,32 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="41" spans="1:20">
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="I42" s="13"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -7272,8 +8426,16 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="I43" s="13"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="69"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -7281,8 +8443,16 @@
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="I44" s="13"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="91"/>
+      <c r="N44" s="91"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -7290,8 +8460,16 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="I45" s="13"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="13"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="13"/>
       <c r="B46" s="68" t="s">
         <v>0</v>
@@ -7301,8 +8479,16 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="I46" s="13"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="95"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="13"/>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="13"/>
       <c r="B47" s="66"/>
       <c r="C47" s="66"/>
@@ -7310,8 +8496,19 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="I47" s="13"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="56"/>
+      <c r="M47" s="90"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="13"/>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
@@ -7319,8 +8516,23 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48" s="13"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="M48" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" s="107"/>
+      <c r="O48" s="108"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="13"/>
       <c r="B49" s="28" t="s">
         <v>1</v>
@@ -7332,8 +8544,23 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="13"/>
       <c r="B50" s="17">
         <v>1</v>
@@ -7345,8 +8572,28 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="94">
+        <v>1</v>
+      </c>
+      <c r="L50" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M50" s="44">
+        <v>90</v>
+      </c>
+      <c r="N50" s="44">
+        <v>70</v>
+      </c>
+      <c r="O50" s="59">
+        <f>SUM(M50:N50)</f>
+        <v>160</v>
+      </c>
+      <c r="P50" s="91"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="17">
         <v>2</v>
@@ -7356,8 +8603,28 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="94">
+        <v>2</v>
+      </c>
+      <c r="L51" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M51" s="44">
+        <v>80</v>
+      </c>
+      <c r="N51" s="44">
+        <v>90</v>
+      </c>
+      <c r="O51" s="59">
+        <f>SUM(M51:N51)</f>
+        <v>170</v>
+      </c>
+      <c r="P51" s="90"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -7365,8 +8632,17 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="90"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -7374,8 +8650,17 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -7383,8 +8668,18 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="56"/>
+      <c r="M54" s="90"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -7392,8 +8687,25 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="L55" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="M55" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="N55" s="107"/>
+      <c r="O55" s="108"/>
+      <c r="P55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -7401,8 +8713,16 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="13"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -7410,8 +8730,27 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="94">
+        <v>1</v>
+      </c>
+      <c r="L57" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="M57" s="44">
+        <v>90</v>
+      </c>
+      <c r="N57" s="44">
+        <v>70</v>
+      </c>
+      <c r="O57" s="59">
+        <f>SUM(M57:N57)</f>
+        <v>160</v>
+      </c>
+      <c r="P57" s="13"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -7419,13 +8758,91 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="94">
+        <v>2</v>
+      </c>
+      <c r="L58" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M58" s="44">
+        <v>80</v>
+      </c>
+      <c r="N58" s="44">
+        <v>90</v>
+      </c>
+      <c r="O58" s="59">
+        <f>SUM(M58:N58)</f>
+        <v>170</v>
+      </c>
+      <c r="P58" s="13"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="N25:P25"/>
+  <mergeCells count="9">
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -7437,10 +8854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:C55"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8061,7 +9478,346 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="13"/>
+      <c r="B62" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="116"/>
+      <c r="D62" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="13"/>
+      <c r="B63" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="96">
+        <v>0.7</v>
+      </c>
+      <c r="E63" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="F63" s="96">
+        <v>0</v>
+      </c>
+      <c r="G63" s="96"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="13"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="102">
+        <v>15</v>
+      </c>
+      <c r="E64" s="102">
+        <v>18</v>
+      </c>
+      <c r="F64" s="102">
+        <v>20</v>
+      </c>
+      <c r="G64" s="97"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="13"/>
+      <c r="B65" s="110"/>
+      <c r="C65" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="98"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="13"/>
+      <c r="B69" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E69" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="13"/>
+      <c r="B70" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="103"/>
+      <c r="D70" s="96">
+        <v>0.7</v>
+      </c>
+      <c r="E70" s="96">
+        <v>0.5</v>
+      </c>
+      <c r="F70" s="96">
+        <v>0</v>
+      </c>
+      <c r="G70" s="96"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="13"/>
+      <c r="B71" s="117"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="102">
+        <v>15</v>
+      </c>
+      <c r="E71" s="102">
+        <v>18</v>
+      </c>
+      <c r="F71" s="102">
+        <v>20</v>
+      </c>
+      <c r="G71" s="97"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="13"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="98"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B70:B72"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8148,7 +9904,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="85"/>
+      <c r="H4" s="111"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -8160,7 +9916,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="85"/>
+      <c r="H5" s="111"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
@@ -8272,7 +10028,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="85"/>
+      <c r="H16" s="111"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
@@ -8284,7 +10040,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="85"/>
+      <c r="H17" s="111"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
@@ -8343,7 +10099,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8404,10 +10160,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -8474,7 +10230,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="90" t="s">
+      <c r="J8" s="118" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -8494,7 +10250,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="91"/>
+      <c r="J9" s="119"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -9040,16 +10796,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -9272,11 +11031,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="92" t="s">
+      <c r="J20" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="122"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -9363,7 +11122,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
     </row>
-    <row r="33" spans="9:15">
+    <row r="33" spans="9:22">
       <c r="I33" s="31"/>
       <c r="J33" s="39" t="s">
         <v>32</v>
@@ -9374,18 +11133,18 @@
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="9:15">
+    <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="95" t="s">
+      <c r="J34" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>
-    <row r="35" spans="9:15">
+    <row r="35" spans="9:22">
       <c r="I35" s="31"/>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -9394,13 +11153,120 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="9:15">
+    <row r="36" spans="9:22">
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="9:22">
+      <c r="Q37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="9:22">
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
+      <c r="V39" s="125"/>
+    </row>
+    <row r="40" spans="9:22">
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="125"/>
+    </row>
+    <row r="41" spans="9:22">
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="9:22">
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+    <row r="43" spans="9:22">
+      <c r="Q43" s="13"/>
+      <c r="R43" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S43" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+    </row>
+    <row r="44" spans="9:22">
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+    </row>
+    <row r="45" spans="9:22" ht="40.5">
+      <c r="Q45" s="13"/>
+      <c r="R45" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="S45" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+    </row>
+    <row r="46" spans="9:22">
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+    </row>
+    <row r="47" spans="9:22">
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+    </row>
+    <row r="48" spans="9:22">
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+    </row>
+    <row r="49" spans="9:22">
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9478,7 +11344,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9492,7 +11358,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="85"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -9603,7 +11469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -9654,38 +11520,38 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="98">
+      <c r="B5" s="85">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="83" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="85"/>
+      <c r="E5" s="111"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="98">
+      <c r="B6" s="85">
         <v>2</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="83" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="85"/>
+      <c r="E6" s="111"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="99">
+      <c r="B7" s="86">
         <v>3</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="25"/>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,25 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="135" windowWidth="14955" windowHeight="10470" activeTab="6"/>
+    <workbookView xWindow="675" yWindow="135" windowWidth="14955" windowHeight="10470" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cell" sheetId="9" r:id="rId1"/>
-    <sheet name="HorizontalRecords" sheetId="1" r:id="rId2"/>
-    <sheet name="VerticalRecords" sheetId="8" r:id="rId3"/>
-    <sheet name="MapColumns" sheetId="2" r:id="rId4"/>
-    <sheet name="Column" sheetId="3" r:id="rId5"/>
-    <sheet name="IterateTable" sheetId="4" r:id="rId6"/>
-    <sheet name="LabelledCell" sheetId="5" r:id="rId7"/>
-    <sheet name="Hint" sheetId="7" r:id="rId8"/>
-    <sheet name="Converter" sheetId="10" r:id="rId9"/>
+    <sheet name="List (template)" sheetId="14" r:id="rId1"/>
+    <sheet name="List" sheetId="11" r:id="rId2"/>
+    <sheet name="Cell" sheetId="9" r:id="rId3"/>
+    <sheet name="HorizontalRecords" sheetId="1" r:id="rId4"/>
+    <sheet name="VerticalRecords" sheetId="8" r:id="rId5"/>
+    <sheet name="MapColumns" sheetId="2" r:id="rId6"/>
+    <sheet name="Column" sheetId="3" r:id="rId7"/>
+    <sheet name="IterateTable" sheetId="4" r:id="rId8"/>
+    <sheet name="LabelledCell" sheetId="5" r:id="rId9"/>
+    <sheet name="Hint" sheetId="7" r:id="rId10"/>
+    <sheet name="Converter" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -563,6 +565,86 @@
     <t>コメントです。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ichiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>femal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Taro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -573,7 +655,7 @@
     <numFmt numFmtId="177" formatCode="0000000"/>
     <numFmt numFmtId="178" formatCode="0&quot;℃&quot;_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -623,6 +705,19 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1041,7 +1136,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1049,8 +1144,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,20 +1423,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1353,6 +1442,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1379,16 +1483,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7587,10 +7713,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="128"/>
+    <col min="2" max="2" width="9" style="128" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="128" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="128" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="128" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="128"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="127"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="129" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="131"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="17">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="26">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13"/>
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="12">
+        <v>41913</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="6.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="85">
+        <v>1</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
+      <c r="B6" s="85">
+        <v>2</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="86">
+        <v>3</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5">
+      <c r="B3" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="127">
+        <v>42437</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="129" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="131">
+        <v>1</v>
+      </c>
+      <c r="C7" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="131">
+        <v>2</v>
+      </c>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="131">
+        <v>3</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="131">
+        <v>4</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="131"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="131"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7611,7 +8224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T64"/>
   <sheetViews>
@@ -7682,7 +8295,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="111"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7703,7 +8316,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="111"/>
+      <c r="E5" s="108"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7732,11 +8345,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="112" t="s">
+      <c r="N6" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
     </row>
@@ -7837,10 +8450,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="113" t="s">
+      <c r="L10" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="114"/>
+      <c r="M10" s="111"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -8100,11 +8713,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="106" t="s">
+      <c r="N25" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="115"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
     </row>
@@ -8427,7 +9040,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="115"/>
+      <c r="J43" s="112"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -8444,7 +9057,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="115"/>
+      <c r="J44" s="112"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -8518,17 +9131,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="109" t="s">
+      <c r="K48" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="109" t="s">
+      <c r="L48" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="106" t="s">
+      <c r="M48" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="107"/>
-      <c r="O48" s="108"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="115"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -8546,8 +9159,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -8695,11 +9308,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="106" t="s">
+      <c r="M55" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="107"/>
-      <c r="O55" s="108"/>
+      <c r="N55" s="114"/>
+      <c r="O55" s="115"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -8852,7 +9465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K76"/>
   <sheetViews>
@@ -9566,10 +10179,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13"/>
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="116"/>
+      <c r="C62" s="118"/>
       <c r="D62" s="73" t="s">
         <v>60</v>
       </c>
@@ -9588,7 +10201,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="109" t="s">
+      <c r="B63" s="116" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -9610,7 +10223,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13"/>
-      <c r="B64" s="117"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="100" t="s">
         <v>69</v>
       </c>
@@ -9630,7 +10243,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="110"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -9710,7 +10323,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="109" t="s">
+      <c r="B70" s="116" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -9730,7 +10343,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="13"/>
-      <c r="B71" s="117"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="103"/>
       <c r="D71" s="102">
         <v>15</v>
@@ -9748,7 +10361,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="110"/>
+      <c r="B72" s="117"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -9826,7 +10439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -9904,7 +10517,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="111"/>
+      <c r="H4" s="108"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -9916,7 +10529,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="111"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
@@ -10028,7 +10641,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="111"/>
+      <c r="H16" s="108"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
@@ -10040,7 +10653,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="111"/>
+      <c r="H17" s="108"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
@@ -10094,7 +10707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
@@ -10160,10 +10773,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="116" t="s">
+      <c r="D5" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -10230,7 +10843,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="118" t="s">
+      <c r="J8" s="120" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -10250,7 +10863,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="119"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -10493,7 +11106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -10794,11 +11407,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
@@ -11031,11 +11644,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="120" t="s">
+      <c r="J20" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="124"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -11135,12 +11748,12 @@
     </row>
     <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="123" t="s">
+      <c r="J34" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
-      <c r="M34" s="123"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>
@@ -11167,12 +11780,12 @@
       </c>
     </row>
     <row r="39" spans="9:22">
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="125"/>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
+      <c r="Q39" s="107"/>
+      <c r="R39" s="107"/>
+      <c r="S39" s="107"/>
+      <c r="T39" s="107"/>
+      <c r="U39" s="107"/>
+      <c r="V39" s="107"/>
     </row>
     <row r="40" spans="9:22">
       <c r="Q40" s="45"/>
@@ -11180,7 +11793,7 @@
       <c r="S40" s="45"/>
       <c r="T40" s="45"/>
       <c r="U40" s="45"/>
-      <c r="V40" s="125"/>
+      <c r="V40" s="107"/>
     </row>
     <row r="41" spans="9:22">
       <c r="Q41" s="13"/>
@@ -11220,7 +11833,7 @@
     </row>
     <row r="45" spans="9:22" ht="40.5">
       <c r="Q45" s="13"/>
-      <c r="R45" s="124" t="s">
+      <c r="R45" s="106" t="s">
         <v>77</v>
       </c>
       <c r="S45" s="87" t="s">
@@ -11278,304 +11891,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="17">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="26">
-        <v>3</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="12">
-        <v>41913</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="6.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="23.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1"/>
-      <c r="B4" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1"/>
-      <c r="B5" s="85">
-        <v>1</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1"/>
-      <c r="B6" s="85">
-        <v>2</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="86">
-        <v>3</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E5:E6"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="135" windowWidth="14955" windowHeight="10470" activeTab="1"/>
+    <workbookView xWindow="675" yWindow="135" windowWidth="14955" windowHeight="10470" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -645,6 +645,10 @@
     <t>Gender</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>リーダー。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1148,7 +1152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1429,6 +1433,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1482,33 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4587,13 +4594,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4640,13 +4647,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4659,7 +4666,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
           <a:off x="3714750" y="428625"/>
-          <a:ext cx="257175" cy="0"/>
+          <a:ext cx="247650" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4687,14 +4694,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>5953</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4706,12 +4713,12 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3714750" y="514350"/>
-          <a:ext cx="257175" cy="342900"/>
+          <a:off x="3714750" y="517922"/>
+          <a:ext cx="279797" cy="345281"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 11111"/>
+            <a:gd name="adj1" fmla="val 19621"/>
             <a:gd name="adj2" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
@@ -4741,7 +4748,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1707712" cy="275717"/>
@@ -4793,7 +4800,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1240981" cy="275717"/>
@@ -4849,7 +4856,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1110945" cy="275717"/>
@@ -4903,16 +4910,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238123</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>71434</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174941</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>240631</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174941</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4922,9 +4929,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2734676" y="2798592"/>
-          <a:ext cx="2508" cy="219328"/>
+        <a:xfrm flipH="1">
+          <a:off x="3899544" y="4219349"/>
+          <a:ext cx="0" cy="227840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4953,13 +4960,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5013,7 +5020,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>128400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4024435" cy="275717"/>
@@ -5085,6 +5092,500 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2714625" y="28575"/>
+          <a:ext cx="171450" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 88889"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651478" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="5114925"/>
+          <a:ext cx="1651478" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>この部分が可変長で、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Map</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にマッピングされる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586279</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25620</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2521011" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3081829" y="4483320"/>
+          <a:ext cx="2521011" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng"/>
+            <a:t>nextColumName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>備考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マッピング終了の次のセルを指定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517184</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>517184</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1183934" y="4235115"/>
+          <a:ext cx="0" cy="229153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>218417</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>27262</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2521011" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448331" y="3784710"/>
+          <a:ext cx="2521011" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>previousColumName="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マッピング開始の前のセルを指定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450509</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>450509</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1117259" y="815640"/>
+          <a:ext cx="0" cy="229153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>246992</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17737</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2521011" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="475592" y="360637"/>
+          <a:ext cx="2521011" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng"/>
+            <a:t>previousColumName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マッピング開始の前のセルを指定する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231434</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>72690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231434</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2726984" y="3501690"/>
+          <a:ext cx="0" cy="229153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7721,44 +8222,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="128"/>
-    <col min="2" max="2" width="9" style="128" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="128" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="128" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="128" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="128"/>
+    <col min="1" max="1" width="9" style="111"/>
+    <col min="2" max="2" width="9" style="111" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="111" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="111" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="111" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="111"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="127"/>
+      <c r="C3" s="110"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="112" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="113" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="131"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="114"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7830,7 +8331,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="108"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7844,7 +8345,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="108"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8013,7 +8514,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="108"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8027,7 +8528,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="108"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8070,7 +8571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -8082,112 +8583,112 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="127">
+      <c r="C3" s="110">
         <v>42437</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="113" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="131">
+      <c r="B7" s="114">
         <v>1</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="133" t="s">
+      <c r="D7" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="116" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="131">
+      <c r="B8" s="114">
         <v>2</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133" t="s">
+      <c r="C8" s="117"/>
+      <c r="D8" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="114" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="131">
+      <c r="B9" s="114">
         <v>3</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="116" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="131">
+      <c r="B10" s="114">
         <v>4</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="116" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="131"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="114"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="131"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="114"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="131"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8295,7 +8796,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="108"/>
+      <c r="E4" s="118"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8316,7 +8817,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="108"/>
+      <c r="E5" s="118"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8345,11 +8846,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="109" t="s">
+      <c r="N6" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
     </row>
@@ -8450,10 +8951,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="110" t="s">
+      <c r="L10" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="111"/>
+      <c r="M10" s="121"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -8713,11 +9214,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="113" t="s">
+      <c r="N25" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="114"/>
-      <c r="P25" s="115"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="125"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
     </row>
@@ -9040,7 +9541,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="112"/>
+      <c r="J43" s="122"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -9057,7 +9558,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="112"/>
+      <c r="J44" s="122"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -9131,17 +9632,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="116" t="s">
+      <c r="K48" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="116" t="s">
+      <c r="L48" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="113" t="s">
+      <c r="M48" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="114"/>
-      <c r="O48" s="115"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="125"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -9159,8 +9660,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="117"/>
-      <c r="L49" s="117"/>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -9308,11 +9809,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="113" t="s">
+      <c r="M55" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="114"/>
-      <c r="O55" s="115"/>
+      <c r="N55" s="124"/>
+      <c r="O55" s="125"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -10179,10 +10680,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13"/>
-      <c r="B62" s="118" t="s">
+      <c r="B62" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="118"/>
+      <c r="C62" s="128"/>
       <c r="D62" s="73" t="s">
         <v>60</v>
       </c>
@@ -10201,7 +10702,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="116" t="s">
+      <c r="B63" s="126" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -10223,7 +10724,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13"/>
-      <c r="B64" s="119"/>
+      <c r="B64" s="129"/>
       <c r="C64" s="100" t="s">
         <v>69</v>
       </c>
@@ -10243,7 +10744,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="117"/>
+      <c r="B65" s="127"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -10323,7 +10824,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="126" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -10343,7 +10844,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="13"/>
-      <c r="B71" s="119"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="103"/>
       <c r="D71" s="102">
         <v>15</v>
@@ -10361,7 +10862,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="117"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -10441,10 +10942,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10453,7 +10954,7 @@
     <col min="2" max="2" width="5.75" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10469,9 +10970,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -10481,59 +10980,39 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="B3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="18">
-        <v>39173</v>
-      </c>
-      <c r="E3" s="18">
-        <v>39174</v>
-      </c>
-      <c r="F3" s="18">
-        <v>39175</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1"/>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="108"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
-      <c r="B5" s="17">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="108"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -10543,33 +11022,55 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>39173</v>
+      </c>
+      <c r="E7" s="18">
+        <v>39174</v>
+      </c>
+      <c r="F7" s="18">
+        <v>39175</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="118"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="118"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -10581,6 +11082,26 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
@@ -10593,9 +11114,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -10603,61 +11122,21 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="18">
-        <v>39173</v>
-      </c>
-      <c r="E15" s="18">
-        <v>39174</v>
-      </c>
-      <c r="F15" s="18">
-        <v>39175</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1"/>
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="108"/>
-    </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
-      <c r="B17" s="17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="108"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -10667,38 +11146,249 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="18">
+        <v>39173</v>
+      </c>
+      <c r="E19" s="18">
+        <v>39174</v>
+      </c>
+      <c r="F19" s="18">
+        <v>39175</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="B21" s="17">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="118"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1"/>
+      <c r="B31" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="18">
+        <v>39173</v>
+      </c>
+      <c r="E31" s="18">
+        <v>39174</v>
+      </c>
+      <c r="F31" s="18">
+        <v>39175</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1"/>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="118"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1"/>
+      <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="118"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H16:H17"/>
+  <mergeCells count="3">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H32:H33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -10773,10 +11463,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="118"/>
+      <c r="E5" s="128"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -10843,7 +11533,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="J8" s="130" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -10863,7 +11553,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="121"/>
+      <c r="J9" s="131"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -11644,11 +12334,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="122" t="s">
+      <c r="J20" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="123"/>
-      <c r="L20" s="124"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -11748,12 +12438,12 @@
     </row>
     <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="125" t="s">
+      <c r="J34" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
+      <c r="K34" s="135"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="102">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -606,10 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>femal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Taro</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -647,6 +643,32 @@
   </si>
   <si>
     <t>リーダー。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>femal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[日付]</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1152,7 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1460,6 +1482,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,6 +1543,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5586,6 +5623,250 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1985961" y="7853367"/>
+          <a:ext cx="323853" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 47223"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="7467600"/>
+          <a:ext cx="752475" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="8505825"/>
+          <a:ext cx="1943100" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2024529" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="7877175"/>
+          <a:ext cx="2024529" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>書き込み処理の前に、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>可変部分のセルを書き換える。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8232,27 +8513,27 @@
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="110"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="112" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="D6" s="109" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="E6" s="113" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="113" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -8331,7 +8612,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8345,7 +8626,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8514,7 +8795,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8528,7 +8809,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="118"/>
+      <c r="E6" s="120"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8572,7 +8853,7 @@
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8624,7 +8905,7 @@
       <c r="B7" s="114">
         <v>1</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="119" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="115" t="s">
@@ -8638,21 +8919,21 @@
       <c r="B8" s="114">
         <v>2</v>
       </c>
-      <c r="C8" s="117"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="114" t="s">
-        <v>89</v>
+      <c r="E8" s="118" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="114">
         <v>3</v>
       </c>
-      <c r="C9" s="117"/>
+      <c r="C9" s="119"/>
       <c r="D9" s="115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="116" t="s">
         <v>87</v>
@@ -8663,10 +8944,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="115" t="s">
         <v>91</v>
-      </c>
-      <c r="D10" s="115" t="s">
-        <v>92</v>
       </c>
       <c r="E10" s="116" t="s">
         <v>87</v>
@@ -8796,7 +9077,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="118"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -8817,7 +9098,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="118"/>
+      <c r="E5" s="120"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8846,11 +9127,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="119" t="s">
+      <c r="N6" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="119"/>
-      <c r="P6" s="119"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
     </row>
@@ -8951,10 +9232,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="120" t="s">
+      <c r="L10" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="121"/>
+      <c r="M10" s="123"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -9214,11 +9495,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="123" t="s">
+      <c r="N25" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="124"/>
-      <c r="P25" s="125"/>
+      <c r="O25" s="126"/>
+      <c r="P25" s="127"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
     </row>
@@ -9541,7 +9822,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="122"/>
+      <c r="J43" s="124"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -9558,7 +9839,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="122"/>
+      <c r="J44" s="124"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -9632,17 +9913,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="126" t="s">
+      <c r="K48" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="126" t="s">
+      <c r="L48" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="123" t="s">
+      <c r="M48" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="124"/>
-      <c r="O48" s="125"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="127"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -9660,8 +9941,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -9809,11 +10090,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="123" t="s">
+      <c r="M55" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="124"/>
-      <c r="O55" s="125"/>
+      <c r="N55" s="126"/>
+      <c r="O55" s="127"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -10680,10 +10961,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13"/>
-      <c r="B62" s="128" t="s">
+      <c r="B62" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="128"/>
+      <c r="C62" s="130"/>
       <c r="D62" s="73" t="s">
         <v>60</v>
       </c>
@@ -10702,7 +10983,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="126" t="s">
+      <c r="B63" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -10724,7 +11005,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13"/>
-      <c r="B64" s="129"/>
+      <c r="B64" s="131"/>
       <c r="C64" s="100" t="s">
         <v>69</v>
       </c>
@@ -10744,7 +11025,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="127"/>
+      <c r="B65" s="129"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -10824,7 +11105,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="126" t="s">
+      <c r="B70" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -10844,7 +11125,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="13"/>
-      <c r="B71" s="129"/>
+      <c r="B71" s="131"/>
       <c r="C71" s="103"/>
       <c r="D71" s="102">
         <v>15</v>
@@ -10862,7 +11143,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="127"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -10942,10 +11223,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11058,7 +11339,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="118"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -11070,7 +11351,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="118"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -11182,7 +11463,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="118"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -11194,7 +11475,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="118"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
@@ -11318,9 +11599,9 @@
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="118"/>
+        <v>98</v>
+      </c>
+      <c r="H32" s="120"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
@@ -11332,7 +11613,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="118"/>
+      <c r="H33" s="120"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
@@ -11383,6 +11664,156 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13"/>
+      <c r="B44" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13"/>
+      <c r="B45" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="13"/>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="13"/>
+      <c r="B50" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="18">
+        <v>39173</v>
+      </c>
+      <c r="E50" s="18">
+        <v>39174</v>
+      </c>
+      <c r="F50" s="18">
+        <v>39175</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="13"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11463,10 +11894,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="128"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -11533,7 +11964,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="130" t="s">
+      <c r="J8" s="132" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -11553,7 +11984,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="131"/>
+      <c r="J9" s="133"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -12334,11 +12765,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="132" t="s">
+      <c r="J20" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="136"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -12438,12 +12869,12 @@
     </row>
     <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="135" t="s">
+      <c r="J34" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="135"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -1488,6 +1488,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,15 +1552,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5295,7 +5295,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng"/>
-            <a:t>nextColumName</a:t>
+            <a:t>nextColumnName</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -5422,7 +5422,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>previousColumName="</a:t>
+            <a:t>previousColumnName="</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -8612,7 +8612,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="120"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8626,7 +8626,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="120"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8795,7 +8795,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="120"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8809,7 +8809,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="120"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8905,7 +8905,7 @@
       <c r="B7" s="114">
         <v>1</v>
       </c>
-      <c r="C7" s="119" t="s">
+      <c r="C7" s="122" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="115" t="s">
@@ -8919,7 +8919,7 @@
       <c r="B8" s="114">
         <v>2</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="115" t="s">
         <v>88</v>
       </c>
@@ -8931,7 +8931,7 @@
       <c r="B9" s="114">
         <v>3</v>
       </c>
-      <c r="C9" s="119"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="115" t="s">
         <v>89</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="120"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9098,7 +9098,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="120"/>
+      <c r="E5" s="123"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9127,11 +9127,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
     </row>
@@ -9232,10 +9232,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="122" t="s">
+      <c r="L10" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="123"/>
+      <c r="M10" s="126"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -9495,11 +9495,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="125" t="s">
+      <c r="N25" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="126"/>
-      <c r="P25" s="127"/>
+      <c r="O25" s="129"/>
+      <c r="P25" s="130"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
     </row>
@@ -9822,7 +9822,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="124"/>
+      <c r="J43" s="127"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -9839,7 +9839,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="124"/>
+      <c r="J44" s="127"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -9913,17 +9913,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="128" t="s">
+      <c r="K48" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="128" t="s">
+      <c r="L48" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="125" t="s">
+      <c r="M48" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="126"/>
-      <c r="O48" s="127"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="130"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -9941,8 +9941,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -10090,11 +10090,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="125" t="s">
+      <c r="M55" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="126"/>
-      <c r="O55" s="127"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="130"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -10961,10 +10961,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13"/>
-      <c r="B62" s="130" t="s">
+      <c r="B62" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="130"/>
+      <c r="C62" s="133"/>
       <c r="D62" s="73" t="s">
         <v>60</v>
       </c>
@@ -10983,7 +10983,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="128" t="s">
+      <c r="B63" s="131" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -11005,7 +11005,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13"/>
-      <c r="B64" s="131"/>
+      <c r="B64" s="134"/>
       <c r="C64" s="100" t="s">
         <v>69</v>
       </c>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="129"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -11105,7 +11105,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="128" t="s">
+      <c r="B70" s="131" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="13"/>
-      <c r="B71" s="131"/>
+      <c r="B71" s="134"/>
       <c r="C71" s="103"/>
       <c r="D71" s="102">
         <v>15</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="129"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -11225,7 +11225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -11339,7 +11339,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="120"/>
+      <c r="H8" s="123"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -11351,7 +11351,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="120"/>
+      <c r="H9" s="123"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -11463,7 +11463,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="120"/>
+      <c r="H20" s="123"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -11475,7 +11475,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="120"/>
+      <c r="H21" s="123"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
@@ -11601,7 +11601,7 @@
       <c r="G32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="120"/>
+      <c r="H32" s="123"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
@@ -11613,7 +11613,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="120"/>
+      <c r="H33" s="123"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
@@ -11712,10 +11712,10 @@
       <c r="B45" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="138" t="s">
+      <c r="C45" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="139" t="s">
+      <c r="D45" s="120" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="13"/>
@@ -11726,7 +11726,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="13"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="140"/>
+      <c r="C46" s="121"/>
       <c r="D46" s="17"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
@@ -11894,10 +11894,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="130"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -11964,7 +11964,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="132" t="s">
+      <c r="J8" s="135" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -11984,7 +11984,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="133"/>
+      <c r="J9" s="136"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -12765,11 +12765,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="134" t="s">
+      <c r="J20" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="135"/>
-      <c r="L20" s="136"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="139"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -12869,12 +12869,12 @@
     </row>
     <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="137" t="s">
+      <c r="J34" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="137"/>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="135" windowWidth="14955" windowHeight="10470" activeTab="5"/>
+    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="159">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -671,6 +671,362 @@
     <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ユーザ一覧</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX-000-0000</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能A</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能Aの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能A1</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能A1の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A11</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A11の値</t>
+  </si>
+  <si>
+    <t>項目A12</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A12の値</t>
+  </si>
+  <si>
+    <t>機能A2</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能A2の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A21</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A21の値</t>
+  </si>
+  <si>
+    <t>機能A3</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能A3の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A31</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A31の値</t>
+  </si>
+  <si>
+    <t>項目A32</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A32の値</t>
+  </si>
+  <si>
+    <t>項目A33</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目A33の値</t>
+  </si>
+  <si>
+    <t>機能B</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能Bの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能B1</t>
+  </si>
+  <si>
+    <t>機能B1の説明</t>
+  </si>
+  <si>
+    <t>項目B11</t>
+  </si>
+  <si>
+    <t>項目B11の値</t>
+  </si>
+  <si>
+    <t>機能B2</t>
+  </si>
+  <si>
+    <t>機能B2の説明</t>
+  </si>
+  <si>
+    <t>項目B21</t>
+  </si>
+  <si>
+    <t>項目B21の値</t>
+  </si>
+  <si>
+    <t>項目B22</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目B22の値</t>
+  </si>
+  <si>
+    <t>機能C</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能Cの説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能C1</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能C1の説明</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目C11</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>項目C11の値</t>
+  </si>
+  <si>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明（機能）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>説明（分類）</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クラス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生徒情報</t>
+    <rPh sb="0" eb="2">
+      <t>セイト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木次郎</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林三郎</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サブロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -681,7 +1037,7 @@
     <numFmt numFmtId="177" formatCode="0000000"/>
     <numFmt numFmtId="178" formatCode="0&quot;℃&quot;_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -745,6 +1101,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -790,7 +1153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1161,6 +1524,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,7 +1778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1497,6 +2101,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1553,6 +2166,143 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3483,6 +4233,2365 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3581400" cy="642484"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677150" y="11306175"/>
+          <a:ext cx="3581400" cy="642484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>見出しの途中に空白セルがある場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通常は列「連絡先」はマッピングされない。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng"/>
+            <a:t>range</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>=3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を指定し、許容する空白セルの上限を増やす。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Line 5"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7162800" y="12676908"/>
+          <a:ext cx="0" cy="181842"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4219575" cy="631327"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715124" y="12849225"/>
+          <a:ext cx="4219575" cy="631327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表のタイトル直下の列が空白の場合、表自体が走査されないため、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>range</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" u="none"/>
+            <a:t>=2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を指定し、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>許容する空白セルの上限を増やす。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="9158287" y="11320461"/>
+          <a:ext cx="266701" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15789"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>652464</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右中かっこ 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="14506577" y="-9527"/>
+          <a:ext cx="338138" cy="1738313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42619"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4767</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>166685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1009651</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="右中かっこ 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="16206790" y="4762"/>
+          <a:ext cx="338138" cy="1690684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42619"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>14293</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="右中かっこ 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="17878428" y="47625"/>
+          <a:ext cx="338138" cy="1585907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42619"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1376787" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14430375" y="304800"/>
+          <a:ext cx="1376787" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CategoryRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1363515" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16173450" y="304800"/>
+          <a:ext cx="1363515" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FunctionRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1199303" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17964150" y="285750"/>
+          <a:ext cx="1199303" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DetailRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1102931" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14182725" y="3343275"/>
+          <a:ext cx="1102931" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>CategoryRecord</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14230350" y="3590925"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>分類</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14230350" y="3895725"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明（分類）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1089657" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16059150" y="3343275"/>
+          <a:ext cx="1089657" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FunctionRecord</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16106775" y="3590925"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>機能名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16106775" y="3895725"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>説明（機能）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="925446" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17907000" y="3343275"/>
+          <a:ext cx="925446" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DetailRecord</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17954625" y="3590925"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>項目</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17954625" y="3895725"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15392400" y="3762375"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線コネクタ 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17240250" y="3762375"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>924511</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95107</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15874620" y="3606933"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>63976</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17730780" y="3598650"/>
+          <a:ext cx="325730" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>681044</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>666752</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="右中かっこ 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="20654967" y="-223839"/>
+          <a:ext cx="338138" cy="1804983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42619"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1734962" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19916775" y="266700"/>
+          <a:ext cx="1734962" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UserRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」にマッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>681046</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>676278</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152396</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="右中かっこ 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="22598068" y="-357189"/>
+          <a:ext cx="338138" cy="2052632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42619"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1952626" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21802724" y="247650"/>
+          <a:ext cx="1952626" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ResultRecord</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」にマッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853888" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="テキスト ボックス 68"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20297775" y="2171700"/>
+          <a:ext cx="853888" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>UserRecord</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="2419350"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="2724150"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>クラス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="944554" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="テキスト ボックス 71"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22174200" y="2171700"/>
+          <a:ext cx="944554" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ResultRecord</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22221825" y="2419350"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>国語</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22221825" y="2724150"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>算数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線コネクタ 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21507450" y="2590800"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>219661</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21965236" y="2390632"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="3038475"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>氏名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22221825" y="3038475"/>
+          <a:ext cx="1143000" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>合計</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>381586</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="398827" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21441361" y="2390632"/>
+          <a:ext cx="398827" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0..1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5545,7 +8654,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng"/>
-            <a:t>previousColumName</a:t>
+            <a:t>previousColumnName</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -8612,7 +11721,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="123"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8626,7 +11735,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="123"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8795,7 +11904,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="123"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -8809,7 +11918,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="123"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -8905,7 +12014,7 @@
       <c r="B7" s="114">
         <v>1</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="125" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="115" t="s">
@@ -8919,7 +12028,7 @@
       <c r="B8" s="114">
         <v>2</v>
       </c>
-      <c r="C8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="115" t="s">
         <v>88</v>
       </c>
@@ -8931,7 +12040,7 @@
       <c r="B9" s="114">
         <v>3</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="115" t="s">
         <v>89</v>
       </c>
@@ -9008,10 +12117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView topLeftCell="F34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ12" sqref="AJ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9027,9 +12136,15 @@
     <col min="16" max="16" width="9.125" customWidth="1"/>
     <col min="17" max="18" width="9" customWidth="1"/>
     <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.25" customWidth="1"/>
+    <col min="23" max="23" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:34">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9038,8 +12153,22 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -9053,8 +12182,22 @@
       <c r="J2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -9067,8 +12210,22 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="1"/>
       <c r="B4" s="17">
         <v>1</v>
@@ -9077,7 +12234,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="123"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -9090,15 +12247,29 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="1"/>
       <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="123"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9111,8 +12282,24 @@
       <c r="P5" s="48"/>
       <c r="Q5" s="48"/>
       <c r="R5" s="13"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34" ht="14.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -9127,15 +12314,35 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="124" t="s">
+      <c r="N6" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="U6" s="13"/>
+      <c r="V6" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="186" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD6" s="187"/>
+      <c r="AE6" s="188"/>
+      <c r="AF6" s="183" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG6" s="184"/>
+      <c r="AH6" s="185"/>
+    </row>
+    <row r="7" spans="1:34" ht="14.25" thickBot="1">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9160,8 +12367,46 @@
       </c>
       <c r="Q7" s="48"/>
       <c r="R7" s="13"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="U7" s="13"/>
+      <c r="V7" s="178" t="s">
+        <v>147</v>
+      </c>
+      <c r="W7" s="179" t="s">
+        <v>148</v>
+      </c>
+      <c r="X7" s="179" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y7" s="179" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z7" s="179" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA7" s="180" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD7" s="164" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE7" s="164" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF7" s="181" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7" s="181" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="182" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -9187,8 +12432,47 @@
       </c>
       <c r="Q8" s="48"/>
       <c r="R8" s="13"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="U8" s="13"/>
+      <c r="V8" s="156" t="s">
+        <v>106</v>
+      </c>
+      <c r="W8" s="157" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" s="157" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" s="157" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" s="167" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA8" s="168" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="190">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="151" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE8" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF8" s="152">
+        <v>90</v>
+      </c>
+      <c r="AG8" s="152">
+        <v>70</v>
+      </c>
+      <c r="AH8" s="124">
+        <f>SUM(AF8:AG8)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9218,8 +12502,37 @@
       </c>
       <c r="Q9" s="48"/>
       <c r="R9" s="13"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="U9" s="13"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="154"/>
+      <c r="Z9" s="169" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="190">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="154"/>
+      <c r="AE9" s="152" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF9" s="152">
+        <v>80</v>
+      </c>
+      <c r="AG9" s="152">
+        <v>90</v>
+      </c>
+      <c r="AH9" s="124">
+        <f>SUM(AF9:AG9)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
       <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -9232,10 +12545,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="126"/>
+      <c r="M10" s="129"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -9250,8 +12563,43 @@
       </c>
       <c r="Q10" s="48"/>
       <c r="R10" s="13"/>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="U10" s="13"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="152" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z10" s="152" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA10" s="161" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="190">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE10" s="152" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF10" s="152">
+        <v>60</v>
+      </c>
+      <c r="AG10" s="152">
+        <v>30</v>
+      </c>
+      <c r="AH10" s="124">
+        <f>SUM(AF10:AG10)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="13"/>
       <c r="B11" s="28" t="s">
         <v>1</v>
@@ -9269,8 +12617,30 @@
       <c r="P11" s="48"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="U11" s="13"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" s="171" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA11" s="172" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="13"/>
       <c r="B12" s="17">
         <v>1</v>
@@ -9292,8 +12662,26 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="U12" s="13"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="173" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA12" s="174" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="13" spans="1:34" ht="14.25" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="17"/>
       <c r="C13" s="2"/>
@@ -9311,8 +12699,26 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="U13" s="13"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="153"/>
+      <c r="Z13" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA13" s="176" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+    </row>
+    <row r="14" spans="1:34">
       <c r="A14" s="13"/>
       <c r="B14" s="17">
         <v>2</v>
@@ -9334,8 +12740,34 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="U14" s="13"/>
+      <c r="V14" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" s="157" t="s">
+        <v>127</v>
+      </c>
+      <c r="X14" s="158" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y14" s="158" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z14" s="158" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA14" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="48"/>
@@ -9353,8 +12785,30 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="U15" s="13"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="151" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" s="151" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z15" s="171" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA15" s="172" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" spans="1:34" ht="14.25" thickBot="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="48"/>
@@ -9372,8 +12826,26 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="U16" s="13"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA16" s="176" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="1:34" ht="14.25" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="48"/>
@@ -9382,8 +12854,34 @@
       <c r="F17" s="48"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="U17" s="13"/>
+      <c r="V17" s="165" t="s">
+        <v>138</v>
+      </c>
+      <c r="W17" s="163" t="s">
+        <v>139</v>
+      </c>
+      <c r="X17" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y17" s="163" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z17" s="163" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA17" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -9392,13 +12890,57 @@
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="U18" s="13"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="J19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="U19" s="13"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="U20" s="13"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -9415,8 +12957,22 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="U21" s="13"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -9433,8 +12989,22 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+    </row>
+    <row r="23" spans="1:34">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>0</v>
@@ -9453,8 +13023,22 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+    </row>
+    <row r="24" spans="1:34">
       <c r="A24" s="13"/>
       <c r="B24" s="28" t="s">
         <v>1</v>
@@ -9475,8 +13059,22 @@
       <c r="P24" s="48"/>
       <c r="Q24" s="48"/>
       <c r="R24" s="13"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+    </row>
+    <row r="25" spans="1:34">
       <c r="A25" s="48"/>
       <c r="B25" s="17">
         <v>1</v>
@@ -9495,15 +13093,29 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="128" t="s">
+      <c r="N25" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="129"/>
-      <c r="P25" s="130"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+    </row>
+    <row r="26" spans="1:34">
       <c r="A26" s="48"/>
       <c r="B26" s="17">
         <v>2</v>
@@ -9536,8 +13148,22 @@
       </c>
       <c r="Q26" s="48"/>
       <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" s="48"/>
       <c r="B27" s="64"/>
       <c r="C27" s="38"/>
@@ -9567,8 +13193,15 @@
       </c>
       <c r="Q27" s="48"/>
       <c r="R27" s="13"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" s="48"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -9598,8 +13231,14 @@
       </c>
       <c r="Q28" s="48"/>
       <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" s="48"/>
       <c r="B29" s="13" t="s">
         <v>0</v>
@@ -9618,8 +13257,14 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="48"/>
       <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+    </row>
+    <row r="30" spans="1:34">
       <c r="A30" s="48"/>
       <c r="B30" s="28" t="s">
         <v>1</v>
@@ -9640,8 +13285,14 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
       <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+    </row>
+    <row r="31" spans="1:34">
       <c r="A31" s="48"/>
       <c r="B31" s="17">
         <v>1</v>
@@ -9662,8 +13313,14 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+    </row>
+    <row r="32" spans="1:34">
       <c r="A32" s="48"/>
       <c r="B32" s="17">
         <v>2</v>
@@ -9684,8 +13341,14 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+    </row>
+    <row r="33" spans="1:34">
       <c r="A33" s="48"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -9703,8 +13366,14 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+    </row>
+    <row r="34" spans="1:34">
       <c r="A34" s="13"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
@@ -9721,8 +13390,14 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -9740,7 +13415,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:34">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -9749,7 +13424,7 @@
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:34">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -9758,7 +13433,7 @@
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:34">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -9767,7 +13442,7 @@
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:34">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -9779,7 +13454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:34">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -9788,7 +13463,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:34">
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -9802,7 +13477,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:34">
       <c r="I42" s="13"/>
       <c r="J42" s="56"/>
       <c r="K42" s="49"/>
@@ -9813,7 +13488,7 @@
       <c r="P42" s="48"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:34">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -9822,7 +13497,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="127"/>
+      <c r="J43" s="130"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -9830,7 +13505,7 @@
       <c r="O43" s="93"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:34">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -9839,7 +13514,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="127"/>
+      <c r="J44" s="130"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -9847,7 +13522,7 @@
       <c r="O44" s="91"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:34">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -9864,7 +13539,7 @@
       <c r="O45" s="90"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:34">
       <c r="A46" s="13"/>
       <c r="B46" s="68" t="s">
         <v>0</v>
@@ -9883,7 +13558,7 @@
       <c r="O46" s="90"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:34">
       <c r="A47" s="13"/>
       <c r="B47" s="66"/>
       <c r="C47" s="66"/>
@@ -9903,7 +13578,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:34">
       <c r="A48" s="13"/>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
@@ -9913,17 +13588,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="131" t="s">
+      <c r="K48" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="131" t="s">
+      <c r="L48" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="128" t="s">
+      <c r="M48" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="133"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -9941,8 +13616,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="132"/>
-      <c r="L49" s="132"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -10090,11 +13765,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="128" t="s">
+      <c r="M55" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="129"/>
-      <c r="O55" s="130"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="133"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -10227,8 +13902,235 @@
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
     </row>
+    <row r="65" spans="9:18">
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13"/>
+    </row>
+    <row r="66" spans="9:18">
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13"/>
+    </row>
+    <row r="67" spans="9:18">
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13"/>
+    </row>
+    <row r="68" spans="9:18">
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+    </row>
+    <row r="69" spans="9:18">
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+    </row>
+    <row r="70" spans="9:18">
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+    </row>
+    <row r="71" spans="9:18">
+      <c r="I71" s="13"/>
+      <c r="J71" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+    </row>
+    <row r="72" spans="9:18">
+      <c r="I72" s="13"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="122" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" s="123" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="147"/>
+      <c r="N72" s="146"/>
+      <c r="O72" s="123" t="s">
+        <v>7</v>
+      </c>
+      <c r="P72" s="146"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+    </row>
+    <row r="73" spans="9:18">
+      <c r="I73" s="13"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="17">
+        <v>1</v>
+      </c>
+      <c r="L73" s="144" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" s="148"/>
+      <c r="N73" s="149"/>
+      <c r="O73" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="P73" s="149"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+    </row>
+    <row r="74" spans="9:18">
+      <c r="I74" s="13"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="17">
+        <v>2</v>
+      </c>
+      <c r="L74" s="145"/>
+      <c r="M74" s="148"/>
+      <c r="N74" s="150"/>
+      <c r="O74" s="145"/>
+      <c r="P74" s="150"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
+    </row>
+    <row r="75" spans="9:18">
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+    </row>
+    <row r="76" spans="9:18">
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+    </row>
+    <row r="77" spans="9:18">
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+    </row>
+    <row r="78" spans="9:18">
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" spans="9:18">
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" spans="9:18">
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" spans="11:17">
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="22">
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="W14:W16"/>
+    <mergeCell ref="X15:X16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="W8:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="V8:V13"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="L10:M10"/>
@@ -10961,10 +14863,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13"/>
-      <c r="B62" s="133" t="s">
+      <c r="B62" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="133"/>
+      <c r="C62" s="136"/>
       <c r="D62" s="73" t="s">
         <v>60</v>
       </c>
@@ -10983,7 +14885,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="131" t="s">
+      <c r="B63" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -11005,7 +14907,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13"/>
-      <c r="B64" s="134"/>
+      <c r="B64" s="137"/>
       <c r="C64" s="100" t="s">
         <v>69</v>
       </c>
@@ -11025,7 +14927,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="132"/>
+      <c r="B65" s="135"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -11105,7 +15007,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="131" t="s">
+      <c r="B70" s="134" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -11125,7 +15027,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="13"/>
-      <c r="B71" s="134"/>
+      <c r="B71" s="137"/>
       <c r="C71" s="103"/>
       <c r="D71" s="102">
         <v>15</v>
@@ -11143,7 +15045,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="132"/>
+      <c r="B72" s="135"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -11225,7 +15127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -11339,7 +15241,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="123"/>
+      <c r="H8" s="126"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -11351,7 +15253,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="123"/>
+      <c r="H9" s="126"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -11463,7 +15365,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="123"/>
+      <c r="H20" s="126"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -11475,7 +15377,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="123"/>
+      <c r="H21" s="126"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
@@ -11601,7 +15503,7 @@
       <c r="G32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="123"/>
+      <c r="H32" s="126"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
@@ -11613,7 +15515,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="123"/>
+      <c r="H33" s="126"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
@@ -11894,10 +15796,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="136"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -11964,7 +15866,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="138" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -11984,7 +15886,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="136"/>
+      <c r="J9" s="139"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -12765,11 +16667,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="137" t="s">
+      <c r="J20" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="138"/>
-      <c r="L20" s="139"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="142"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -12869,12 +16771,12 @@
     </row>
     <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="140" t="s">
+      <c r="J34" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="140"/>
-      <c r="L34" s="140"/>
-      <c r="M34" s="140"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Converter" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2110,63 +2111,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2184,25 +2128,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2211,13 +2137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2280,13 +2200,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,11 +2218,92 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5570,21 +5571,21 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>924511</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>968851</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>95107</xdr:rowOff>
+      <xdr:rowOff>86824</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
+    <xdr:ext cx="468398" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15874620" y="3606933"/>
-          <a:ext cx="325730" cy="275717"/>
+          <a:off x="17580451" y="3563449"/>
+          <a:ext cx="468398" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5612,57 +5613,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>＊</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>63976</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>86824</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17730780" y="3598650"/>
-          <a:ext cx="325730" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0..</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>＊</a:t>
@@ -6351,11 +6304,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>219661</xdr:colOff>
+      <xdr:colOff>143461</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133207</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:ext cx="398827" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="76" name="テキスト ボックス 75"/>
@@ -6363,8 +6316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21965236" y="2390632"/>
-          <a:ext cx="256160" cy="264560"/>
+          <a:off x="21889036" y="2209657"/>
+          <a:ext cx="398827" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6393,7 +6346,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>0..1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -6546,7 +6499,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>133207</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="398827" cy="264560"/>
+    <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="79" name="テキスト ボックス 78"/>
@@ -6554,8 +6507,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21441361" y="2390632"/>
-          <a:ext cx="398827" cy="264560"/>
+          <a:off x="21441361" y="2209657"/>
+          <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6584,7 +6537,218 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0..1</a:t>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>616426</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17228026" y="3563449"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15354300" y="3771900"/>
+          <a:ext cx="723900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>768826</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468398" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="テキスト ボックス 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15694501" y="3563449"/>
+          <a:ext cx="468398" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0..</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>416401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15342076" y="3563449"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -11721,7 +11885,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="126"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -11735,7 +11899,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="126"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -11904,7 +12068,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="126"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -11918,7 +12082,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="126"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -12014,7 +12178,7 @@
       <c r="B7" s="114">
         <v>1</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="158" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="115" t="s">
@@ -12028,7 +12192,7 @@
       <c r="B8" s="114">
         <v>2</v>
       </c>
-      <c r="C8" s="125"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="115" t="s">
         <v>88</v>
       </c>
@@ -12040,7 +12204,7 @@
       <c r="B9" s="114">
         <v>3</v>
       </c>
-      <c r="C9" s="125"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="115" t="s">
         <v>89</v>
       </c>
@@ -12119,8 +12283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12234,7 +12398,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="126"/>
+      <c r="E4" s="173"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -12269,7 +12433,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="126"/>
+      <c r="E5" s="173"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -12314,11 +12478,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="127" t="s">
+      <c r="N6" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -12331,16 +12495,16 @@
       <c r="Z6" s="48"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="186" t="s">
+      <c r="AC6" s="159" t="s">
         <v>153</v>
       </c>
-      <c r="AD6" s="187"/>
-      <c r="AE6" s="188"/>
-      <c r="AF6" s="183" t="s">
+      <c r="AD6" s="160"/>
+      <c r="AE6" s="161"/>
+      <c r="AF6" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="AG6" s="184"/>
-      <c r="AH6" s="185"/>
+      <c r="AG6" s="163"/>
+      <c r="AH6" s="164"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" thickBot="1">
       <c r="F7" s="1"/>
@@ -12368,41 +12532,41 @@
       <c r="Q7" s="48"/>
       <c r="R7" s="13"/>
       <c r="U7" s="13"/>
-      <c r="V7" s="178" t="s">
+      <c r="V7" s="151" t="s">
         <v>147</v>
       </c>
-      <c r="W7" s="179" t="s">
+      <c r="W7" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="X7" s="179" t="s">
+      <c r="X7" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="Y7" s="179" t="s">
+      <c r="Y7" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="Z7" s="179" t="s">
+      <c r="Z7" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="AA7" s="180" t="s">
+      <c r="AA7" s="153" t="s">
         <v>105</v>
       </c>
       <c r="AB7" s="13"/>
-      <c r="AC7" s="189" t="s">
+      <c r="AC7" s="156" t="s">
         <v>150</v>
       </c>
-      <c r="AD7" s="164" t="s">
+      <c r="AD7" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="AE7" s="164" t="s">
+      <c r="AE7" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="181" t="s">
+      <c r="AF7" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="AG7" s="181" t="s">
+      <c r="AG7" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="182" t="s">
+      <c r="AH7" s="155" t="s">
         <v>152</v>
       </c>
     </row>
@@ -12433,38 +12597,38 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="156" t="s">
+      <c r="V8" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="157" t="s">
+      <c r="W8" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="157" t="s">
+      <c r="X8" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" s="157" t="s">
+      <c r="Y8" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="Z8" s="167" t="s">
+      <c r="Z8" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="AA8" s="168" t="s">
+      <c r="AA8" s="141" t="s">
         <v>111</v>
       </c>
       <c r="AB8" s="13"/>
-      <c r="AC8" s="190">
+      <c r="AC8" s="157">
         <v>1</v>
       </c>
-      <c r="AD8" s="151" t="s">
+      <c r="AD8" s="165" t="s">
         <v>154</v>
       </c>
-      <c r="AE8" s="152" t="s">
+      <c r="AE8" s="132" t="s">
         <v>156</v>
       </c>
-      <c r="AF8" s="152">
+      <c r="AF8" s="132">
         <v>90</v>
       </c>
-      <c r="AG8" s="152">
+      <c r="AG8" s="132">
         <v>70</v>
       </c>
       <c r="AH8" s="124">
@@ -12503,28 +12667,28 @@
       <c r="Q9" s="48"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="154"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="169" t="s">
+      <c r="V9" s="168"/>
+      <c r="W9" s="171"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="AA9" s="170" t="s">
+      <c r="AA9" s="143" t="s">
         <v>113</v>
       </c>
       <c r="AB9" s="13"/>
-      <c r="AC9" s="190">
+      <c r="AC9" s="157">
         <v>2</v>
       </c>
-      <c r="AD9" s="154"/>
-      <c r="AE9" s="152" t="s">
+      <c r="AD9" s="166"/>
+      <c r="AE9" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="AF9" s="152">
+      <c r="AF9" s="132">
         <v>80</v>
       </c>
-      <c r="AG9" s="152">
+      <c r="AG9" s="132">
         <v>90</v>
       </c>
       <c r="AH9" s="124">
@@ -12545,10 +12709,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="128" t="s">
+      <c r="L10" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="129"/>
+      <c r="M10" s="176"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -12564,34 +12728,34 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="152" t="s">
+      <c r="V10" s="168"/>
+      <c r="W10" s="171"/>
+      <c r="X10" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="Y10" s="152" t="s">
+      <c r="Y10" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="Z10" s="152" t="s">
+      <c r="Z10" s="132" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" s="161" t="s">
+      <c r="AA10" s="135" t="s">
         <v>117</v>
       </c>
       <c r="AB10" s="13"/>
-      <c r="AC10" s="190">
+      <c r="AC10" s="157">
         <v>3</v>
       </c>
-      <c r="AD10" s="152" t="s">
+      <c r="AD10" s="132" t="s">
         <v>155</v>
       </c>
-      <c r="AE10" s="152" t="s">
+      <c r="AE10" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="AF10" s="152">
+      <c r="AF10" s="132">
         <v>60</v>
       </c>
-      <c r="AG10" s="152">
+      <c r="AG10" s="132">
         <v>30</v>
       </c>
       <c r="AH10" s="124">
@@ -12618,18 +12782,18 @@
       <c r="Q11" s="48"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="153"/>
-      <c r="X11" s="151" t="s">
+      <c r="V11" s="168"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="151" t="s">
+      <c r="Y11" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="Z11" s="171" t="s">
+      <c r="Z11" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="AA11" s="172" t="s">
+      <c r="AA11" s="145" t="s">
         <v>121</v>
       </c>
       <c r="AB11" s="13"/>
@@ -12663,14 +12827,14 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="173" t="s">
+      <c r="V12" s="168"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="171"/>
+      <c r="Z12" s="146" t="s">
         <v>122</v>
       </c>
-      <c r="AA12" s="174" t="s">
+      <c r="AA12" s="147" t="s">
         <v>123</v>
       </c>
       <c r="AB12" s="13"/>
@@ -12700,14 +12864,14 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="153"/>
-      <c r="X13" s="153"/>
-      <c r="Y13" s="153"/>
-      <c r="Z13" s="175" t="s">
+      <c r="V13" s="168"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="AA13" s="176" t="s">
+      <c r="AA13" s="149" t="s">
         <v>125</v>
       </c>
       <c r="AB13" s="13"/>
@@ -12741,22 +12905,22 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="156" t="s">
+      <c r="V14" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="W14" s="157" t="s">
+      <c r="W14" s="170" t="s">
         <v>127</v>
       </c>
-      <c r="X14" s="158" t="s">
+      <c r="X14" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="Y14" s="158" t="s">
+      <c r="Y14" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="Z14" s="158" t="s">
+      <c r="Z14" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="AA14" s="159" t="s">
+      <c r="AA14" s="134" t="s">
         <v>131</v>
       </c>
       <c r="AB14" s="13"/>
@@ -12786,18 +12950,18 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="153"/>
-      <c r="X15" s="151" t="s">
+      <c r="V15" s="168"/>
+      <c r="W15" s="171"/>
+      <c r="X15" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="Y15" s="151" t="s">
+      <c r="Y15" s="165" t="s">
         <v>133</v>
       </c>
-      <c r="Z15" s="171" t="s">
+      <c r="Z15" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="AA15" s="172" t="s">
+      <c r="AA15" s="145" t="s">
         <v>135</v>
       </c>
       <c r="AB15" s="13"/>
@@ -12827,14 +12991,14 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="175" t="s">
+      <c r="V16" s="169"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="148" t="s">
         <v>136</v>
       </c>
-      <c r="AA16" s="176" t="s">
+      <c r="AA16" s="149" t="s">
         <v>137</v>
       </c>
       <c r="AB16" s="13"/>
@@ -12855,22 +13019,22 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="U17" s="13"/>
-      <c r="V17" s="165" t="s">
+      <c r="V17" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="W17" s="163" t="s">
+      <c r="W17" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="X17" s="163" t="s">
+      <c r="X17" s="136" t="s">
         <v>140</v>
       </c>
-      <c r="Y17" s="163" t="s">
+      <c r="Y17" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="Z17" s="163" t="s">
+      <c r="Z17" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="AA17" s="166" t="s">
+      <c r="AA17" s="139" t="s">
         <v>143</v>
       </c>
       <c r="AB17" s="13"/>
@@ -12891,12 +13055,12 @@
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="U18" s="13"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="177"/>
-      <c r="Y18" s="177"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="177"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="150"/>
+      <c r="AA18" s="150"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
@@ -12910,12 +13074,12 @@
         <v>49</v>
       </c>
       <c r="U19" s="13"/>
-      <c r="V19" s="177"/>
-      <c r="W19" s="177"/>
-      <c r="X19" s="177"/>
-      <c r="Y19" s="177"/>
-      <c r="Z19" s="177"/>
-      <c r="AA19" s="177"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
       <c r="AB19" s="13"/>
       <c r="AC19" s="13"/>
       <c r="AD19" s="13"/>
@@ -12926,12 +13090,12 @@
     </row>
     <row r="20" spans="1:34">
       <c r="U20" s="13"/>
-      <c r="V20" s="177"/>
-      <c r="W20" s="177"/>
-      <c r="X20" s="177"/>
-      <c r="Y20" s="177"/>
-      <c r="Z20" s="177"/>
-      <c r="AA20" s="177"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
       <c r="AB20" s="13"/>
       <c r="AC20" s="13"/>
       <c r="AD20" s="13"/>
@@ -12958,12 +13122,12 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
       <c r="U21" s="13"/>
-      <c r="V21" s="177"/>
-      <c r="W21" s="177"/>
-      <c r="X21" s="177"/>
-      <c r="Y21" s="177"/>
-      <c r="Z21" s="177"/>
-      <c r="AA21" s="177"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13"/>
       <c r="AD21" s="13"/>
@@ -13093,11 +13257,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="131" t="s">
+      <c r="N25" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
+      <c r="O25" s="179"/>
+      <c r="P25" s="180"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -13497,7 +13661,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="130"/>
+      <c r="J43" s="177"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -13514,7 +13678,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="130"/>
+      <c r="J44" s="177"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -13588,17 +13752,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="134" t="s">
+      <c r="K48" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="134" t="s">
+      <c r="L48" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="131" t="s">
+      <c r="M48" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="132"/>
-      <c r="O48" s="133"/>
+      <c r="N48" s="179"/>
+      <c r="O48" s="180"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -13616,8 +13780,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="135"/>
-      <c r="L49" s="135"/>
+      <c r="K49" s="182"/>
+      <c r="L49" s="182"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -13765,11 +13929,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="131" t="s">
+      <c r="M55" s="178" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="132"/>
-      <c r="O55" s="133"/>
+      <c r="N55" s="179"/>
+      <c r="O55" s="180"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -13997,12 +14161,12 @@
       <c r="L72" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="M72" s="147"/>
-      <c r="N72" s="146"/>
+      <c r="M72" s="128"/>
+      <c r="N72" s="127"/>
       <c r="O72" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="P72" s="146"/>
+      <c r="P72" s="127"/>
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
     </row>
@@ -14012,15 +14176,15 @@
       <c r="K73" s="17">
         <v>1</v>
       </c>
-      <c r="L73" s="144" t="s">
+      <c r="L73" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="M73" s="148"/>
-      <c r="N73" s="149"/>
-      <c r="O73" s="144" t="s">
+      <c r="M73" s="129"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="P73" s="149"/>
+      <c r="P73" s="130"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
     </row>
@@ -14030,11 +14194,11 @@
       <c r="K74" s="17">
         <v>2</v>
       </c>
-      <c r="L74" s="145"/>
-      <c r="M74" s="148"/>
-      <c r="N74" s="150"/>
-      <c r="O74" s="145"/>
-      <c r="P74" s="150"/>
+      <c r="L74" s="126"/>
+      <c r="M74" s="129"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="126"/>
+      <c r="P74" s="131"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
     </row>
@@ -14118,6 +14282,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -14131,15 +14304,6 @@
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
     <mergeCell ref="V8:V13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="N25:P25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -14863,10 +15027,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="13"/>
-      <c r="B62" s="136" t="s">
+      <c r="B62" s="183" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="136"/>
+      <c r="C62" s="183"/>
       <c r="D62" s="73" t="s">
         <v>60</v>
       </c>
@@ -14885,7 +15049,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="134" t="s">
+      <c r="B63" s="181" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -14907,7 +15071,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="13"/>
-      <c r="B64" s="137"/>
+      <c r="B64" s="184"/>
       <c r="C64" s="100" t="s">
         <v>69</v>
       </c>
@@ -14927,7 +15091,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="135"/>
+      <c r="B65" s="182"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -15007,7 +15171,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="134" t="s">
+      <c r="B70" s="181" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -15027,7 +15191,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="13"/>
-      <c r="B71" s="137"/>
+      <c r="B71" s="184"/>
       <c r="C71" s="103"/>
       <c r="D71" s="102">
         <v>15</v>
@@ -15045,7 +15209,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="135"/>
+      <c r="B72" s="182"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -15241,7 +15405,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="126"/>
+      <c r="H8" s="173"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -15253,7 +15417,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="126"/>
+      <c r="H9" s="173"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -15365,7 +15529,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="126"/>
+      <c r="H20" s="173"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -15377,7 +15541,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="126"/>
+      <c r="H21" s="173"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
@@ -15503,7 +15667,7 @@
       <c r="G32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="126"/>
+      <c r="H32" s="173"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
@@ -15515,7 +15679,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="126"/>
+      <c r="H33" s="173"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
@@ -15796,10 +15960,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="136"/>
+      <c r="E5" s="183"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -15866,7 +16030,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="185" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -15886,7 +16050,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="139"/>
+      <c r="J9" s="186"/>
       <c r="K9" s="2" t="s">
         <v>52</v>
       </c>
@@ -16667,11 +16831,11 @@
     </row>
     <row r="20" spans="9:15">
       <c r="I20" s="31"/>
-      <c r="J20" s="140" t="s">
+      <c r="J20" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="141"/>
-      <c r="L20" s="142"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="189"/>
       <c r="M20" s="35" t="s">
         <v>25</v>
       </c>
@@ -16771,12 +16935,12 @@
     </row>
     <row r="34" spans="9:22">
       <c r="I34" s="31"/>
-      <c r="J34" s="143" t="s">
+      <c r="J34" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
+      <c r="K34" s="190"/>
+      <c r="L34" s="190"/>
+      <c r="M34" s="190"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
     </row>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" activeTab="3"/>
+    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="LabelledCell" sheetId="5" r:id="rId9"/>
     <sheet name="Hint" sheetId="7" r:id="rId10"/>
     <sheet name="Converter" sheetId="10" r:id="rId11"/>
+    <sheet name="XlsFormula" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="167">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -1028,6 +1028,68 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>成績一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>国語</t>
+    <rPh sb="0" eb="2">
+      <t>コクゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>算数</t>
+    <rPh sb="0" eb="2">
+      <t>サンスウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>鈴木一郎</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチロウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>林三郎</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サブロウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1038,7 +1100,7 @@
     <numFmt numFmtId="177" formatCode="0000000"/>
     <numFmt numFmtId="178" formatCode="0&quot;℃&quot;_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1109,8 +1171,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2209,6 +2286,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2251,36 +2358,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2303,6 +2380,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11478,6 +11573,238 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438152</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3429000" y="1457325"/>
+          <a:ext cx="438152" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390528</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1574790" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819528" y="1314450"/>
+          <a:ext cx="1574790" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>平均値用のレコード。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> レコードの色も異なる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3095625" y="400050"/>
+          <a:ext cx="0" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1451423" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="95250"/>
+          <a:ext cx="1451423" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>合計値用のレコード。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11885,7 +12212,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="173"/>
+      <c r="E5" s="159"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -11899,7 +12226,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="173"/>
+      <c r="E6" s="159"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -12010,7 +12337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -12068,7 +12395,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="173"/>
+      <c r="E5" s="159"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -12082,7 +12409,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="173"/>
+      <c r="E6" s="159"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -12114,6 +12441,137 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:5">
+      <c r="A3" s="191" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="197" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="198" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="197"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="194" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="194" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="94">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="44">
+        <v>90</v>
+      </c>
+      <c r="D6" s="44">
+        <v>85</v>
+      </c>
+      <c r="E6" s="51">
+        <f>SUM(C6:D6)</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="94">
+        <v>2</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="44">
+        <v>85</v>
+      </c>
+      <c r="D7" s="44">
+        <v>80</v>
+      </c>
+      <c r="E7" s="51">
+        <f>SUM(C7:D7)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="94">
+        <v>3</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="44">
+        <v>80</v>
+      </c>
+      <c r="D8" s="44">
+        <v>60</v>
+      </c>
+      <c r="E8" s="51">
+        <f>SUM(C8:D8)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="195">
+        <v>4</v>
+      </c>
+      <c r="B9" s="196" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="196">
+        <f>AVERAGE(C6:C8)</f>
+        <v>85</v>
+      </c>
+      <c r="D9" s="196">
+        <f>AVERAGE(D6:D8)</f>
+        <v>75</v>
+      </c>
+      <c r="E9" s="196">
+        <f>AVERAGE(E6:E8)</f>
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12283,7 +12741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
@@ -12398,7 +12856,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="173"/>
+      <c r="E4" s="159"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -12433,7 +12891,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="173"/>
+      <c r="E5" s="159"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -12478,11 +12936,11 @@
       </c>
       <c r="L6" s="57"/>
       <c r="M6" s="48"/>
-      <c r="N6" s="174" t="s">
+      <c r="N6" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="174"/>
-      <c r="P6" s="174"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="160"/>
       <c r="Q6" s="48"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -12495,16 +12953,16 @@
       <c r="Z6" s="48"/>
       <c r="AA6" s="48"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="159" t="s">
+      <c r="AC6" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="AD6" s="160"/>
-      <c r="AE6" s="161"/>
-      <c r="AF6" s="162" t="s">
+      <c r="AD6" s="170"/>
+      <c r="AE6" s="171"/>
+      <c r="AF6" s="172" t="s">
         <v>149</v>
       </c>
-      <c r="AG6" s="163"/>
-      <c r="AH6" s="164"/>
+      <c r="AG6" s="173"/>
+      <c r="AH6" s="174"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" thickBot="1">
       <c r="F7" s="1"/>
@@ -12597,16 +13055,16 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="167" t="s">
+      <c r="V8" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="W8" s="170" t="s">
+      <c r="W8" s="180" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="170" t="s">
+      <c r="X8" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" s="170" t="s">
+      <c r="Y8" s="180" t="s">
         <v>109</v>
       </c>
       <c r="Z8" s="140" t="s">
@@ -12619,7 +13077,7 @@
       <c r="AC8" s="157">
         <v>1</v>
       </c>
-      <c r="AD8" s="165" t="s">
+      <c r="AD8" s="175" t="s">
         <v>154</v>
       </c>
       <c r="AE8" s="132" t="s">
@@ -12667,10 +13125,10 @@
       <c r="Q9" s="48"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="171"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
+      <c r="V9" s="178"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="176"/>
       <c r="Z9" s="142" t="s">
         <v>112</v>
       </c>
@@ -12681,7 +13139,7 @@
       <c r="AC9" s="157">
         <v>2</v>
       </c>
-      <c r="AD9" s="166"/>
+      <c r="AD9" s="176"/>
       <c r="AE9" s="132" t="s">
         <v>157</v>
       </c>
@@ -12709,10 +13167,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="175" t="s">
+      <c r="L10" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="176"/>
+      <c r="M10" s="162"/>
       <c r="N10" s="51">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -12728,8 +13186,8 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="171"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="181"/>
       <c r="X10" s="132" t="s">
         <v>114</v>
       </c>
@@ -12782,12 +13240,12 @@
       <c r="Q11" s="48"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="165" t="s">
+      <c r="V11" s="178"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="175" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="165" t="s">
+      <c r="Y11" s="175" t="s">
         <v>119</v>
       </c>
       <c r="Z11" s="144" t="s">
@@ -12827,10 +13285,10 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="171"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="181"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
       <c r="Z12" s="146" t="s">
         <v>122</v>
       </c>
@@ -12864,10 +13322,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="171"/>
-      <c r="Y13" s="171"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="181"/>
+      <c r="X13" s="181"/>
+      <c r="Y13" s="181"/>
       <c r="Z13" s="148" t="s">
         <v>124</v>
       </c>
@@ -12905,10 +13363,10 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="167" t="s">
+      <c r="V14" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="W14" s="170" t="s">
+      <c r="W14" s="180" t="s">
         <v>127</v>
       </c>
       <c r="X14" s="133" t="s">
@@ -12950,12 +13408,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="165" t="s">
+      <c r="V15" s="178"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="175" t="s">
         <v>132</v>
       </c>
-      <c r="Y15" s="165" t="s">
+      <c r="Y15" s="175" t="s">
         <v>133</v>
       </c>
       <c r="Z15" s="144" t="s">
@@ -12991,10 +13449,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="169"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="172"/>
+      <c r="V16" s="179"/>
+      <c r="W16" s="182"/>
+      <c r="X16" s="182"/>
+      <c r="Y16" s="182"/>
       <c r="Z16" s="148" t="s">
         <v>136</v>
       </c>
@@ -13257,11 +13715,11 @@
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="48"/>
-      <c r="N25" s="178" t="s">
+      <c r="N25" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="O25" s="179"/>
-      <c r="P25" s="180"/>
+      <c r="O25" s="165"/>
+      <c r="P25" s="166"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -13661,7 +14119,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="177"/>
+      <c r="J43" s="163"/>
       <c r="K43" s="69"/>
       <c r="L43" s="69"/>
       <c r="M43" s="93"/>
@@ -13678,7 +14136,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="177"/>
+      <c r="J44" s="163"/>
       <c r="K44" s="69"/>
       <c r="L44" s="69"/>
       <c r="M44" s="91"/>
@@ -13752,17 +14210,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="48"/>
-      <c r="K48" s="181" t="s">
+      <c r="K48" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="L48" s="181" t="s">
+      <c r="L48" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="178" t="s">
+      <c r="M48" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="N48" s="179"/>
-      <c r="O48" s="180"/>
+      <c r="N48" s="165"/>
+      <c r="O48" s="166"/>
       <c r="P48" s="48"/>
       <c r="Q48" s="13"/>
     </row>
@@ -13780,8 +14238,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="182"/>
-      <c r="L49" s="182"/>
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
       <c r="M49" s="58" t="s">
         <v>43</v>
       </c>
@@ -13929,11 +14387,11 @@
       <c r="L55" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="M55" s="178" t="s">
+      <c r="M55" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="179"/>
-      <c r="O55" s="180"/>
+      <c r="N55" s="165"/>
+      <c r="O55" s="166"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -14282,15 +14740,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -14304,6 +14753,15 @@
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
     <mergeCell ref="V8:V13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -15049,7 +15507,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="13"/>
-      <c r="B63" s="181" t="s">
+      <c r="B63" s="167" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="99" t="s">
@@ -15091,7 +15549,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="13"/>
-      <c r="B65" s="182"/>
+      <c r="B65" s="168"/>
       <c r="C65" s="101" t="s">
         <v>70</v>
       </c>
@@ -15171,7 +15629,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="13"/>
-      <c r="B70" s="181" t="s">
+      <c r="B70" s="167" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="103"/>
@@ -15209,7 +15667,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="13"/>
-      <c r="B72" s="182"/>
+      <c r="B72" s="168"/>
       <c r="C72" s="103"/>
       <c r="D72" s="98" t="s">
         <v>71</v>
@@ -15405,7 +15863,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="173"/>
+      <c r="H8" s="159"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -15417,7 +15875,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="173"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -15529,7 +15987,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="173"/>
+      <c r="H20" s="159"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -15541,7 +15999,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="173"/>
+      <c r="H21" s="159"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
@@ -15667,7 +16125,7 @@
       <c r="G32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="173"/>
+      <c r="H32" s="159"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
@@ -15679,7 +16137,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="173"/>
+      <c r="H33" s="159"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
@@ -16598,7 +17056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView topLeftCell="E34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -21,14 +21,15 @@
     <sheet name="HorizontalRecords" sheetId="1" r:id="rId7"/>
     <sheet name="VerticalRecords" sheetId="8" r:id="rId8"/>
     <sheet name="RecordOption" sheetId="22" r:id="rId9"/>
-    <sheet name="Column" sheetId="3" r:id="rId10"/>
-    <sheet name="MapColumns" sheetId="2" r:id="rId11"/>
-    <sheet name="ArrayColumns" sheetId="20" r:id="rId12"/>
-    <sheet name="ArrayOption" sheetId="21" r:id="rId13"/>
-    <sheet name="IterateTable" sheetId="4" r:id="rId14"/>
-    <sheet name="Hint" sheetId="7" r:id="rId15"/>
-    <sheet name="Converter" sheetId="10" r:id="rId16"/>
-    <sheet name="XlsFormula" sheetId="15" r:id="rId17"/>
+    <sheet name="RecordFinder" sheetId="23" r:id="rId10"/>
+    <sheet name="Column" sheetId="3" r:id="rId11"/>
+    <sheet name="MapColumns" sheetId="2" r:id="rId12"/>
+    <sheet name="ArrayColumns" sheetId="20" r:id="rId13"/>
+    <sheet name="ArrayOption" sheetId="21" r:id="rId14"/>
+    <sheet name="IterateTable" sheetId="4" r:id="rId15"/>
+    <sheet name="Hint" sheetId="7" r:id="rId16"/>
+    <sheet name="Converter" sheetId="10" r:id="rId17"/>
+    <sheet name="XlsFormula" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="243">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -1436,6 +1437,78 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>成績一覧</t>
+    <rPh sb="0" eb="2">
+      <t>セイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山本花子</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>林明</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>阿部昌子</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マサコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2月1日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月2日</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecordFinder</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1528,7 +1601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1583,8 +1656,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -2378,6 +2457,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2391,7 +2530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2920,6 +3059,52 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2992,6 +3177,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3003,21 +3206,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3058,6 +3246,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3094,26 +3285,11 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5228,6 +5404,1008 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F71BFF3-542F-4230-ACE9-71E473DA18C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="3586161" y="-309561"/>
+          <a:ext cx="238128" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28284"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="893514" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBB63F3-BFCC-4BDD-8F61-CA9AB906E364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="1219200"/>
+          <a:ext cx="893514" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>size=10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9E382E-CD08-43BD-9E50-3525654B87B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="819150"/>
+          <a:ext cx="1314449" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>118185</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1255280" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A056F1-9781-4EF2-94F3-C955BCA9E3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2990850" y="461085"/>
+          <a:ext cx="1255280" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>見出しは結合する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264959</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264959</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133903</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51904F5-E404-4978-ADCA-C59208D2FB88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3665384" y="666750"/>
+          <a:ext cx="0" cy="152953"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1BE304-6B03-47C8-A42A-3B0202F6DA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="10186986" y="985839"/>
+          <a:ext cx="238128" cy="4476750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28284"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="822020" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A00627B-19E6-4AE1-AEE2-D4449841A0AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="3324225"/>
+          <a:ext cx="822020" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>size=3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1705660" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02B7482-2C21-44B0-9740-8A467F417ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10810875" y="2105025"/>
+          <a:ext cx="1705660" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>elementMerged=true</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC47F3-9B07-49AF-9FEB-A4720407DE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="3000376" y="1762126"/>
+          <a:ext cx="190497" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28284"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="822020" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EA99D9-BA8F-4586-A5DB-98E7ED42C581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="4533900"/>
+          <a:ext cx="822020" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>size=6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2657475" cy="495299"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED19FB9-1B71-4C18-AF2F-3EB755E5F743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886199" y="4467226"/>
+          <a:ext cx="2657475" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セルが足りない場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>overOperation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で操作を指定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2847976" cy="631327"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFFBE83-1FFF-40D6-A684-770A51C0EF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="5676901"/>
+          <a:ext cx="2847976" cy="631327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セルが余っている場合、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>reminedOperation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で操作を指定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>42497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5758C89-1064-49C1-8000-68DF87E4C09A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4010025" y="5124450"/>
+          <a:ext cx="295274" cy="232997"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B62ECD-3352-4B9D-B59A-80B1D3271951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="5295900"/>
+          <a:ext cx="295274" cy="232997"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41D2A78-800C-467C-B858-F0291A329B10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4171950" y="4867276"/>
+          <a:ext cx="0" cy="238678"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E377AB0-BCD5-4A8F-9427-A14F52EF1A08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3867150" y="5506003"/>
+          <a:ext cx="0" cy="237571"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -6335,7 +7513,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6917,7 +8095,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7296,7 +8474,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7389,7 +8567,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18420,6 +19598,528 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04A0141-BDE0-461C-9F04-2A994DA94FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10601324" y="15220950"/>
+          <a:ext cx="371475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1357744" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688F9B5D-53DF-4309-AE94-A1B5BFD0261D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944226" y="15106650"/>
+          <a:ext cx="1357744" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコードの開始位置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67195B45-39F7-4DD6-A332-450418F41BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10601325" y="15744825"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1357744" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EE27B6-FF36-4ECA-A13B-F0378659E365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934701" y="15630525"/>
+          <a:ext cx="1357744" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコードの開始位置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476375" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="テキスト ボックス 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F25CD15-AE8D-4A41-844B-0C466AE9E157}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="15287625"/>
+          <a:ext cx="1476375" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414336</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36264955-9CF7-4C15-BBC2-5C93E59FEBD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="7196136" y="15159035"/>
+          <a:ext cx="290513" cy="509589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15789"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476375" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80F109C-3E6B-4A15-828C-CA5F33F9B539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="15859125"/>
+          <a:ext cx="1476375" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>404810</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>33334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0252916D-6D6B-4335-B5A5-52FBD648D0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="7186610" y="15682909"/>
+          <a:ext cx="290513" cy="642940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15789"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19322,7 +21022,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3200400" cy="642484"/>
@@ -19427,13 +21127,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19493,13 +21193,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>170583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19547,13 +21247,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>104777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19618,7 +21318,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2447925" cy="275717"/>
@@ -19677,13 +21377,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19744,13 +21444,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19811,13 +21511,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -19943,13 +21643,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20068,6 +21768,883 @@
           </a:r>
         </a:p>
       </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431005</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>21436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="右矢印 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6017289D-E5EE-4A52-8B34-14428D0CF64E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1487090" y="7935520"/>
+          <a:ext cx="373856" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>380998</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234460</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D60437-BB08-4E57-B7E2-CD607D1693F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1752598" y="8003931"/>
+          <a:ext cx="1225062" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>556847</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>132618</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2101216" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E958B7-706B-490D-A1E9-B56FE9A75A36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242647" y="9048018"/>
+          <a:ext cx="2101216" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>属性</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>tableLabelAbobe=true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にて、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表の名称が上部にある場合。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>235927</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>13923</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2886368" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619E0CDC-B897-4F5E-AF3E-3950E8BC04E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2979127" y="9272223"/>
+          <a:ext cx="2886368" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表の名称から、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng"/>
+            <a:t>下から表が開始</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>するので、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>bottom=3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACE6F53-6620-426E-A6B0-68F170AC4F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1724025" y="9477375"/>
+          <a:ext cx="0" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235128C7-71D1-495F-8078-62131B1CC5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="9139237" y="19454812"/>
+          <a:ext cx="180975" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35020"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19543</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>151249</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095008" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{269FC250-9DD9-4D2E-8E06-6D8FA675ED82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8096743" y="20725249"/>
+          <a:ext cx="2095008" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日」に対するレコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8533F307-94B5-4F3F-85DC-60ABF8CB21B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="12568237" y="19454812"/>
+          <a:ext cx="180975" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35020"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>105268</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>170299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2095008" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3FCE40-8584-4A78-8E83-3533C45D8C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10992343" y="20744299"/>
+          <a:ext cx="2095008" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日」に対するレコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390527</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1395510" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952736EA-4332-4042-8188-8DF9CCEEA266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7219952" y="21755100"/>
+          <a:ext cx="1395510" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコードの開始位置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>151533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68AA768-064E-4C6D-ADED-0B01045BAFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7781925" y="21582783"/>
+          <a:ext cx="0" cy="219942"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>143742</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1395510" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54966C9-67B1-4D60-9366-766E43FA5FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="21746442"/>
+          <a:ext cx="1395510" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコードの開始位置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>19917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D726080B-2075-49F4-962B-BDFA46C3A5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10591798" y="21574125"/>
+          <a:ext cx="0" cy="219942"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -21545,6 +24122,730 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED7782D-C5F1-45AC-A1C6-C28618D27B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10601324" y="15220950"/>
+          <a:ext cx="371475" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1357744" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A25063-E14E-421B-BD15-34002F3F3388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10944226" y="15106650"/>
+          <a:ext cx="1357744" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコードの開始位置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A38944-3F23-46D3-AF9C-139D4EA3B9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10601325" y="15744825"/>
+          <a:ext cx="361950" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1357744" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CC2CD6-F725-45E3-A1BB-5CE75C6738C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934701" y="15630525"/>
+          <a:ext cx="1357744" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコードの開始位置</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476375" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3799B7A-6254-482B-B7AA-B13826C262ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="15287625"/>
+          <a:ext cx="1476375" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>414336</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB2FD94-F8C3-437E-A3AB-74C824C56648}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="7196136" y="15159035"/>
+          <a:ext cx="290513" cy="509589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15789"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1476375" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2057D4D3-003F-41CC-B93B-DAAF23A53F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="15859125"/>
+          <a:ext cx="1476375" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「クラス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>」に対する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レコード</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>404810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456CD916-C878-4F0F-B49D-2490F072DE3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="7186610" y="15682909"/>
+          <a:ext cx="290513" cy="642940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15789"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121419</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>26170</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0647C126-2C7D-4E79-BC2C-808A8661115D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7500354">
+          <a:off x="3443667" y="2375944"/>
+          <a:ext cx="804055" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 53847"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>7120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597671</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BD1838-7024-4D16-BD29-E58BDCCCE848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2814542">
+          <a:off x="4700968" y="2366418"/>
+          <a:ext cx="804055" cy="590551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 53847"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1566583" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F6C22A-C466-4CFB-9FB9-6848E35B5D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543551" y="2419350"/>
+          <a:ext cx="1566583" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>分割してマッピングする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -22242,7 +25543,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -23610,1008 +26911,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F71BFF3-542F-4230-ACE9-71E473DA18C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="3586161" y="-309561"/>
-          <a:ext cx="238128" cy="2933700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 28284"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="893514" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBB63F3-BFCC-4BDD-8F61-CA9AB906E364}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3257550" y="1219200"/>
-          <a:ext cx="893514" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>size=10</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="円/楕円 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9E382E-CD08-43BD-9E50-3525654B87B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3028950" y="819150"/>
-          <a:ext cx="1314449" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>118185</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1255280" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A056F1-9781-4EF2-94F3-C955BCA9E3B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2990850" y="461085"/>
-          <a:ext cx="1255280" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>見出しは結合する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>264959</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>264959</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133903</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51904F5-E404-4978-ADCA-C59208D2FB88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="3665384" y="666750"/>
-          <a:ext cx="0" cy="152953"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85728</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1BE304-6B03-47C8-A42A-3B0202F6DA4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="10186986" y="985839"/>
-          <a:ext cx="238128" cy="4476750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 28284"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="822020" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A00627B-19E6-4AE1-AEE2-D4449841A0AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9839325" y="3324225"/>
-          <a:ext cx="822020" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>size=3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1705660" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02B7482-2C21-44B0-9740-8A467F417ACF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10810875" y="2105025"/>
-          <a:ext cx="1705660" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>elementMerged=true</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133352</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="AutoShape 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DC47F3-9B07-49AF-9FEB-A4720407DE02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="3000376" y="1762126"/>
-          <a:ext cx="190497" cy="1733550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 28284"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="822020" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EA99D9-BA8F-4586-A5DB-98E7ED42C581}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2447925" y="4533900"/>
-          <a:ext cx="822020" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>size=6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2657475" cy="495299"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED19FB9-1B71-4C18-AF2F-3EB755E5F743}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3886199" y="4467226"/>
-          <a:ext cx="2657475" cy="495299"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>セルが足りない場合、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>overOperation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で操作を指定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2847976" cy="631327"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BFFBE83-1FFF-40D6-A684-770A51C0EF1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3638550" y="5676901"/>
-          <a:ext cx="2847976" cy="631327"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>セルが余っている場合、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>属性</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>reminedOperation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>で操作を指定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>42497</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5758C89-1064-49C1-8000-68DF87E4C09A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4010025" y="5124450"/>
-          <a:ext cx="295274" cy="232997"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>42497</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="楕円 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B62ECD-3352-4B9D-B59A-80B1D3271951}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3705225" y="5295900"/>
-          <a:ext cx="295274" cy="232997"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133904</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F41D2A78-800C-467C-B858-F0291A329B10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="4171950" y="4867276"/>
-          <a:ext cx="0" cy="238678"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>19603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E377AB0-BCD5-4A8F-9427-A14F52EF1A08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3867150" y="5506003"/>
-          <a:ext cx="0" cy="237571"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24991,6 +27290,895 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="237" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="239" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="240"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="236" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" s="236"/>
+      <c r="G7" s="236"/>
+      <c r="H7" s="236"/>
+      <c r="I7" s="236"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="90">
+        <v>1</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="40">
+        <v>90</v>
+      </c>
+      <c r="H8" s="40">
+        <v>70</v>
+      </c>
+      <c r="I8" s="55">
+        <f>SUM(G8:H8)</f>
+        <v>160</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="90">
+        <v>2</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="40">
+        <v>80</v>
+      </c>
+      <c r="H9" s="40">
+        <v>90</v>
+      </c>
+      <c r="I9" s="55">
+        <f>SUM(G9:H9)</f>
+        <v>170</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="236" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="236"/>
+      <c r="G10" s="236"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="236"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="90">
+        <v>1</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="40">
+        <v>70</v>
+      </c>
+      <c r="H11" s="40">
+        <v>80</v>
+      </c>
+      <c r="I11" s="47">
+        <f>SUM(G11:H11)</f>
+        <v>150</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="90">
+        <v>2</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="40">
+        <v>75</v>
+      </c>
+      <c r="H12" s="40">
+        <v>85</v>
+      </c>
+      <c r="I12" s="47">
+        <f>SUM(G12:H12)</f>
+        <v>160</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="90">
+        <v>3</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="40">
+        <v>90</v>
+      </c>
+      <c r="H13" s="40">
+        <v>75</v>
+      </c>
+      <c r="I13" s="47">
+        <f>SUM(G13:H13)</f>
+        <v>165</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="13"/>
+      <c r="C18" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B19" s="13"/>
+      <c r="C19" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="237" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="239" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="240"/>
+      <c r="G19" s="241"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="237" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="239" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="240"/>
+      <c r="M19" s="241"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="13"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="13"/>
+      <c r="C21" s="236" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="236"/>
+      <c r="E21" s="236"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="204"/>
+      <c r="K21" s="204"/>
+      <c r="L21" s="204"/>
+      <c r="M21" s="205"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="13"/>
+      <c r="C22" s="90">
+        <v>1</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="40">
+        <v>90</v>
+      </c>
+      <c r="F22" s="40">
+        <v>70</v>
+      </c>
+      <c r="G22" s="55">
+        <f>SUM(E22:F22)</f>
+        <v>160</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="207"/>
+      <c r="K22" s="207"/>
+      <c r="L22" s="207"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="13"/>
+      <c r="C23" s="90">
+        <v>2</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="40">
+        <v>80</v>
+      </c>
+      <c r="F23" s="40">
+        <v>90</v>
+      </c>
+      <c r="G23" s="55">
+        <f>SUM(E23:F23)</f>
+        <v>170</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="210"/>
+      <c r="K23" s="210"/>
+      <c r="L23" s="210"/>
+      <c r="M23" s="211"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B24" s="13"/>
+      <c r="C24" s="236" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="236"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="236"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="236" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" s="236"/>
+      <c r="K24" s="236"/>
+      <c r="L24" s="236"/>
+      <c r="M24" s="236"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="90">
+        <v>1</v>
+      </c>
+      <c r="J25" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" s="40">
+        <v>70</v>
+      </c>
+      <c r="L25" s="40">
+        <v>80</v>
+      </c>
+      <c r="M25" s="47">
+        <f>SUM(K25:L25)</f>
+        <v>150</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="90">
+        <v>2</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" s="40">
+        <v>75</v>
+      </c>
+      <c r="L26" s="40">
+        <v>85</v>
+      </c>
+      <c r="M26" s="47">
+        <f>SUM(K26:L26)</f>
+        <v>160</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="90">
+        <v>3</v>
+      </c>
+      <c r="J27" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" s="40">
+        <v>90</v>
+      </c>
+      <c r="L27" s="40">
+        <v>75</v>
+      </c>
+      <c r="M27" s="47">
+        <f>SUM(K27:L27)</f>
+        <v>165</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="I24:M24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25055,10 +28243,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="238" t="s">
+      <c r="D5" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="238"/>
+      <c r="E5" s="257"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -25125,7 +28313,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="240" t="s">
+      <c r="J8" s="260" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -25145,7 +28333,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="241"/>
+      <c r="J9" s="261"/>
       <c r="K9" s="2" t="s">
         <v>48</v>
       </c>
@@ -25388,7 +28576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -25506,7 +28694,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="218"/>
+      <c r="H8" s="242"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -25518,7 +28706,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="218"/>
+      <c r="H9" s="242"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -25630,7 +28818,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="218"/>
+      <c r="H20" s="242"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -25642,7 +28830,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="218"/>
+      <c r="H21" s="242"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -25768,7 +28956,7 @@
       <c r="G32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="218"/>
+      <c r="H32" s="242"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -25780,7 +28968,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="218"/>
+      <c r="H33" s="242"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
@@ -25995,7 +29183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y36"/>
   <sheetViews>
@@ -26103,18 +29291,18 @@
       <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="238" t="s">
+      <c r="D6" s="257" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="257"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="257"/>
       <c r="N6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -26354,14 +29542,14 @@
       <c r="Q16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="205" t="s">
+      <c r="R16" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="205"/>
-      <c r="T16" s="205"/>
-      <c r="U16" s="205"/>
-      <c r="V16" s="205"/>
-      <c r="W16" s="205"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="223"/>
+      <c r="U16" s="223"/>
+      <c r="V16" s="223"/>
+      <c r="W16" s="223"/>
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
@@ -26375,15 +29563,15 @@
       <c r="R17" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="242" t="s">
+      <c r="S17" s="262" t="s">
         <v>213</v>
       </c>
-      <c r="T17" s="243"/>
-      <c r="U17" s="244"/>
-      <c r="V17" s="245" t="s">
+      <c r="T17" s="263"/>
+      <c r="U17" s="264"/>
+      <c r="V17" s="265" t="s">
         <v>214</v>
       </c>
-      <c r="W17" s="246"/>
+      <c r="W17" s="266"/>
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
@@ -26397,15 +29585,15 @@
       <c r="R18" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="242" t="s">
+      <c r="S18" s="262" t="s">
         <v>216</v>
       </c>
-      <c r="T18" s="243"/>
-      <c r="U18" s="244"/>
-      <c r="V18" s="245" t="s">
+      <c r="T18" s="263"/>
+      <c r="U18" s="264"/>
+      <c r="V18" s="265" t="s">
         <v>217</v>
       </c>
-      <c r="W18" s="246"/>
+      <c r="W18" s="266"/>
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
@@ -26554,14 +29742,14 @@
       <c r="C30" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="196" t="s">
+      <c r="D30" s="214" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="198"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="216"/>
       <c r="J30" s="182"/>
       <c r="K30" s="182"/>
       <c r="L30" s="182"/>
@@ -26723,7 +29911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:U27"/>
   <sheetViews>
@@ -26808,12 +29996,12 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="247"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="267"/>
       <c r="L8" s="182"/>
       <c r="M8" s="182"/>
       <c r="N8" s="182"/>
@@ -26828,10 +30016,10 @@
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="222" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="204"/>
+      <c r="E9" s="222"/>
       <c r="F9" s="184" t="s">
         <v>163</v>
       </c>
@@ -27032,12 +30220,12 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247"/>
-      <c r="K21" s="247"/>
+      <c r="F21" s="267"/>
+      <c r="G21" s="267"/>
+      <c r="H21" s="267"/>
+      <c r="I21" s="267"/>
+      <c r="J21" s="267"/>
+      <c r="K21" s="267"/>
       <c r="L21" s="182"/>
       <c r="M21" s="182"/>
       <c r="N21" s="182"/>
@@ -27049,10 +30237,10 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C22" s="13"/>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="222" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="204"/>
+      <c r="E22" s="222"/>
       <c r="F22" s="184" t="s">
         <v>187</v>
       </c>
@@ -27184,7 +30372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -27485,7 +30673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H14"/>
   <sheetViews>
@@ -27549,7 +30737,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="218"/>
+      <c r="E5" s="242"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -27563,7 +30751,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="218"/>
+      <c r="E6" s="242"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -27670,7 +30858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H8"/>
   <sheetViews>
@@ -27732,7 +30920,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="218"/>
+      <c r="E5" s="242"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -27746,7 +30934,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="218"/>
+      <c r="E6" s="242"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -27785,7 +30973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
@@ -27805,21 +30993,21 @@
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="248" t="s">
+      <c r="A4" s="268" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="269" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="250" t="s">
+      <c r="C4" s="270" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="248"/>
-      <c r="B5" s="249"/>
+      <c r="A5" s="268"/>
+      <c r="B5" s="269"/>
       <c r="C5" s="155" t="s">
         <v>158</v>
       </c>
@@ -27973,7 +31161,7 @@
       <c r="B7" s="110">
         <v>1</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="212" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="111" t="s">
@@ -27987,7 +31175,7 @@
       <c r="B8" s="110">
         <v>2</v>
       </c>
-      <c r="C8" s="194"/>
+      <c r="C8" s="212"/>
       <c r="D8" s="111" t="s">
         <v>84</v>
       </c>
@@ -27999,7 +31187,7 @@
       <c r="B9" s="110">
         <v>3</v>
       </c>
-      <c r="C9" s="194"/>
+      <c r="C9" s="212"/>
       <c r="D9" s="111" t="s">
         <v>85</v>
       </c>
@@ -28486,12 +31674,12 @@
     </row>
     <row r="40" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J40" s="29"/>
-      <c r="K40" s="195" t="s">
+      <c r="K40" s="213" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="195"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="195"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="213"/>
+      <c r="N40" s="213"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
     </row>
@@ -28563,11 +31751,11 @@
     </row>
     <row r="48" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J48" s="13"/>
-      <c r="K48" s="196" t="s">
+      <c r="K48" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="L48" s="197"/>
-      <c r="M48" s="198"/>
+      <c r="L48" s="215"/>
+      <c r="M48" s="216"/>
       <c r="N48" s="32" t="s">
         <v>25</v>
       </c>
@@ -28630,11 +31818,11 @@
     </row>
     <row r="55" spans="10:16" x14ac:dyDescent="0.15">
       <c r="J55" s="13"/>
-      <c r="K55" s="196" t="s">
+      <c r="K55" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="197"/>
-      <c r="M55" s="198"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="216"/>
       <c r="N55" s="32" t="s">
         <v>25</v>
       </c>
@@ -29378,21 +32566,21 @@
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="199" t="s">
+      <c r="M32" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="N32" s="199"/>
-      <c r="O32" s="199"/>
-      <c r="P32" s="199" t="s">
+      <c r="N32" s="217"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="Q32" s="199"/>
-      <c r="R32" s="199" t="s">
+      <c r="Q32" s="217"/>
+      <c r="R32" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="S32" s="199"/>
-      <c r="T32" s="199"/>
-      <c r="U32" s="199"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -29602,9 +32790,9 @@
       <c r="AB47" s="13"/>
     </row>
     <row r="48" spans="11:28" x14ac:dyDescent="0.15">
-      <c r="L48" s="200"/>
-      <c r="M48" s="200"/>
-      <c r="N48" s="201"/>
+      <c r="L48" s="218"/>
+      <c r="M48" s="218"/>
+      <c r="N48" s="219"/>
       <c r="O48" s="181" t="s">
         <v>163</v>
       </c>
@@ -29652,9 +32840,9 @@
       <c r="AB49" s="13"/>
     </row>
     <row r="50" spans="12:28" x14ac:dyDescent="0.15">
-      <c r="L50" s="200"/>
-      <c r="M50" s="200"/>
-      <c r="N50" s="201"/>
+      <c r="L50" s="218"/>
+      <c r="M50" s="218"/>
+      <c r="N50" s="219"/>
       <c r="O50" s="181" t="s">
         <v>226</v>
       </c>
@@ -29907,10 +33095,10 @@
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.15">
       <c r="C9" s="13"/>
-      <c r="D9" s="205" t="s">
+      <c r="D9" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="205"/>
+      <c r="E9" s="223"/>
       <c r="F9" s="59" t="s">
         <v>163</v>
       </c>
@@ -29931,10 +33119,10 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="205" t="s">
+      <c r="N9" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="205"/>
+      <c r="O9" s="223"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -30138,14 +33326,14 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
-      <c r="C24" s="216" t="s">
+      <c r="C24" s="234" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="217"/>
-      <c r="E24" s="206" t="s">
+      <c r="D24" s="235"/>
+      <c r="E24" s="224" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="207"/>
+      <c r="F24" s="225"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -30158,10 +33346,10 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="206" t="s">
+      <c r="E25" s="224" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="207"/>
+      <c r="F25" s="225"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -30174,10 +33362,10 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="206" t="s">
+      <c r="E26" s="224" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="207"/>
+      <c r="F26" s="225"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -30190,10 +33378,10 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="206" t="s">
+      <c r="E27" s="224" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="207"/>
+      <c r="F27" s="225"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -30262,10 +33450,10 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="216" t="s">
+      <c r="E32" s="234" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="217"/>
+      <c r="F32" s="235"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -30278,10 +33466,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="206" t="s">
+      <c r="E33" s="224" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="207"/>
+      <c r="F33" s="225"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -30294,10 +33482,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="206" t="s">
+      <c r="E34" s="224" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="207"/>
+      <c r="F34" s="225"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -30310,10 +33498,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="206" t="s">
+      <c r="E35" s="224" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="207"/>
+      <c r="F35" s="225"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -30326,10 +33514,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="206" t="s">
+      <c r="E36" s="224" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="207"/>
+      <c r="F36" s="225"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -30456,10 +33644,10 @@
     </row>
     <row r="45" spans="2:43" x14ac:dyDescent="0.15">
       <c r="B45" s="13"/>
-      <c r="C45" s="205" t="s">
+      <c r="C45" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="205"/>
+      <c r="D45" s="223"/>
       <c r="E45" s="160"/>
       <c r="F45" s="160"/>
       <c r="G45" s="160" t="s">
@@ -30575,25 +33763,25 @@
       <c r="M48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="205" t="s">
+      <c r="AB48" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="AC48" s="205"/>
-      <c r="AD48" s="199" t="s">
+      <c r="AC48" s="223"/>
+      <c r="AD48" s="217" t="s">
         <v>177</v>
       </c>
-      <c r="AE48" s="199"/>
-      <c r="AF48" s="199"/>
-      <c r="AG48" s="199" t="s">
+      <c r="AE48" s="217"/>
+      <c r="AF48" s="217"/>
+      <c r="AG48" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="AH48" s="199"/>
-      <c r="AI48" s="199" t="s">
+      <c r="AH48" s="217"/>
+      <c r="AI48" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="AJ48" s="199"/>
-      <c r="AK48" s="199"/>
-      <c r="AL48" s="199"/>
+      <c r="AJ48" s="217"/>
+      <c r="AK48" s="217"/>
+      <c r="AL48" s="217"/>
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="13"/>
@@ -30700,10 +33888,10 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="216" t="s">
+      <c r="E52" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="217"/>
+      <c r="F52" s="235"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -30734,8 +33922,8 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="208"/>
-      <c r="F53" s="209"/>
+      <c r="E53" s="226"/>
+      <c r="F53" s="227"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -30766,8 +33954,8 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="209"/>
+      <c r="E54" s="226"/>
+      <c r="F54" s="227"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -30798,18 +33986,18 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="206" t="s">
+      <c r="E55" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="207"/>
-      <c r="G55" s="206" t="s">
+      <c r="F55" s="225"/>
+      <c r="G55" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="207"/>
-      <c r="I55" s="206" t="s">
+      <c r="H55" s="225"/>
+      <c r="I55" s="224" t="s">
         <v>193</v>
       </c>
-      <c r="J55" s="207"/>
+      <c r="J55" s="225"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -30836,10 +34024,10 @@
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="206" t="s">
+      <c r="E56" s="224" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="207"/>
+      <c r="F56" s="225"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -30852,10 +34040,10 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="206" t="s">
+      <c r="E57" s="224" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="207"/>
+      <c r="F57" s="225"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -30984,11 +34172,11 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="Z61" s="29"/>
-      <c r="AA61" s="205" t="s">
+      <c r="AA61" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="AB61" s="205"/>
-      <c r="AC61" s="205"/>
+      <c r="AB61" s="223"/>
+      <c r="AC61" s="223"/>
       <c r="AD61" s="160" t="s">
         <v>163</v>
       </c>
@@ -31148,11 +34336,11 @@
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.15">
       <c r="Z68" s="29"/>
-      <c r="AA68" s="205" t="s">
+      <c r="AA68" s="223" t="s">
         <v>28</v>
       </c>
-      <c r="AB68" s="205"/>
-      <c r="AC68" s="205"/>
+      <c r="AB68" s="223"/>
+      <c r="AC68" s="223"/>
       <c r="AD68" s="160" t="s">
         <v>163</v>
       </c>
@@ -31306,10 +34494,10 @@
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B74" s="13"/>
-      <c r="C74" s="205" t="s">
+      <c r="C74" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="205"/>
+      <c r="D74" s="223"/>
       <c r="E74" s="169"/>
       <c r="F74" s="170"/>
       <c r="G74" s="160" t="s">
@@ -31483,11 +34671,11 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="Z79" s="29"/>
-      <c r="AA79" s="205" t="s">
+      <c r="AA79" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="AB79" s="205"/>
-      <c r="AC79" s="205"/>
+      <c r="AB79" s="223"/>
+      <c r="AC79" s="223"/>
       <c r="AD79" s="180" t="s">
         <v>163</v>
       </c>
@@ -31515,10 +34703,10 @@
     </row>
     <row r="80" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B80" s="13"/>
-      <c r="C80" s="216" t="s">
+      <c r="C80" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="217"/>
+      <c r="D80" s="235"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -31547,8 +34735,8 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B81" s="13"/>
-      <c r="C81" s="212"/>
-      <c r="D81" s="213"/>
+      <c r="C81" s="230"/>
+      <c r="D81" s="231"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -31559,11 +34747,11 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="Z81" s="29"/>
-      <c r="AA81" s="205" t="s">
+      <c r="AA81" s="223" t="s">
         <v>199</v>
       </c>
-      <c r="AB81" s="205"/>
-      <c r="AC81" s="205"/>
+      <c r="AB81" s="223"/>
+      <c r="AC81" s="223"/>
       <c r="AD81" s="180" t="s">
         <v>226</v>
       </c>
@@ -31587,8 +34775,8 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B82" s="13"/>
-      <c r="C82" s="214"/>
-      <c r="D82" s="215"/>
+      <c r="C82" s="232"/>
+      <c r="D82" s="233"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -31617,8 +34805,8 @@
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B83" s="13"/>
-      <c r="C83" s="210"/>
-      <c r="D83" s="211"/>
+      <c r="C83" s="228"/>
+      <c r="D83" s="229"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -31646,18 +34834,18 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B84" s="13"/>
-      <c r="C84" s="206" t="s">
+      <c r="C84" s="224" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="207"/>
-      <c r="E84" s="206" t="s">
+      <c r="D84" s="225"/>
+      <c r="E84" s="224" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="207"/>
-      <c r="G84" s="206" t="s">
+      <c r="F84" s="225"/>
+      <c r="G84" s="224" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="207"/>
+      <c r="H84" s="225"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -31803,10 +34991,10 @@
     <row r="93" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A93" s="172"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="204" t="s">
+      <c r="C93" s="222" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="204"/>
+      <c r="D93" s="222"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -31820,10 +35008,10 @@
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="172"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="204" t="s">
+      <c r="C94" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="204"/>
+      <c r="D94" s="222"/>
       <c r="E94" s="167" t="s">
         <v>200</v>
       </c>
@@ -31864,10 +35052,10 @@
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A96" s="172"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="202" t="s">
+      <c r="C96" s="220" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="203"/>
+      <c r="D96" s="221"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -31881,10 +35069,10 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="172"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="204" t="s">
+      <c r="C97" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="204"/>
+      <c r="D97" s="222"/>
       <c r="E97" s="167" t="s">
         <v>206</v>
       </c>
@@ -32010,10 +35198,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH105"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C26"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85:R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32127,7 +35315,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="218"/>
+      <c r="E4" s="242"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -32162,7 +35350,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="218"/>
+      <c r="E5" s="242"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -32207,11 +35395,11 @@
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="219" t="s">
+      <c r="N6" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="219"/>
-      <c r="P6" s="219"/>
+      <c r="O6" s="243"/>
+      <c r="P6" s="243"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -32224,16 +35412,16 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="196" t="s">
+      <c r="AC6" s="214" t="s">
         <v>149</v>
       </c>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="198"/>
-      <c r="AF6" s="227" t="s">
+      <c r="AD6" s="215"/>
+      <c r="AE6" s="216"/>
+      <c r="AF6" s="246" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="228"/>
-      <c r="AH6" s="229"/>
+      <c r="AG6" s="247"/>
+      <c r="AH6" s="248"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
@@ -32326,16 +35514,16 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="232" t="s">
+      <c r="V8" s="251" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="235" t="s">
+      <c r="W8" s="254" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="235" t="s">
+      <c r="X8" s="254" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" s="235" t="s">
+      <c r="Y8" s="254" t="s">
         <v>105</v>
       </c>
       <c r="Z8" s="136" t="s">
@@ -32348,7 +35536,7 @@
       <c r="AC8" s="153">
         <v>1</v>
       </c>
-      <c r="AD8" s="230" t="s">
+      <c r="AD8" s="249" t="s">
         <v>150</v>
       </c>
       <c r="AE8" s="128" t="s">
@@ -32396,10 +35584,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="233"/>
-      <c r="W9" s="236"/>
-      <c r="X9" s="231"/>
-      <c r="Y9" s="231"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="255"/>
+      <c r="X9" s="250"/>
+      <c r="Y9" s="250"/>
       <c r="Z9" s="138" t="s">
         <v>108</v>
       </c>
@@ -32410,7 +35598,7 @@
       <c r="AC9" s="153">
         <v>2</v>
       </c>
-      <c r="AD9" s="231"/>
+      <c r="AD9" s="250"/>
       <c r="AE9" s="128" t="s">
         <v>153</v>
       </c>
@@ -32438,10 +35626,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="220" t="s">
+      <c r="L10" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="221"/>
+      <c r="M10" s="245"/>
       <c r="N10" s="47">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -32457,8 +35645,8 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="233"/>
-      <c r="W10" s="236"/>
+      <c r="V10" s="252"/>
+      <c r="W10" s="255"/>
       <c r="X10" s="128" t="s">
         <v>110</v>
       </c>
@@ -32511,12 +35699,12 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="233"/>
-      <c r="W11" s="236"/>
-      <c r="X11" s="230" t="s">
+      <c r="V11" s="252"/>
+      <c r="W11" s="255"/>
+      <c r="X11" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="230" t="s">
+      <c r="Y11" s="249" t="s">
         <v>115</v>
       </c>
       <c r="Z11" s="140" t="s">
@@ -32556,10 +35744,10 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="233"/>
-      <c r="W12" s="236"/>
-      <c r="X12" s="236"/>
-      <c r="Y12" s="236"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="255"/>
+      <c r="X12" s="255"/>
+      <c r="Y12" s="255"/>
       <c r="Z12" s="142" t="s">
         <v>118</v>
       </c>
@@ -32593,10 +35781,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="233"/>
-      <c r="W13" s="236"/>
-      <c r="X13" s="236"/>
-      <c r="Y13" s="236"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="255"/>
+      <c r="X13" s="255"/>
+      <c r="Y13" s="255"/>
       <c r="Z13" s="144" t="s">
         <v>120</v>
       </c>
@@ -32634,10 +35822,10 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="232" t="s">
+      <c r="V14" s="251" t="s">
         <v>122</v>
       </c>
-      <c r="W14" s="235" t="s">
+      <c r="W14" s="254" t="s">
         <v>123</v>
       </c>
       <c r="X14" s="129" t="s">
@@ -32679,12 +35867,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="233"/>
-      <c r="W15" s="236"/>
-      <c r="X15" s="230" t="s">
+      <c r="V15" s="252"/>
+      <c r="W15" s="255"/>
+      <c r="X15" s="249" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="230" t="s">
+      <c r="Y15" s="249" t="s">
         <v>129</v>
       </c>
       <c r="Z15" s="140" t="s">
@@ -32720,10 +35908,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="234"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
+      <c r="V16" s="253"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="256"/>
       <c r="Z16" s="144" t="s">
         <v>132</v>
       </c>
@@ -32990,11 +36178,11 @@
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="222" t="s">
+      <c r="N25" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="223"/>
-      <c r="P25" s="224"/>
+      <c r="O25" s="240"/>
+      <c r="P25" s="241"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -33063,10 +36251,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A27" s="44"/>
-      <c r="B27" s="252">
+      <c r="B27" s="195">
         <v>3</v>
       </c>
-      <c r="C27" s="253" t="s">
+      <c r="C27" s="196" t="s">
         <v>231</v>
       </c>
       <c r="D27" s="13"/>
@@ -33411,7 +36599,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="200"/>
+      <c r="J43" s="218"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
       <c r="M43" s="89"/>
@@ -33428,7 +36616,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="200"/>
+      <c r="J44" s="218"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
       <c r="M44" s="87"/>
@@ -33502,17 +36690,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="225" t="s">
+      <c r="K48" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="225" t="s">
+      <c r="L48" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="222" t="s">
+      <c r="M48" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="223"/>
-      <c r="O48" s="224"/>
+      <c r="N48" s="240"/>
+      <c r="O48" s="241"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="13"/>
     </row>
@@ -33530,8 +36718,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="226"/>
-      <c r="L49" s="226"/>
+      <c r="K49" s="238"/>
+      <c r="L49" s="238"/>
       <c r="M49" s="54" t="s">
         <v>39</v>
       </c>
@@ -33679,11 +36867,11 @@
       <c r="L55" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="222" t="s">
+      <c r="M55" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="223"/>
-      <c r="O55" s="224"/>
+      <c r="N55" s="240"/>
+      <c r="O55" s="241"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -34021,7 +37209,7 @@
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
     </row>
-    <row r="81" spans="11:17" x14ac:dyDescent="0.15">
+    <row r="81" spans="7:20" x14ac:dyDescent="0.15">
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
@@ -34030,8 +37218,447 @@
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
     </row>
+    <row r="82" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+    </row>
+    <row r="83" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+    </row>
+    <row r="84" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+    </row>
+    <row r="85" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+    </row>
+    <row r="86" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="202" t="s">
+        <v>234</v>
+      </c>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+    </row>
+    <row r="87" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" s="237" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" s="239" t="s">
+        <v>35</v>
+      </c>
+      <c r="N87" s="240"/>
+      <c r="O87" s="241"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+    </row>
+    <row r="88" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="238"/>
+      <c r="L88" s="238"/>
+      <c r="M88" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="O88" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+    </row>
+    <row r="89" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="236" t="s">
+        <v>235</v>
+      </c>
+      <c r="L89" s="236"/>
+      <c r="M89" s="236"/>
+      <c r="N89" s="236"/>
+      <c r="O89" s="236"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+    </row>
+    <row r="90" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="M90" s="40">
+        <v>90</v>
+      </c>
+      <c r="N90" s="40">
+        <v>70</v>
+      </c>
+      <c r="O90" s="55">
+        <f>SUM(M90:N90)</f>
+        <v>160</v>
+      </c>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+    </row>
+    <row r="91" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="90">
+        <v>2</v>
+      </c>
+      <c r="L91" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="M91" s="40">
+        <v>80</v>
+      </c>
+      <c r="N91" s="40">
+        <v>90</v>
+      </c>
+      <c r="O91" s="55">
+        <f>SUM(M91:N91)</f>
+        <v>170</v>
+      </c>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+    </row>
+    <row r="92" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="236" t="s">
+        <v>236</v>
+      </c>
+      <c r="L92" s="236"/>
+      <c r="M92" s="236"/>
+      <c r="N92" s="236"/>
+      <c r="O92" s="236"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+    </row>
+    <row r="93" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="90">
+        <v>1</v>
+      </c>
+      <c r="L93" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="M93" s="40">
+        <v>70</v>
+      </c>
+      <c r="N93" s="40">
+        <v>80</v>
+      </c>
+      <c r="O93" s="47">
+        <f>SUM(M93:N93)</f>
+        <v>150</v>
+      </c>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="13"/>
+      <c r="S93" s="13"/>
+      <c r="T93" s="13"/>
+    </row>
+    <row r="94" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="90">
+        <v>2</v>
+      </c>
+      <c r="L94" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="M94" s="40">
+        <v>75</v>
+      </c>
+      <c r="N94" s="40">
+        <v>85</v>
+      </c>
+      <c r="O94" s="47">
+        <f>SUM(M94:N94)</f>
+        <v>160</v>
+      </c>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="13"/>
+      <c r="T94" s="13"/>
+    </row>
+    <row r="95" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="90">
+        <v>3</v>
+      </c>
+      <c r="L95" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="M95" s="40">
+        <v>90</v>
+      </c>
+      <c r="N95" s="40">
+        <v>75</v>
+      </c>
+      <c r="O95" s="47">
+        <f>SUM(M95:N95)</f>
+        <v>165</v>
+      </c>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+    </row>
+    <row r="96" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="13"/>
+      <c r="S96" s="13"/>
+      <c r="T96" s="13"/>
+    </row>
+    <row r="97" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+      <c r="O97" s="13"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="13"/>
+      <c r="S97" s="13"/>
+      <c r="T97" s="13"/>
+    </row>
+    <row r="98" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="13"/>
+      <c r="S98" s="13"/>
+      <c r="T98" s="13"/>
+    </row>
+    <row r="99" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+    </row>
+    <row r="100" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="13"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13"/>
+      <c r="S100" s="13"/>
+      <c r="T100" s="13"/>
+    </row>
+    <row r="101" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+      <c r="O101" s="13"/>
+      <c r="P101" s="13"/>
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13"/>
+      <c r="S101" s="13"/>
+      <c r="T101" s="13"/>
+    </row>
+    <row r="102" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13"/>
+    </row>
+    <row r="103" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="13"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="13"/>
+      <c r="S103" s="13"/>
+      <c r="T103" s="13"/>
+    </row>
+    <row r="104" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="13"/>
+      <c r="S104" s="13"/>
+      <c r="T104" s="13"/>
+    </row>
+    <row r="105" spans="7:20" x14ac:dyDescent="0.15">
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -34054,6 +37681,11 @@
     <mergeCell ref="L48:L49"/>
     <mergeCell ref="M48:O48"/>
     <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:O87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -34065,15 +37697,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N86" sqref="N86"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="9" width="7.125" customWidth="1"/>
+    <col min="13" max="22" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -34689,6 +38322,45 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+    </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
@@ -34700,6 +38372,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" s="13"/>
@@ -34712,6 +38385,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="13"/>
@@ -34724,142 +38398,133 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
+      <c r="C58" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="62"/>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="74"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="194" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E61" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="69" t="s">
+        <v>59</v>
+      </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="13"/>
-      <c r="B62" s="238" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="238"/>
-      <c r="D62" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G62" s="69" t="s">
-        <v>59</v>
-      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="194" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="E62" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="68">
+        <v>0</v>
+      </c>
+      <c r="G62" s="68"/>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="13"/>
-      <c r="B63" s="225" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="92">
-        <v>0.7</v>
-      </c>
-      <c r="E63" s="92">
-        <v>0.5</v>
-      </c>
-      <c r="F63" s="92">
-        <v>0</v>
-      </c>
-      <c r="G63" s="92"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="13"/>
-      <c r="B64" s="239"/>
-      <c r="C64" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="98">
-        <v>15</v>
-      </c>
-      <c r="E64" s="98">
-        <v>18</v>
-      </c>
-      <c r="F64" s="98">
-        <v>20</v>
-      </c>
-      <c r="G64" s="93"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="13"/>
-      <c r="B65" s="226"/>
-      <c r="C65" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="D65" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" s="94"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -34870,8 +38535,9 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K66" s="13"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -34882,12 +38548,11 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K67" s="13"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="13"/>
-      <c r="B68" s="13" t="s">
-        <v>60</v>
-      </c>
+      <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="13"/>
@@ -34896,122 +38561,48 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K68" s="13"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="13"/>
-      <c r="B69" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E69" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G69" s="69" t="s">
-        <v>59</v>
-      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="13"/>
-      <c r="B70" s="225" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="92">
-        <v>0.7</v>
-      </c>
-      <c r="E70" s="92">
-        <v>0.5</v>
-      </c>
-      <c r="F70" s="92">
-        <v>0</v>
-      </c>
-      <c r="G70" s="92"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="13"/>
-      <c r="B71" s="239"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="98">
-        <v>15</v>
-      </c>
-      <c r="E71" s="98">
-        <v>18</v>
-      </c>
-      <c r="F71" s="98">
-        <v>20</v>
-      </c>
-      <c r="G71" s="93"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="226"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="G72" s="94"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K71" s="13"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -35023,7 +38614,19 @@
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -35035,7 +38638,7 @@
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -35047,7 +38650,7 @@
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -35073,7 +38676,9 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
@@ -35085,70 +38690,84 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
+      <c r="B83" s="257" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="257"/>
+      <c r="D83" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E83" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="69" t="s">
+        <v>59</v>
+      </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
-      <c r="B84" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G84" s="256" t="s">
-        <v>59</v>
-      </c>
+      <c r="B84" s="237" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="92">
+        <v>0.7</v>
+      </c>
+      <c r="E84" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="F84" s="92">
+        <v>0</v>
+      </c>
+      <c r="G84" s="92"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="190" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="E85" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="F85" s="68">
-        <v>0</v>
-      </c>
-      <c r="G85" s="257">
-        <v>0.1</v>
-      </c>
+      <c r="B85" s="258"/>
+      <c r="C85" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" s="98">
+        <v>15</v>
+      </c>
+      <c r="E85" s="98">
+        <v>18</v>
+      </c>
+      <c r="F85" s="98">
+        <v>20</v>
+      </c>
+      <c r="G85" s="93"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
+      <c r="B86" s="238"/>
+      <c r="C86" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F86" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="94"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -35167,94 +38786,104 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="13"/>
-      <c r="B88" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="E88" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="G88" s="254" t="s">
-        <v>59</v>
-      </c>
-      <c r="H88" s="254"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="190" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="E89" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="F89" s="68">
-        <v>0</v>
-      </c>
-      <c r="G89" s="255">
-        <v>0.1</v>
-      </c>
-      <c r="H89" s="255"/>
+      <c r="B89" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
+      <c r="B90" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="99"/>
+      <c r="D90" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="69" t="s">
+        <v>59</v>
+      </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
+      <c r="B91" s="237" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="99"/>
+      <c r="D91" s="92">
+        <v>0.7</v>
+      </c>
+      <c r="E91" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="F91" s="92">
+        <v>0</v>
+      </c>
+      <c r="G91" s="92"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
+      <c r="B92" s="258"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="98">
+        <v>15</v>
+      </c>
+      <c r="E92" s="98">
+        <v>18</v>
+      </c>
+      <c r="F92" s="98">
+        <v>20</v>
+      </c>
+      <c r="G92" s="93"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
+      <c r="B93" s="238"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="94"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -35295,11 +38924,751 @@
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
     </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="D105" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="190" t="s">
+        <v>55</v>
+      </c>
+      <c r="D106" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="E106" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="F106" s="68">
+        <v>0</v>
+      </c>
+      <c r="G106" s="200">
+        <v>0.1</v>
+      </c>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="190" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="G109" s="197" t="s">
+        <v>59</v>
+      </c>
+      <c r="H109" s="197"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="190" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="E110" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="F110" s="68">
+        <v>0</v>
+      </c>
+      <c r="G110" s="198">
+        <v>0.1</v>
+      </c>
+      <c r="H110" s="198"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="L119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="13"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A121" s="162"/>
+      <c r="B121" s="162"/>
+      <c r="C121" s="162"/>
+      <c r="D121" s="162"/>
+      <c r="E121" s="162"/>
+      <c r="F121" s="162"/>
+      <c r="G121" s="162"/>
+      <c r="H121" s="162"/>
+      <c r="I121" s="162"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="13"/>
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13"/>
+      <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
+      <c r="X121" s="13"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A122" s="162"/>
+      <c r="B122" s="162"/>
+      <c r="C122" s="162"/>
+      <c r="D122" s="162"/>
+      <c r="E122" s="162"/>
+      <c r="F122" s="162"/>
+      <c r="G122" s="162"/>
+      <c r="H122" s="162"/>
+      <c r="I122" s="162"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
+      <c r="O122" s="13"/>
+      <c r="P122" s="13"/>
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13"/>
+      <c r="U122" s="13"/>
+      <c r="V122" s="13"/>
+      <c r="W122" s="13"/>
+      <c r="X122" s="13"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A123" s="162"/>
+      <c r="B123" s="162"/>
+      <c r="C123" s="162"/>
+      <c r="D123" s="162"/>
+      <c r="E123" s="162"/>
+      <c r="F123" s="162"/>
+      <c r="G123" s="162"/>
+      <c r="H123" s="162"/>
+      <c r="I123" s="162"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+      <c r="O123" s="13"/>
+      <c r="P123" s="13"/>
+      <c r="Q123" s="13"/>
+      <c r="R123" s="13"/>
+      <c r="S123" s="13"/>
+      <c r="T123" s="13"/>
+      <c r="U123" s="13"/>
+      <c r="V123" s="13"/>
+      <c r="W123" s="13"/>
+      <c r="X123" s="13"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A124" s="162"/>
+      <c r="B124" s="162"/>
+      <c r="C124" s="162"/>
+      <c r="D124" s="162"/>
+      <c r="E124" s="162"/>
+      <c r="F124" s="162"/>
+      <c r="G124" s="162"/>
+      <c r="H124" s="162"/>
+      <c r="I124" s="162"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="13"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13"/>
+      <c r="U124" s="13"/>
+      <c r="V124" s="13"/>
+      <c r="W124" s="13"/>
+      <c r="X124" s="13"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A125" s="162"/>
+      <c r="B125" s="162"/>
+      <c r="C125" s="162"/>
+      <c r="D125" s="162"/>
+      <c r="E125" s="162"/>
+      <c r="F125" s="162"/>
+      <c r="G125" s="162"/>
+      <c r="H125" s="162"/>
+      <c r="I125" s="162"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="201" t="s">
+        <v>54</v>
+      </c>
+      <c r="M125" s="272" t="s">
+        <v>240</v>
+      </c>
+      <c r="N125" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="O125" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="P125" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q125" s="197" t="s">
+        <v>59</v>
+      </c>
+      <c r="R125" s="272" t="s">
+        <v>241</v>
+      </c>
+      <c r="S125" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="T125" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="U125" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="V125" s="197" t="s">
+        <v>59</v>
+      </c>
+      <c r="W125" s="13"/>
+      <c r="X125" s="13"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A126" s="162"/>
+      <c r="B126" s="162"/>
+      <c r="C126" s="162"/>
+      <c r="D126" s="162"/>
+      <c r="E126" s="162"/>
+      <c r="F126" s="162"/>
+      <c r="G126" s="162"/>
+      <c r="H126" s="162"/>
+      <c r="I126" s="162"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="201" t="s">
+        <v>55</v>
+      </c>
+      <c r="M126" s="273"/>
+      <c r="N126" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="O126" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="P126" s="68">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="198">
+        <v>0.1</v>
+      </c>
+      <c r="R126" s="273"/>
+      <c r="S126" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="T126" s="68">
+        <v>0</v>
+      </c>
+      <c r="U126" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="V126" s="198">
+        <v>0</v>
+      </c>
+      <c r="W126" s="13"/>
+      <c r="X126" s="13"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A127" s="162"/>
+      <c r="B127" s="162"/>
+      <c r="C127" s="162"/>
+      <c r="D127" s="162"/>
+      <c r="E127" s="162"/>
+      <c r="F127" s="162"/>
+      <c r="G127" s="162"/>
+      <c r="H127" s="162"/>
+      <c r="I127" s="162"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="O127" s="13"/>
+      <c r="P127" s="13"/>
+      <c r="Q127" s="13"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="13"/>
+      <c r="T127" s="13"/>
+      <c r="U127" s="13"/>
+      <c r="V127" s="13"/>
+      <c r="W127" s="13"/>
+      <c r="X127" s="13"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A128" s="162"/>
+      <c r="B128" s="162"/>
+      <c r="C128" s="162"/>
+      <c r="D128" s="162"/>
+      <c r="E128" s="162"/>
+      <c r="F128" s="162"/>
+      <c r="G128" s="162"/>
+      <c r="H128" s="162"/>
+      <c r="I128" s="162"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+      <c r="O128" s="13"/>
+      <c r="P128" s="13"/>
+      <c r="Q128" s="13"/>
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128" s="13"/>
+      <c r="U128" s="13"/>
+      <c r="V128" s="13"/>
+      <c r="W128" s="13"/>
+      <c r="X128" s="13"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A129" s="162"/>
+      <c r="B129" s="162"/>
+      <c r="C129" s="162"/>
+      <c r="D129" s="162"/>
+      <c r="E129" s="162"/>
+      <c r="F129" s="162"/>
+      <c r="G129" s="162"/>
+      <c r="H129" s="162"/>
+      <c r="I129" s="162"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="13"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="13"/>
+      <c r="S129" s="13"/>
+      <c r="T129" s="13"/>
+      <c r="U129" s="13"/>
+      <c r="V129" s="13"/>
+      <c r="W129" s="13"/>
+      <c r="X129" s="13"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A130" s="162"/>
+      <c r="B130" s="162"/>
+      <c r="C130" s="162"/>
+      <c r="D130" s="162"/>
+      <c r="E130" s="162"/>
+      <c r="F130" s="162"/>
+      <c r="G130" s="162"/>
+      <c r="H130" s="162"/>
+      <c r="I130" s="162"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+      <c r="O130" s="13"/>
+      <c r="P130" s="13"/>
+      <c r="Q130" s="13"/>
+      <c r="R130" s="13"/>
+      <c r="S130" s="13"/>
+      <c r="T130" s="13"/>
+      <c r="U130" s="13"/>
+      <c r="V130" s="13"/>
+      <c r="W130" s="13"/>
+      <c r="X130" s="13"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A131" s="162"/>
+      <c r="B131" s="162"/>
+      <c r="C131" s="162"/>
+      <c r="D131" s="162"/>
+      <c r="E131" s="162"/>
+      <c r="F131" s="162"/>
+      <c r="G131" s="162"/>
+      <c r="H131" s="162"/>
+      <c r="I131" s="162"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+      <c r="M131" s="13"/>
+      <c r="N131" s="13"/>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="13"/>
+      <c r="S131" s="13"/>
+      <c r="T131" s="13"/>
+      <c r="U131" s="13"/>
+      <c r="V131" s="13"/>
+      <c r="W131" s="13"/>
+      <c r="X131" s="13"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A132" s="162"/>
+      <c r="B132" s="162"/>
+      <c r="C132" s="162"/>
+      <c r="D132" s="162"/>
+      <c r="E132" s="162"/>
+      <c r="F132" s="162"/>
+      <c r="G132" s="162"/>
+      <c r="H132" s="162"/>
+      <c r="I132" s="162"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
+      <c r="M132" s="13"/>
+      <c r="N132" s="13"/>
+      <c r="O132" s="13"/>
+      <c r="P132" s="13"/>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="13"/>
+      <c r="S132" s="13"/>
+      <c r="T132" s="13"/>
+      <c r="U132" s="13"/>
+      <c r="V132" s="13"/>
+      <c r="W132" s="13"/>
+      <c r="X132" s="13"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A133" s="162"/>
+      <c r="B133" s="162"/>
+      <c r="C133" s="162"/>
+      <c r="D133" s="162"/>
+      <c r="E133" s="162"/>
+      <c r="F133" s="162"/>
+      <c r="G133" s="162"/>
+      <c r="H133" s="162"/>
+      <c r="I133" s="162"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
+      <c r="M133" s="13"/>
+      <c r="N133" s="13"/>
+      <c r="O133" s="13"/>
+      <c r="P133" s="13"/>
+      <c r="Q133" s="13"/>
+      <c r="R133" s="13"/>
+      <c r="S133" s="13"/>
+      <c r="T133" s="13"/>
+      <c r="U133" s="13"/>
+      <c r="V133" s="13"/>
+      <c r="W133" s="13"/>
+      <c r="X133" s="13"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A134" s="162"/>
+      <c r="B134" s="162"/>
+      <c r="C134" s="162"/>
+      <c r="D134" s="162"/>
+      <c r="E134" s="162"/>
+      <c r="F134" s="162"/>
+      <c r="G134" s="162"/>
+      <c r="H134" s="162"/>
+      <c r="I134" s="162"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="13"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+      <c r="R134" s="13"/>
+      <c r="S134" s="13"/>
+      <c r="T134" s="13"/>
+      <c r="U134" s="13"/>
+      <c r="V134" s="13"/>
+      <c r="W134" s="13"/>
+      <c r="X134" s="13"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A135" s="13"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
+      <c r="P135" s="13"/>
+      <c r="Q135" s="13"/>
+      <c r="R135" s="13"/>
+      <c r="S135" s="13"/>
+      <c r="T135" s="13"/>
+      <c r="U135" s="13"/>
+      <c r="V135" s="13"/>
+      <c r="W135" s="13"/>
+      <c r="X135" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="B70:B72"/>
+  <mergeCells count="5">
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="R125:R126"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -35313,7 +39682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49:N51"/>
     </sheetView>
   </sheetViews>
@@ -35374,10 +39743,10 @@
       <c r="B6" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="203"/>
+      <c r="D6" s="221"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -35392,8 +39761,8 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="188"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="227"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -35408,8 +39777,8 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="188"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -35476,10 +39845,10 @@
       <c r="B12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="202" t="s">
+      <c r="C12" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="203"/>
+      <c r="D12" s="221"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -35496,10 +39865,10 @@
       <c r="B13" s="188">
         <v>1</v>
       </c>
-      <c r="C13" s="208" t="s">
+      <c r="C13" s="226" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="209"/>
+      <c r="D13" s="227"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -35516,10 +39885,10 @@
       <c r="B14" s="188">
         <v>2</v>
       </c>
-      <c r="C14" s="208" t="s">
+      <c r="C14" s="226" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="209"/>
+      <c r="D14" s="227"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -35533,13 +39902,13 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
-      <c r="B15" s="252">
+      <c r="B15" s="195">
         <v>3</v>
       </c>
-      <c r="C15" s="253" t="s">
+      <c r="C15" s="196" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="253"/>
+      <c r="D15" s="196"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -35787,10 +40156,10 @@
       <c r="B33" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="202" t="s">
+      <c r="C33" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="203"/>
+      <c r="D33" s="221"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -35805,8 +40174,8 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="188"/>
-      <c r="C34" s="208"/>
-      <c r="D34" s="209"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="227"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -35821,8 +40190,8 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="188"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="209"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="227"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -35837,8 +40206,8 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="B36" s="188"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
+      <c r="C36" s="213"/>
+      <c r="D36" s="213"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -35853,8 +40222,8 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="258"/>
-      <c r="D37" s="258"/>
+      <c r="C37" s="259"/>
+      <c r="D37" s="259"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -35903,10 +40272,10 @@
       <c r="B40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="202" t="s">
+      <c r="C40" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="203"/>
+      <c r="D40" s="221"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -35923,10 +40292,10 @@
       <c r="B41" s="188">
         <v>1</v>
       </c>
-      <c r="C41" s="208" t="s">
+      <c r="C41" s="226" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="209"/>
+      <c r="D41" s="227"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -35943,10 +40312,10 @@
       <c r="B42" s="188">
         <v>2</v>
       </c>
-      <c r="C42" s="208" t="s">
+      <c r="C42" s="226" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="209"/>
+      <c r="D42" s="227"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -35961,8 +40330,8 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="188"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="213"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="246">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -1509,6 +1509,33 @@
     <t>RecordFinder</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>観測情報(1)</t>
+    <rPh sb="0" eb="2">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観測情報(2)</t>
+    <rPh sb="0" eb="2">
+      <t>カンソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1663,7 +1690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2517,6 +2544,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2530,7 +2598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3129,16 +3197,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3146,6 +3208,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3171,41 +3239,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3240,10 +3278,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -3285,11 +3359,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8085,6 +8177,562 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>と指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1D0895-23EF-4FDA-B644-701CBB090D83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="12125325" y="752475"/>
+          <a:ext cx="438152" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>428628</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1900457" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B4BDD7-8766-4CEE-B9CE-286C201DF27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12515853" y="609600"/>
+          <a:ext cx="1900457" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>@XlsLabelledCell</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>でマッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16412E3-3FCC-417D-B9E3-6CDA0B6842B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14154150" y="895350"/>
+          <a:ext cx="257175" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11111"/>
+            <a:gd name="adj2" fmla="val 47959"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1526315" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE8BA484-CDD7-4682-8B7C-4F125DF3DE47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14382750" y="914401"/>
+          <a:ext cx="1526315" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>@XlsVerticalRecords</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マッピング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F152B814-34D1-40FE-A6ED-20A3D297004B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10582275" y="400050"/>
+          <a:ext cx="3762375" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2286000" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5419C591-0B68-487C-94A3-C8DD878CC618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="133350"/>
+          <a:ext cx="2286000" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このテーブルが繰り返されている</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66678</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BAF498-B8C3-4D55-A9C2-EF4876F9E1DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10358436" y="1747839"/>
+          <a:ext cx="342903" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 66667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342902</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5391148" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E09C589-6D1F-429C-B481-53BDC9DE2139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334627" y="2457450"/>
+          <a:ext cx="5391148" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表の名称から、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つ下か表が開始するので、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>bottom=2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と指定します。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>このとき、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@XlsVerticalRecords</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>属性 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>tableLabelAbove=true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は自動的に有効になります。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -27380,17 +28028,17 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="237" t="s">
+      <c r="E5" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="237" t="s">
+      <c r="F5" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="239" t="s">
+      <c r="G5" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="240"/>
-      <c r="I5" s="241"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="253"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -27405,8 +28053,8 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
       <c r="G6" s="54" t="s">
         <v>39</v>
       </c>
@@ -27430,13 +28078,13 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="236" t="s">
+      <c r="E7" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
-      <c r="I7" s="236"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -27511,13 +28159,13 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -27719,29 +28367,29 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="13"/>
-      <c r="C19" s="237" t="s">
+      <c r="C19" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="237" t="s">
+      <c r="D19" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="239" t="s">
+      <c r="E19" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="240"/>
-      <c r="G19" s="241"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="253"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="237" t="s">
+      <c r="I19" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="237" t="s">
+      <c r="J19" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="239" t="s">
+      <c r="K19" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="240"/>
-      <c r="M19" s="241"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="253"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -27750,8 +28398,8 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="13"/>
-      <c r="C20" s="238"/>
-      <c r="D20" s="238"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="255"/>
       <c r="E20" s="54" t="s">
         <v>39</v>
       </c>
@@ -27762,8 +28410,8 @@
         <v>41</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="I20" s="238"/>
-      <c r="J20" s="238"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="255"/>
       <c r="K20" s="54" t="s">
         <v>39</v>
       </c>
@@ -27781,13 +28429,13 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
-      <c r="C21" s="236" t="s">
+      <c r="C21" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="236"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
+      <c r="D21" s="256"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
       <c r="H21" s="13"/>
       <c r="I21" s="203"/>
       <c r="J21" s="204"/>
@@ -27862,21 +28510,21 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
-      <c r="C24" s="236" t="s">
+      <c r="C24" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="236"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="236"/>
+      <c r="D24" s="256"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="236" t="s">
+      <c r="I24" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="236"/>
-      <c r="K24" s="236"/>
-      <c r="L24" s="236"/>
-      <c r="M24" s="236"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="256"/>
+      <c r="M24" s="256"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -28156,11 +28804,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E10:I10"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
@@ -28170,6 +28813,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28313,7 +28961,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="260" t="s">
+      <c r="J8" s="262" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -28333,7 +28981,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="261"/>
+      <c r="J9" s="263"/>
       <c r="K9" s="2" t="s">
         <v>48</v>
       </c>
@@ -28694,7 +29342,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="242"/>
+      <c r="H8" s="247"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -28706,7 +29354,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="242"/>
+      <c r="H9" s="247"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -28818,7 +29466,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="242"/>
+      <c r="H20" s="247"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -28830,7 +29478,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="242"/>
+      <c r="H21" s="247"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -28956,7 +29604,7 @@
       <c r="G32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="242"/>
+      <c r="H32" s="247"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -28968,7 +29616,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="242"/>
+      <c r="H33" s="247"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
@@ -29542,14 +30190,14 @@
       <c r="Q16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="223" t="s">
+      <c r="R16" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="S16" s="223"/>
-      <c r="T16" s="223"/>
-      <c r="U16" s="223"/>
-      <c r="V16" s="223"/>
-      <c r="W16" s="223"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="224"/>
+      <c r="U16" s="224"/>
+      <c r="V16" s="224"/>
+      <c r="W16" s="224"/>
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
@@ -29563,15 +30211,15 @@
       <c r="R17" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="S17" s="262" t="s">
+      <c r="S17" s="264" t="s">
         <v>213</v>
       </c>
-      <c r="T17" s="263"/>
-      <c r="U17" s="264"/>
-      <c r="V17" s="265" t="s">
+      <c r="T17" s="265"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="267" t="s">
         <v>214</v>
       </c>
-      <c r="W17" s="266"/>
+      <c r="W17" s="268"/>
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
@@ -29585,15 +30233,15 @@
       <c r="R18" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="S18" s="262" t="s">
+      <c r="S18" s="264" t="s">
         <v>216</v>
       </c>
-      <c r="T18" s="263"/>
-      <c r="U18" s="264"/>
-      <c r="V18" s="265" t="s">
+      <c r="T18" s="265"/>
+      <c r="U18" s="266"/>
+      <c r="V18" s="267" t="s">
         <v>217</v>
       </c>
-      <c r="W18" s="266"/>
+      <c r="W18" s="268"/>
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
@@ -29996,12 +30644,12 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="267"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="267"/>
-      <c r="K8" s="267"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="269"/>
+      <c r="H8" s="269"/>
+      <c r="I8" s="269"/>
+      <c r="J8" s="269"/>
+      <c r="K8" s="269"/>
       <c r="L8" s="182"/>
       <c r="M8" s="182"/>
       <c r="N8" s="182"/>
@@ -30016,10 +30664,10 @@
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="222" t="s">
+      <c r="D9" s="225" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="222"/>
+      <c r="E9" s="225"/>
       <c r="F9" s="184" t="s">
         <v>163</v>
       </c>
@@ -30220,12 +30868,12 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="267"/>
-      <c r="G21" s="267"/>
-      <c r="H21" s="267"/>
-      <c r="I21" s="267"/>
-      <c r="J21" s="267"/>
-      <c r="K21" s="267"/>
+      <c r="F21" s="269"/>
+      <c r="G21" s="269"/>
+      <c r="H21" s="269"/>
+      <c r="I21" s="269"/>
+      <c r="J21" s="269"/>
+      <c r="K21" s="269"/>
       <c r="L21" s="182"/>
       <c r="M21" s="182"/>
       <c r="N21" s="182"/>
@@ -30237,10 +30885,10 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C22" s="13"/>
-      <c r="D22" s="222" t="s">
+      <c r="D22" s="225" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="222"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="184" t="s">
         <v>187</v>
       </c>
@@ -30374,10 +31022,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30386,9 +31034,11 @@
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="1.25" customWidth="1"/>
     <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="14" max="14" width="9" style="162"/>
+    <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -30401,8 +31051,19 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M1" s="1"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -30417,8 +31078,20 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -30435,8 +31108,20 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="1"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -30453,8 +31138,22 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M4" s="1"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -30471,8 +31170,24 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M5" s="1"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="274" t="s">
+        <v>244</v>
+      </c>
+      <c r="R5" s="275">
+        <v>43101</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -30487,8 +31202,30 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" s="1"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="276" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="277" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="277" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="277" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="278" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -30501,8 +31238,30 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M7" s="1"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="279" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="280">
+        <v>0.7</v>
+      </c>
+      <c r="S7" s="280">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="280">
+        <v>0</v>
+      </c>
+      <c r="U7" s="281">
+        <v>0.3</v>
+      </c>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -30517,8 +31276,20 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M8" s="1"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -30535,8 +31306,20 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="1"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -30553,8 +31336,22 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" s="1"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -30571,8 +31368,24 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" s="1"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="274" t="s">
+        <v>244</v>
+      </c>
+      <c r="R11" s="275">
+        <v>43102</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -30589,8 +31402,30 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="1"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="276" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="277" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="277" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="277" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="278" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -30605,8 +31440,30 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" s="1"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="279" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="280">
+        <v>0.1</v>
+      </c>
+      <c r="S13" s="280">
+        <v>0</v>
+      </c>
+      <c r="T13" s="280">
+        <v>0</v>
+      </c>
+      <c r="U13" s="281">
+        <v>0.2</v>
+      </c>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -30619,8 +31476,20 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" s="1"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -30633,8 +31502,20 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" s="1"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -30647,8 +31528,20 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" s="1"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -30661,9 +31554,111 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" s="1"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -30737,7 +31732,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="242"/>
+      <c r="E5" s="247"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -30751,7 +31746,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="242"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -30920,7 +31915,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="242"/>
+      <c r="E5" s="247"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -30934,7 +31929,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="242"/>
+      <c r="E6" s="247"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -30993,21 +31988,21 @@
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="268" t="s">
+      <c r="A4" s="270" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="271" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="270" t="s">
+      <c r="C4" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="268"/>
-      <c r="B5" s="269"/>
+      <c r="A5" s="270"/>
+      <c r="B5" s="271"/>
       <c r="C5" s="155" t="s">
         <v>158</v>
       </c>
@@ -33095,10 +34090,10 @@
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.15">
       <c r="C9" s="13"/>
-      <c r="D9" s="223" t="s">
+      <c r="D9" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="223"/>
+      <c r="E9" s="224"/>
       <c r="F9" s="59" t="s">
         <v>163</v>
       </c>
@@ -33119,10 +34114,10 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="223" t="s">
+      <c r="N9" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="223"/>
+      <c r="O9" s="224"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -33326,14 +34321,14 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
-      <c r="C24" s="234" t="s">
+      <c r="C24" s="220" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="235"/>
-      <c r="E24" s="224" t="s">
+      <c r="D24" s="221"/>
+      <c r="E24" s="222" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="225"/>
+      <c r="F24" s="223"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -33346,10 +34341,10 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="224" t="s">
+      <c r="E25" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="225"/>
+      <c r="F25" s="223"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -33362,10 +34357,10 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="224" t="s">
+      <c r="E26" s="222" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="225"/>
+      <c r="F26" s="223"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -33378,10 +34373,10 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="224" t="s">
+      <c r="E27" s="222" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="225"/>
+      <c r="F27" s="223"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -33450,10 +34445,10 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="234" t="s">
+      <c r="E32" s="220" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="235"/>
+      <c r="F32" s="221"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -33466,10 +34461,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="224" t="s">
+      <c r="E33" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="225"/>
+      <c r="F33" s="223"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -33482,10 +34477,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="224" t="s">
+      <c r="E34" s="222" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="225"/>
+      <c r="F34" s="223"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -33498,10 +34493,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="224" t="s">
+      <c r="E35" s="222" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="225"/>
+      <c r="F35" s="223"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -33514,10 +34509,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="224" t="s">
+      <c r="E36" s="222" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="225"/>
+      <c r="F36" s="223"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -33644,10 +34639,10 @@
     </row>
     <row r="45" spans="2:43" x14ac:dyDescent="0.15">
       <c r="B45" s="13"/>
-      <c r="C45" s="223" t="s">
+      <c r="C45" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="223"/>
+      <c r="D45" s="224"/>
       <c r="E45" s="160"/>
       <c r="F45" s="160"/>
       <c r="G45" s="160" t="s">
@@ -33763,10 +34758,10 @@
       <c r="M48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="223" t="s">
+      <c r="AB48" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="AC48" s="223"/>
+      <c r="AC48" s="224"/>
       <c r="AD48" s="217" t="s">
         <v>177</v>
       </c>
@@ -33888,10 +34883,10 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="234" t="s">
+      <c r="E52" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="235"/>
+      <c r="F52" s="221"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -33986,18 +34981,18 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="224" t="s">
+      <c r="E55" s="222" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="225"/>
-      <c r="G55" s="224" t="s">
+      <c r="F55" s="223"/>
+      <c r="G55" s="222" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="225"/>
-      <c r="I55" s="224" t="s">
+      <c r="H55" s="223"/>
+      <c r="I55" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="J55" s="225"/>
+      <c r="J55" s="223"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -34024,10 +35019,10 @@
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="224" t="s">
+      <c r="E56" s="222" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="225"/>
+      <c r="F56" s="223"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -34040,10 +35035,10 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="224" t="s">
+      <c r="E57" s="222" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="225"/>
+      <c r="F57" s="223"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -34172,11 +35167,11 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="Z61" s="29"/>
-      <c r="AA61" s="223" t="s">
+      <c r="AA61" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="AB61" s="223"/>
-      <c r="AC61" s="223"/>
+      <c r="AB61" s="224"/>
+      <c r="AC61" s="224"/>
       <c r="AD61" s="160" t="s">
         <v>163</v>
       </c>
@@ -34336,11 +35331,11 @@
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.15">
       <c r="Z68" s="29"/>
-      <c r="AA68" s="223" t="s">
+      <c r="AA68" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="AB68" s="223"/>
-      <c r="AC68" s="223"/>
+      <c r="AB68" s="224"/>
+      <c r="AC68" s="224"/>
       <c r="AD68" s="160" t="s">
         <v>163</v>
       </c>
@@ -34494,10 +35489,10 @@
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B74" s="13"/>
-      <c r="C74" s="223" t="s">
+      <c r="C74" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="223"/>
+      <c r="D74" s="224"/>
       <c r="E74" s="169"/>
       <c r="F74" s="170"/>
       <c r="G74" s="160" t="s">
@@ -34671,11 +35666,11 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="Z79" s="29"/>
-      <c r="AA79" s="223" t="s">
+      <c r="AA79" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="AB79" s="223"/>
-      <c r="AC79" s="223"/>
+      <c r="AB79" s="224"/>
+      <c r="AC79" s="224"/>
       <c r="AD79" s="180" t="s">
         <v>163</v>
       </c>
@@ -34703,10 +35698,10 @@
     </row>
     <row r="80" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B80" s="13"/>
-      <c r="C80" s="234" t="s">
+      <c r="C80" s="220" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="235"/>
+      <c r="D80" s="221"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -34747,11 +35742,11 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="Z81" s="29"/>
-      <c r="AA81" s="223" t="s">
+      <c r="AA81" s="224" t="s">
         <v>199</v>
       </c>
-      <c r="AB81" s="223"/>
-      <c r="AC81" s="223"/>
+      <c r="AB81" s="224"/>
+      <c r="AC81" s="224"/>
       <c r="AD81" s="180" t="s">
         <v>226</v>
       </c>
@@ -34834,18 +35829,18 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B84" s="13"/>
-      <c r="C84" s="224" t="s">
+      <c r="C84" s="222" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="225"/>
-      <c r="E84" s="224" t="s">
+      <c r="D84" s="223"/>
+      <c r="E84" s="222" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="225"/>
-      <c r="G84" s="224" t="s">
+      <c r="F84" s="223"/>
+      <c r="G84" s="222" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="225"/>
+      <c r="H84" s="223"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -34991,10 +35986,10 @@
     <row r="93" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A93" s="172"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="222" t="s">
+      <c r="C93" s="225" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="222"/>
+      <c r="D93" s="225"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -35008,10 +36003,10 @@
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="172"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="222" t="s">
+      <c r="C94" s="225" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="222"/>
+      <c r="D94" s="225"/>
       <c r="E94" s="167" t="s">
         <v>200</v>
       </c>
@@ -35052,10 +36047,10 @@
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A96" s="172"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="220" t="s">
+      <c r="C96" s="234" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="221"/>
+      <c r="D96" s="235"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -35069,10 +36064,10 @@
     <row r="97" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A97" s="172"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="222" t="s">
+      <c r="C97" s="225" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="222"/>
+      <c r="D97" s="225"/>
       <c r="E97" s="167" t="s">
         <v>206</v>
       </c>
@@ -35148,24 +36143,13 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA81:AC81"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="C93:D93"/>
@@ -35182,13 +36166,24 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35315,7 +36310,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="242"/>
+      <c r="E4" s="247"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -35350,7 +36345,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="242"/>
+      <c r="E5" s="247"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -35395,11 +36390,11 @@
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="243" t="s">
+      <c r="N6" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="243"/>
-      <c r="P6" s="243"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="248"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -35417,11 +36412,11 @@
       </c>
       <c r="AD6" s="215"/>
       <c r="AE6" s="216"/>
-      <c r="AF6" s="246" t="s">
+      <c r="AF6" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="247"/>
-      <c r="AH6" s="248"/>
+      <c r="AG6" s="237"/>
+      <c r="AH6" s="238"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
@@ -35514,16 +36509,16 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="251" t="s">
+      <c r="V8" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="254" t="s">
+      <c r="W8" s="244" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="254" t="s">
+      <c r="X8" s="244" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" s="254" t="s">
+      <c r="Y8" s="244" t="s">
         <v>105</v>
       </c>
       <c r="Z8" s="136" t="s">
@@ -35536,7 +36531,7 @@
       <c r="AC8" s="153">
         <v>1</v>
       </c>
-      <c r="AD8" s="249" t="s">
+      <c r="AD8" s="239" t="s">
         <v>150</v>
       </c>
       <c r="AE8" s="128" t="s">
@@ -35584,10 +36579,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="252"/>
-      <c r="W9" s="255"/>
-      <c r="X9" s="250"/>
-      <c r="Y9" s="250"/>
+      <c r="V9" s="242"/>
+      <c r="W9" s="245"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="240"/>
       <c r="Z9" s="138" t="s">
         <v>108</v>
       </c>
@@ -35598,7 +36593,7 @@
       <c r="AC9" s="153">
         <v>2</v>
       </c>
-      <c r="AD9" s="250"/>
+      <c r="AD9" s="240"/>
       <c r="AE9" s="128" t="s">
         <v>153</v>
       </c>
@@ -35626,10 +36621,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="244" t="s">
+      <c r="L10" s="249" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="245"/>
+      <c r="M10" s="250"/>
       <c r="N10" s="47">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -35645,8 +36640,8 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="252"/>
-      <c r="W10" s="255"/>
+      <c r="V10" s="242"/>
+      <c r="W10" s="245"/>
       <c r="X10" s="128" t="s">
         <v>110</v>
       </c>
@@ -35699,12 +36694,12 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="252"/>
-      <c r="W11" s="255"/>
-      <c r="X11" s="249" t="s">
+      <c r="V11" s="242"/>
+      <c r="W11" s="245"/>
+      <c r="X11" s="239" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="249" t="s">
+      <c r="Y11" s="239" t="s">
         <v>115</v>
       </c>
       <c r="Z11" s="140" t="s">
@@ -35744,10 +36739,10 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="255"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="255"/>
+      <c r="V12" s="242"/>
+      <c r="W12" s="245"/>
+      <c r="X12" s="245"/>
+      <c r="Y12" s="245"/>
       <c r="Z12" s="142" t="s">
         <v>118</v>
       </c>
@@ -35781,10 +36776,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="255"/>
-      <c r="X13" s="255"/>
-      <c r="Y13" s="255"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="245"/>
+      <c r="X13" s="245"/>
+      <c r="Y13" s="245"/>
       <c r="Z13" s="144" t="s">
         <v>120</v>
       </c>
@@ -35822,10 +36817,10 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="251" t="s">
+      <c r="V14" s="241" t="s">
         <v>122</v>
       </c>
-      <c r="W14" s="254" t="s">
+      <c r="W14" s="244" t="s">
         <v>123</v>
       </c>
       <c r="X14" s="129" t="s">
@@ -35867,12 +36862,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="252"/>
-      <c r="W15" s="255"/>
-      <c r="X15" s="249" t="s">
+      <c r="V15" s="242"/>
+      <c r="W15" s="245"/>
+      <c r="X15" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="249" t="s">
+      <c r="Y15" s="239" t="s">
         <v>129</v>
       </c>
       <c r="Z15" s="140" t="s">
@@ -35908,10 +36903,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="253"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="256"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="246"/>
+      <c r="X16" s="246"/>
+      <c r="Y16" s="246"/>
       <c r="Z16" s="144" t="s">
         <v>132</v>
       </c>
@@ -36178,11 +37173,11 @@
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="239" t="s">
+      <c r="N25" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="240"/>
-      <c r="P25" s="241"/>
+      <c r="O25" s="252"/>
+      <c r="P25" s="253"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -36690,17 +37685,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="237" t="s">
+      <c r="K48" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="237" t="s">
+      <c r="L48" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="239" t="s">
+      <c r="M48" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="240"/>
-      <c r="O48" s="241"/>
+      <c r="N48" s="252"/>
+      <c r="O48" s="253"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="13"/>
     </row>
@@ -36718,8 +37713,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="238"/>
-      <c r="L49" s="238"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="255"/>
       <c r="M49" s="54" t="s">
         <v>39</v>
       </c>
@@ -36867,11 +37862,11 @@
       <c r="L55" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="239" t="s">
+      <c r="M55" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="240"/>
-      <c r="O55" s="241"/>
+      <c r="N55" s="252"/>
+      <c r="O55" s="253"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -37296,17 +38291,17 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="237" t="s">
+      <c r="K87" s="254" t="s">
         <v>36</v>
       </c>
-      <c r="L87" s="237" t="s">
+      <c r="L87" s="254" t="s">
         <v>37</v>
       </c>
-      <c r="M87" s="239" t="s">
+      <c r="M87" s="251" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="240"/>
-      <c r="O87" s="241"/>
+      <c r="N87" s="252"/>
+      <c r="O87" s="253"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
@@ -37318,8 +38313,8 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="238"/>
-      <c r="L88" s="238"/>
+      <c r="K88" s="255"/>
+      <c r="L88" s="255"/>
       <c r="M88" s="54" t="s">
         <v>39</v>
       </c>
@@ -37340,13 +38335,13 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="236" t="s">
+      <c r="K89" s="256" t="s">
         <v>235</v>
       </c>
-      <c r="L89" s="236"/>
-      <c r="M89" s="236"/>
-      <c r="N89" s="236"/>
-      <c r="O89" s="236"/>
+      <c r="L89" s="256"/>
+      <c r="M89" s="256"/>
+      <c r="N89" s="256"/>
+      <c r="O89" s="256"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
@@ -37412,13 +38407,13 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="236" t="s">
+      <c r="K92" s="256" t="s">
         <v>236</v>
       </c>
-      <c r="L92" s="236"/>
-      <c r="M92" s="236"/>
-      <c r="N92" s="236"/>
-      <c r="O92" s="236"/>
+      <c r="L92" s="256"/>
+      <c r="M92" s="256"/>
+      <c r="N92" s="256"/>
+      <c r="O92" s="256"/>
       <c r="P92" s="13"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
@@ -37659,6 +38654,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -37672,20 +38681,6 @@
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
     <mergeCell ref="V8:V13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K89:O89"/>
-    <mergeCell ref="K92:O92"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:O87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -37699,8 +38694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -38712,7 +39707,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
-      <c r="B84" s="237" t="s">
+      <c r="B84" s="254" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="95" t="s">
@@ -38754,7 +39749,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
-      <c r="B86" s="238"/>
+      <c r="B86" s="255"/>
       <c r="C86" s="97" t="s">
         <v>66</v>
       </c>
@@ -38834,7 +39829,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
-      <c r="B91" s="237" t="s">
+      <c r="B91" s="254" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="99"/>
@@ -38872,7 +39867,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
-      <c r="B93" s="238"/>
+      <c r="B93" s="255"/>
       <c r="C93" s="99"/>
       <c r="D93" s="94" t="s">
         <v>67</v>
@@ -39351,7 +40346,7 @@
       <c r="L125" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="M125" s="272" t="s">
+      <c r="M125" s="259" t="s">
         <v>240</v>
       </c>
       <c r="N125" s="69" t="s">
@@ -39366,7 +40361,7 @@
       <c r="Q125" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="R125" s="272" t="s">
+      <c r="R125" s="259" t="s">
         <v>241</v>
       </c>
       <c r="S125" s="69" t="s">
@@ -39399,7 +40394,7 @@
       <c r="L126" s="201" t="s">
         <v>55</v>
       </c>
-      <c r="M126" s="273"/>
+      <c r="M126" s="260"/>
       <c r="N126" s="68">
         <v>0.7</v>
       </c>
@@ -39412,7 +40407,7 @@
       <c r="Q126" s="198">
         <v>0.1</v>
       </c>
-      <c r="R126" s="273"/>
+      <c r="R126" s="260"/>
       <c r="S126" s="68">
         <v>0.1</v>
       </c>
@@ -39743,10 +40738,10 @@
       <c r="B6" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="221"/>
+      <c r="D6" s="235"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -39845,10 +40840,10 @@
       <c r="B12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="221"/>
+      <c r="D12" s="235"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -40156,10 +41151,10 @@
       <c r="B33" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="220" t="s">
+      <c r="C33" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="221"/>
+      <c r="D33" s="235"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -40222,8 +41217,8 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="259"/>
-      <c r="D37" s="259"/>
+      <c r="C37" s="261"/>
+      <c r="D37" s="261"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -40272,10 +41267,10 @@
       <c r="B40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="220" t="s">
+      <c r="C40" s="234" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="221"/>
+      <c r="D40" s="235"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -40473,6 +41468,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
@@ -40482,12 +41483,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\workspace4.7\git_xlsmapper\src\site\sphinx\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1CB6CFDC-FA57-413F-93C7-4DCA8685D15F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="246">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -1540,7 +1541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0000000"/>
@@ -2598,7 +2599,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="282">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3173,6 +3174,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3197,10 +3237,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3208,12 +3254,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3239,11 +3279,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3277,36 +3347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3359,35 +3399,20 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5799,13 +5824,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85728</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5858,7 +5883,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="822020" cy="275717"/>
@@ -5920,7 +5945,7 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1705660" cy="275717"/>
@@ -5982,13 +6007,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>133352</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6041,7 +6066,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="822020" cy="275717"/>
@@ -6103,7 +6128,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2657475" cy="495299"/>
@@ -6180,7 +6205,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2847976" cy="631327"/>
@@ -6257,13 +6282,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>42497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6323,13 +6348,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>42497</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6389,13 +6414,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>133904</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6443,13 +6468,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6469,6 +6494,207 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="3867150" y="5506003"/>
           <a:ext cx="0" cy="237571"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円/楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FAAA5AF-1AE4-43D8-B725-6B185DD8A174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790826" y="2895600"/>
+          <a:ext cx="323850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>146760</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3528787" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECBC16E-F1C8-40B2-9C33-85A31A265468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="3404310"/>
+          <a:ext cx="3528787" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位置情報、見出し情報のキーは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"nameRuby[2]" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>となる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インデックスは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から始まる。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122084</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122084</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293C85BF-F82A-4010-86BC-43DAAF7302B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2931959" y="3153329"/>
+          <a:ext cx="0" cy="247096"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -10676,6 +10902,208 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>167785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA62EF9-5680-4A23-8451-0373831F1D0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858001" y="10454785"/>
+          <a:ext cx="295274" cy="232997"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155975</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>43227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{752316D3-4305-41C8-900C-92E3C5BA8B80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="6907001" y="10780101"/>
+          <a:ext cx="213947" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60082</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>56968</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3397493" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D230C3E-08D9-46F6-A9E5-4793A5F8D402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032257" y="10858318"/>
+          <a:ext cx="3397493" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位置情報のキーは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"nameKana[2]"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>となる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インデックスは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から始まる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15432,6 +15860,208 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>292344</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>292343</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>52022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="楕円 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7FD252-9B3A-4661-90F4-75542A58AB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13074894" y="15935325"/>
+          <a:ext cx="295274" cy="232997"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>153043</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>37367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>153043</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>79864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A927382-DE7B-422F-8B43-86E8C1E64E08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="13123894" y="16260641"/>
+          <a:ext cx="213947" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>51108</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3397493" cy="459100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247B4BB7-7EC9-42C5-A7D5-5FCF568B7204}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12249150" y="16338858"/>
+          <a:ext cx="3397493" cy="459100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>位置情報のキーは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>"nameKana[2]"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>となる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インデックスは、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から始まる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27882,7 +28512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27937,7 +28567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:R37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28028,17 +28658,17 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="254" t="s">
+      <c r="E5" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="254" t="s">
+      <c r="F5" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="251" t="s">
+      <c r="G5" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="252"/>
-      <c r="I5" s="253"/>
+      <c r="H5" s="253"/>
+      <c r="I5" s="254"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -28053,8 +28683,8 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
       <c r="G6" s="54" t="s">
         <v>39</v>
       </c>
@@ -28078,13 +28708,13 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="256" t="s">
+      <c r="E7" s="249" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
+      <c r="H7" s="249"/>
+      <c r="I7" s="249"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -28159,13 +28789,13 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="256" t="s">
+      <c r="E10" s="249" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -28367,29 +28997,29 @@
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="13"/>
-      <c r="C19" s="254" t="s">
+      <c r="C19" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="254" t="s">
+      <c r="D19" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="251" t="s">
+      <c r="E19" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="252"/>
-      <c r="G19" s="253"/>
+      <c r="F19" s="253"/>
+      <c r="G19" s="254"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="254" t="s">
+      <c r="I19" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="254" t="s">
+      <c r="J19" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="251" t="s">
+      <c r="K19" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="252"/>
-      <c r="M19" s="253"/>
+      <c r="L19" s="253"/>
+      <c r="M19" s="254"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -28398,8 +29028,8 @@
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="13"/>
-      <c r="C20" s="255"/>
-      <c r="D20" s="255"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="251"/>
       <c r="E20" s="54" t="s">
         <v>39</v>
       </c>
@@ -28410,8 +29040,8 @@
         <v>41</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="255"/>
+      <c r="I20" s="251"/>
+      <c r="J20" s="251"/>
       <c r="K20" s="54" t="s">
         <v>39</v>
       </c>
@@ -28429,13 +29059,13 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="13"/>
-      <c r="C21" s="256" t="s">
+      <c r="C21" s="249" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="249"/>
       <c r="H21" s="13"/>
       <c r="I21" s="203"/>
       <c r="J21" s="204"/>
@@ -28510,21 +29140,21 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
-      <c r="C24" s="256" t="s">
+      <c r="C24" s="249" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="249"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="256" t="s">
+      <c r="I24" s="249" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="256"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
+      <c r="J24" s="249"/>
+      <c r="K24" s="249"/>
+      <c r="L24" s="249"/>
+      <c r="M24" s="249"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -28804,6 +29434,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
@@ -28813,11 +29448,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28826,7 +29456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28891,10 +29521,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="257" t="s">
+      <c r="D5" s="270" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="257"/>
+      <c r="E5" s="270"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -28961,7 +29591,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="262" t="s">
+      <c r="J8" s="275" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -28981,7 +29611,7 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="263"/>
+      <c r="J9" s="276"/>
       <c r="K9" s="2" t="s">
         <v>48</v>
       </c>
@@ -29215,7 +29845,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -29225,10 +29855,10 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:C20"/>
     </sheetView>
   </sheetViews>
@@ -29342,7 +29972,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="247"/>
+      <c r="H8" s="255"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -29354,7 +29984,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="247"/>
+      <c r="H9" s="255"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
@@ -29466,7 +30096,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="247"/>
+      <c r="H20" s="255"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
@@ -29478,7 +30108,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="247"/>
+      <c r="H21" s="255"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
@@ -29604,7 +30234,7 @@
       <c r="G32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="247"/>
+      <c r="H32" s="255"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
@@ -29616,7 +30246,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="247"/>
+      <c r="H33" s="255"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
@@ -29832,11 +30462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A2:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29847,7 +30477,7 @@
     <col min="16" max="23" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -29863,7 +30493,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -29879,7 +30509,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -29904,7 +30534,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -29931,7 +30561,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="168" t="s">
         <v>1</v>
@@ -29939,18 +30569,18 @@
       <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="257" t="s">
+      <c r="D6" s="270" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="257"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="270"/>
+      <c r="L6" s="270"/>
+      <c r="M6" s="270"/>
       <c r="N6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -29962,7 +30592,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="17">
         <v>1</v>
@@ -30003,7 +30633,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="17">
         <v>2</v>
@@ -30044,7 +30674,7 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -30069,7 +30699,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -30094,7 +30724,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -30119,7 +30749,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -30143,8 +30773,20 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="O13" s="13"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
@@ -30154,10 +30796,22 @@
       <c r="V13" s="13"/>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="O14" s="13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
@@ -30167,97 +30821,173 @@
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="O15" s="13"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
       <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="O16" s="13"/>
-      <c r="P16" s="168" t="s">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="224" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="224"/>
-      <c r="T16" s="224"/>
-      <c r="U16" s="224"/>
-      <c r="V16" s="224"/>
-      <c r="W16" s="224"/>
-      <c r="X16" s="13"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="O17" s="13"/>
-      <c r="P17" s="17">
+      <c r="D17" s="227" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="228"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="228"/>
+      <c r="H17" s="228"/>
+      <c r="I17" s="228"/>
+      <c r="J17" s="228"/>
+      <c r="K17" s="287"/>
+      <c r="L17" s="213"/>
+      <c r="M17" s="213"/>
+      <c r="N17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="R17" s="187" t="s">
-        <v>212</v>
-      </c>
-      <c r="S17" s="264" t="s">
-        <v>213</v>
-      </c>
-      <c r="T17" s="265"/>
-      <c r="U17" s="266"/>
-      <c r="V17" s="267" t="s">
-        <v>214</v>
-      </c>
-      <c r="W17" s="268"/>
-      <c r="X17" s="13"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="O18" s="13"/>
-      <c r="P18" s="17">
+      <c r="D18" s="184" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="185" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="185" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="185"/>
+      <c r="H18" s="185" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="185" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" s="288"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="17">
         <v>2</v>
       </c>
-      <c r="Q18" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="R18" s="187" t="s">
-        <v>215</v>
-      </c>
-      <c r="S18" s="264" t="s">
-        <v>216</v>
-      </c>
-      <c r="T18" s="265"/>
-      <c r="U18" s="266"/>
-      <c r="V18" s="267" t="s">
-        <v>217</v>
-      </c>
-      <c r="W18" s="268"/>
-      <c r="X18" s="13"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="O19" s="13"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="191"/>
+      <c r="K19" s="288"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
-      <c r="R19" s="174"/>
-      <c r="S19" s="174"/>
-      <c r="T19" s="174"/>
-      <c r="U19" s="174"/>
-      <c r="V19" s="174"/>
-      <c r="W19" s="174"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
       <c r="X19" s="13"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="O20" s="13"/>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
@@ -30268,8 +30998,21 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="O21" s="13"/>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
@@ -30280,7 +31023,21 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -30291,8 +31048,36 @@
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="Y22" s="13"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -30307,168 +31092,127 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="173"/>
+      <c r="S24" s="173"/>
+      <c r="T24" s="173"/>
+      <c r="U24" s="173"/>
+      <c r="V24" s="173"/>
+      <c r="W24" s="173"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="O25" s="13"/>
+      <c r="P25" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R25" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
+      <c r="U25" s="236"/>
+      <c r="V25" s="236"/>
+      <c r="W25" s="236"/>
+      <c r="X25" s="13"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="P26" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R26" s="187" t="s">
+        <v>212</v>
+      </c>
+      <c r="S26" s="277" t="s">
+        <v>213</v>
+      </c>
+      <c r="T26" s="278"/>
+      <c r="U26" s="279"/>
+      <c r="V26" s="280" t="s">
+        <v>214</v>
+      </c>
+      <c r="W26" s="281"/>
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="P27" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="R27" s="187" t="s">
+        <v>215</v>
+      </c>
+      <c r="S27" s="277" t="s">
+        <v>216</v>
+      </c>
+      <c r="T27" s="278"/>
+      <c r="U27" s="279"/>
+      <c r="V27" s="280" t="s">
+        <v>217</v>
+      </c>
+      <c r="W27" s="281"/>
+      <c r="X27" s="13"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="13"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="214" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="184" t="s">
-        <v>163</v>
-      </c>
-      <c r="E31" s="185" t="s">
-        <v>164</v>
-      </c>
-      <c r="F31" s="185" t="s">
-        <v>165</v>
-      </c>
-      <c r="G31" s="191"/>
-      <c r="H31" s="191" t="s">
-        <v>229</v>
-      </c>
-      <c r="I31" s="186" t="s">
-        <v>230</v>
-      </c>
-      <c r="J31" s="192" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="17">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D32" s="184" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="185" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="185"/>
-      <c r="G32" s="191" t="s">
-        <v>219</v>
-      </c>
-      <c r="H32" s="191" t="s">
-        <v>220</v>
-      </c>
-      <c r="I32" s="186"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="13"/>
@@ -30485,26 +31229,6 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
@@ -30542,15 +31266,214 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="227" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="228"/>
+      <c r="F39" s="228"/>
+      <c r="G39" s="228"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="229"/>
+      <c r="J39" s="182"/>
+      <c r="K39" s="182"/>
+      <c r="L39" s="182"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="184" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="185" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="185" t="s">
+        <v>165</v>
+      </c>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="186" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="192" t="s">
+        <v>222</v>
+      </c>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="17">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="184" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="185" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="185"/>
+      <c r="G41" s="191" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="191" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" s="186"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D30:I30"/>
+  <mergeCells count="8">
+    <mergeCell ref="D39:I39"/>
     <mergeCell ref="D6:M6"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="R16:W16"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="D17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30560,7 +31483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B5:U27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -30644,12 +31567,12 @@
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="269"/>
-      <c r="G8" s="269"/>
-      <c r="H8" s="269"/>
-      <c r="I8" s="269"/>
-      <c r="J8" s="269"/>
-      <c r="K8" s="269"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="282"/>
+      <c r="I8" s="282"/>
+      <c r="J8" s="282"/>
+      <c r="K8" s="282"/>
       <c r="L8" s="182"/>
       <c r="M8" s="182"/>
       <c r="N8" s="182"/>
@@ -30664,10 +31587,10 @@
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="225" t="s">
+      <c r="D9" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="225"/>
+      <c r="E9" s="235"/>
       <c r="F9" s="184" t="s">
         <v>163</v>
       </c>
@@ -30868,12 +31791,12 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="269"/>
-      <c r="G21" s="269"/>
-      <c r="H21" s="269"/>
-      <c r="I21" s="269"/>
-      <c r="J21" s="269"/>
-      <c r="K21" s="269"/>
+      <c r="F21" s="282"/>
+      <c r="G21" s="282"/>
+      <c r="H21" s="282"/>
+      <c r="I21" s="282"/>
+      <c r="J21" s="282"/>
+      <c r="K21" s="282"/>
       <c r="L21" s="182"/>
       <c r="M21" s="182"/>
       <c r="N21" s="182"/>
@@ -30885,10 +31808,10 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.15">
       <c r="C22" s="13"/>
-      <c r="D22" s="225" t="s">
+      <c r="D22" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="225"/>
+      <c r="E22" s="235"/>
       <c r="F22" s="184" t="s">
         <v>187</v>
       </c>
@@ -31021,10 +31944,10 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
@@ -31173,10 +32096,10 @@
       <c r="M5" s="1"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="274" t="s">
+      <c r="Q5" s="217" t="s">
         <v>244</v>
       </c>
-      <c r="R5" s="275">
+      <c r="R5" s="218">
         <v>43101</v>
       </c>
       <c r="S5" s="13"/>
@@ -31205,19 +32128,19 @@
       <c r="M6" s="1"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="276" t="s">
+      <c r="Q6" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="277" t="s">
+      <c r="R6" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="277" t="s">
+      <c r="S6" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="T6" s="277" t="s">
+      <c r="T6" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="U6" s="278" t="s">
+      <c r="U6" s="221" t="s">
         <v>59</v>
       </c>
       <c r="V6" s="13"/>
@@ -31241,19 +32164,19 @@
       <c r="M7" s="1"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="279" t="s">
+      <c r="Q7" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="280">
+      <c r="R7" s="223">
         <v>0.7</v>
       </c>
-      <c r="S7" s="280">
+      <c r="S7" s="223">
         <v>0.5</v>
       </c>
-      <c r="T7" s="280">
+      <c r="T7" s="223">
         <v>0</v>
       </c>
-      <c r="U7" s="281">
+      <c r="U7" s="224">
         <v>0.3</v>
       </c>
       <c r="V7" s="13"/>
@@ -31371,10 +32294,10 @@
       <c r="M11" s="1"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
-      <c r="Q11" s="274" t="s">
+      <c r="Q11" s="217" t="s">
         <v>244</v>
       </c>
-      <c r="R11" s="275">
+      <c r="R11" s="218">
         <v>43102</v>
       </c>
       <c r="S11" s="13"/>
@@ -31405,19 +32328,19 @@
       <c r="M12" s="1"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
-      <c r="Q12" s="276" t="s">
+      <c r="Q12" s="219" t="s">
         <v>54</v>
       </c>
-      <c r="R12" s="277" t="s">
+      <c r="R12" s="220" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="277" t="s">
+      <c r="S12" s="220" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="277" t="s">
+      <c r="T12" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="278" t="s">
+      <c r="U12" s="221" t="s">
         <v>59</v>
       </c>
       <c r="V12" s="13"/>
@@ -31443,19 +32366,19 @@
       <c r="M13" s="1"/>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
-      <c r="Q13" s="279" t="s">
+      <c r="Q13" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="280">
+      <c r="R13" s="223">
         <v>0.1</v>
       </c>
-      <c r="S13" s="280">
+      <c r="S13" s="223">
         <v>0</v>
       </c>
-      <c r="T13" s="280">
+      <c r="T13" s="223">
         <v>0</v>
       </c>
-      <c r="U13" s="281">
+      <c r="U13" s="224">
         <v>0.2</v>
       </c>
       <c r="V13" s="13"/>
@@ -31669,7 +32592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31732,7 +32655,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="247"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -31746,7 +32669,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="247"/>
+      <c r="E6" s="255"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -31854,7 +32777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31915,7 +32838,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="247"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -31929,7 +32852,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="247"/>
+      <c r="E6" s="255"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -31969,7 +32892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31988,21 +32911,21 @@
       <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="270" t="s">
+      <c r="A4" s="283" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="271" t="s">
+      <c r="B4" s="284" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="272" t="s">
+      <c r="C4" s="285" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="286"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="270"/>
-      <c r="B5" s="271"/>
+      <c r="A5" s="283"/>
+      <c r="B5" s="284"/>
       <c r="C5" s="155" t="s">
         <v>158</v>
       </c>
@@ -32100,7 +33023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32156,7 +33079,7 @@
       <c r="B7" s="110">
         <v>1</v>
       </c>
-      <c r="C7" s="212" t="s">
+      <c r="C7" s="225" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="111" t="s">
@@ -32170,7 +33093,7 @@
       <c r="B8" s="110">
         <v>2</v>
       </c>
-      <c r="C8" s="212"/>
+      <c r="C8" s="225"/>
       <c r="D8" s="111" t="s">
         <v>84</v>
       </c>
@@ -32182,7 +33105,7 @@
       <c r="B9" s="110">
         <v>3</v>
       </c>
-      <c r="C9" s="212"/>
+      <c r="C9" s="225"/>
       <c r="D9" s="111" t="s">
         <v>85</v>
       </c>
@@ -32232,7 +33155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32258,7 +33181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:W75"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
@@ -32669,12 +33592,12 @@
     </row>
     <row r="40" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J40" s="29"/>
-      <c r="K40" s="213" t="s">
+      <c r="K40" s="226" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="213"/>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
+      <c r="L40" s="226"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="226"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
     </row>
@@ -32746,11 +33669,11 @@
     </row>
     <row r="48" spans="10:18" x14ac:dyDescent="0.15">
       <c r="J48" s="13"/>
-      <c r="K48" s="214" t="s">
+      <c r="K48" s="227" t="s">
         <v>29</v>
       </c>
-      <c r="L48" s="215"/>
-      <c r="M48" s="216"/>
+      <c r="L48" s="228"/>
+      <c r="M48" s="229"/>
       <c r="N48" s="32" t="s">
         <v>25</v>
       </c>
@@ -32813,11 +33736,11 @@
     </row>
     <row r="55" spans="10:16" x14ac:dyDescent="0.15">
       <c r="J55" s="13"/>
-      <c r="K55" s="214" t="s">
+      <c r="K55" s="227" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="215"/>
-      <c r="M55" s="216"/>
+      <c r="L55" s="228"/>
+      <c r="M55" s="229"/>
       <c r="N55" s="32" t="s">
         <v>25</v>
       </c>
@@ -33008,11 +33931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T57" sqref="T57"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33561,21 +34484,21 @@
     <row r="32" spans="1:26" x14ac:dyDescent="0.15">
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="217" t="s">
+      <c r="M32" s="230" t="s">
         <v>177</v>
       </c>
-      <c r="N32" s="217"/>
-      <c r="O32" s="217"/>
-      <c r="P32" s="217" t="s">
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230" t="s">
         <v>178</v>
       </c>
-      <c r="Q32" s="217"/>
-      <c r="R32" s="217" t="s">
+      <c r="Q32" s="230"/>
+      <c r="R32" s="230" t="s">
         <v>179</v>
       </c>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
+      <c r="S32" s="230"/>
+      <c r="T32" s="230"/>
+      <c r="U32" s="230"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -33785,9 +34708,9 @@
       <c r="AB47" s="13"/>
     </row>
     <row r="48" spans="11:28" x14ac:dyDescent="0.15">
-      <c r="L48" s="218"/>
-      <c r="M48" s="218"/>
-      <c r="N48" s="219"/>
+      <c r="L48" s="231"/>
+      <c r="M48" s="231"/>
+      <c r="N48" s="232"/>
       <c r="O48" s="181" t="s">
         <v>163</v>
       </c>
@@ -33835,9 +34758,9 @@
       <c r="AB49" s="13"/>
     </row>
     <row r="50" spans="12:28" x14ac:dyDescent="0.15">
-      <c r="L50" s="218"/>
-      <c r="M50" s="218"/>
-      <c r="N50" s="219"/>
+      <c r="L50" s="231"/>
+      <c r="M50" s="231"/>
+      <c r="N50" s="232"/>
       <c r="O50" s="181" t="s">
         <v>226</v>
       </c>
@@ -33955,8 +34878,208 @@
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
     </row>
+    <row r="58" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L58" s="193"/>
+      <c r="M58" s="193"/>
+      <c r="N58" s="193"/>
+      <c r="O58" s="193"/>
+      <c r="P58" s="193"/>
+      <c r="Q58" s="193"/>
+      <c r="R58" s="193"/>
+      <c r="S58" s="193"/>
+      <c r="T58" s="193"/>
+      <c r="U58" s="193"/>
+      <c r="V58" s="193"/>
+      <c r="W58" s="193"/>
+      <c r="X58" s="193"/>
+      <c r="Y58" s="193"/>
+      <c r="Z58" s="193"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13"/>
+    </row>
+    <row r="59" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L59" s="216"/>
+      <c r="M59" s="216"/>
+      <c r="N59" s="216"/>
+      <c r="O59" s="216"/>
+      <c r="P59" s="216"/>
+      <c r="Q59" s="216"/>
+      <c r="R59" s="216"/>
+      <c r="S59" s="216"/>
+      <c r="T59" s="216"/>
+      <c r="U59" s="216"/>
+      <c r="V59" s="216"/>
+      <c r="W59" s="216"/>
+      <c r="X59" s="216"/>
+      <c r="Y59" s="216"/>
+      <c r="Z59" s="216"/>
+      <c r="AA59" s="13"/>
+      <c r="AB59" s="13"/>
+    </row>
+    <row r="60" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L60" s="216"/>
+      <c r="M60" s="216"/>
+      <c r="N60" s="216"/>
+      <c r="O60" s="216"/>
+      <c r="P60" s="216"/>
+      <c r="Q60" s="216"/>
+      <c r="R60" s="216"/>
+      <c r="S60" s="216"/>
+      <c r="T60" s="216"/>
+      <c r="U60" s="216"/>
+      <c r="V60" s="216"/>
+      <c r="W60" s="216"/>
+      <c r="X60" s="216"/>
+      <c r="Y60" s="216"/>
+      <c r="Z60" s="216"/>
+      <c r="AA60" s="13"/>
+      <c r="AB60" s="13"/>
+    </row>
+    <row r="61" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L61" s="216"/>
+      <c r="M61" s="216"/>
+      <c r="N61" s="216"/>
+      <c r="O61" s="216"/>
+      <c r="P61" s="216"/>
+      <c r="Q61" s="216"/>
+      <c r="R61" s="216"/>
+      <c r="S61" s="216"/>
+      <c r="T61" s="216"/>
+      <c r="U61" s="216"/>
+      <c r="V61" s="216"/>
+      <c r="W61" s="216"/>
+      <c r="X61" s="216"/>
+      <c r="Y61" s="216"/>
+      <c r="Z61" s="216"/>
+      <c r="AA61" s="13"/>
+      <c r="AB61" s="13"/>
+    </row>
+    <row r="62" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L62" s="231"/>
+      <c r="M62" s="231"/>
+      <c r="N62" s="232"/>
+      <c r="O62" s="214" t="s">
+        <v>163</v>
+      </c>
+      <c r="P62" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q62" s="212" t="s">
+        <v>165</v>
+      </c>
+      <c r="R62" s="212"/>
+      <c r="S62" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="T62" s="212" t="s">
+        <v>167</v>
+      </c>
+      <c r="U62" s="216"/>
+      <c r="V62" s="216"/>
+      <c r="W62" s="216"/>
+      <c r="X62" s="216"/>
+      <c r="Y62" s="216"/>
+      <c r="Z62" s="216"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+    </row>
+    <row r="63" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L63" s="216"/>
+      <c r="M63" s="216"/>
+      <c r="N63" s="216"/>
+      <c r="O63" s="289"/>
+      <c r="P63" s="216"/>
+      <c r="Q63" s="216"/>
+      <c r="R63" s="216"/>
+      <c r="S63" s="216"/>
+      <c r="T63" s="216"/>
+      <c r="U63" s="216"/>
+      <c r="V63" s="216"/>
+      <c r="W63" s="216"/>
+      <c r="X63" s="216"/>
+      <c r="Y63" s="216"/>
+      <c r="Z63" s="216"/>
+      <c r="AA63" s="13"/>
+      <c r="AB63" s="13"/>
+    </row>
+    <row r="64" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L64" s="216"/>
+      <c r="M64" s="216"/>
+      <c r="N64" s="216"/>
+      <c r="O64" s="216"/>
+      <c r="P64" s="216"/>
+      <c r="Q64" s="216"/>
+      <c r="R64" s="216"/>
+      <c r="S64" s="216"/>
+      <c r="T64" s="216"/>
+      <c r="U64" s="216"/>
+      <c r="V64" s="216"/>
+      <c r="W64" s="216"/>
+      <c r="X64" s="216"/>
+      <c r="Y64" s="216"/>
+      <c r="Z64" s="216"/>
+      <c r="AA64" s="13"/>
+      <c r="AB64" s="13"/>
+    </row>
+    <row r="65" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L65" s="216"/>
+      <c r="M65" s="216"/>
+      <c r="N65" s="216"/>
+      <c r="O65" s="216"/>
+      <c r="P65" s="216"/>
+      <c r="Q65" s="216"/>
+      <c r="R65" s="216"/>
+      <c r="S65" s="216"/>
+      <c r="T65" s="216"/>
+      <c r="U65" s="216"/>
+      <c r="V65" s="216"/>
+      <c r="W65" s="216"/>
+      <c r="X65" s="216"/>
+      <c r="Y65" s="216"/>
+      <c r="Z65" s="216"/>
+      <c r="AA65" s="13"/>
+      <c r="AB65" s="13"/>
+    </row>
+    <row r="66" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="L66" s="216"/>
+      <c r="M66" s="216"/>
+      <c r="N66" s="216"/>
+      <c r="O66" s="216"/>
+      <c r="P66" s="216"/>
+      <c r="Q66" s="216"/>
+      <c r="R66" s="216"/>
+      <c r="S66" s="216"/>
+      <c r="T66" s="216"/>
+      <c r="U66" s="216"/>
+      <c r="V66" s="216"/>
+      <c r="W66" s="216"/>
+      <c r="X66" s="216"/>
+      <c r="Y66" s="216"/>
+      <c r="Z66" s="216"/>
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+    </row>
+    <row r="67" spans="12:28" x14ac:dyDescent="0.15">
+      <c r="M67" s="216"/>
+      <c r="N67" s="216"/>
+      <c r="O67" s="216"/>
+      <c r="P67" s="216"/>
+      <c r="Q67" s="216"/>
+      <c r="R67" s="216"/>
+      <c r="S67" s="216"/>
+      <c r="T67" s="216"/>
+      <c r="U67" s="216"/>
+      <c r="V67" s="216"/>
+      <c r="W67" s="216"/>
+      <c r="X67" s="216"/>
+      <c r="Y67" s="216"/>
+      <c r="Z67" s="216"/>
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="L62:N62"/>
     <mergeCell ref="R32:U32"/>
     <mergeCell ref="M32:O32"/>
     <mergeCell ref="P32:Q32"/>
@@ -33971,11 +35094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF92" sqref="AF92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W96" sqref="W96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -34090,10 +35213,10 @@
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.15">
       <c r="C9" s="13"/>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="224"/>
+      <c r="E9" s="236"/>
       <c r="F9" s="59" t="s">
         <v>163</v>
       </c>
@@ -34114,10 +35237,10 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="224" t="s">
+      <c r="N9" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="224"/>
+      <c r="O9" s="236"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -34321,14 +35444,14 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B24" s="13"/>
-      <c r="C24" s="220" t="s">
+      <c r="C24" s="247" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="221"/>
-      <c r="E24" s="222" t="s">
+      <c r="D24" s="248"/>
+      <c r="E24" s="237" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="223"/>
+      <c r="F24" s="238"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -34341,10 +35464,10 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="222" t="s">
+      <c r="E25" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="223"/>
+      <c r="F25" s="238"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -34357,10 +35480,10 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="222" t="s">
+      <c r="E26" s="237" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="223"/>
+      <c r="F26" s="238"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -34373,10 +35496,10 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="222" t="s">
+      <c r="E27" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="223"/>
+      <c r="F27" s="238"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -34445,10 +35568,10 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="220" t="s">
+      <c r="E32" s="247" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="221"/>
+      <c r="F32" s="248"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -34461,10 +35584,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="222" t="s">
+      <c r="E33" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="223"/>
+      <c r="F33" s="238"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -34477,10 +35600,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="222" t="s">
+      <c r="E34" s="237" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="223"/>
+      <c r="F34" s="238"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -34493,10 +35616,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="222" t="s">
+      <c r="E35" s="237" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="223"/>
+      <c r="F35" s="238"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -34509,10 +35632,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="222" t="s">
+      <c r="E36" s="237" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="223"/>
+      <c r="F36" s="238"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -34639,10 +35762,10 @@
     </row>
     <row r="45" spans="2:43" x14ac:dyDescent="0.15">
       <c r="B45" s="13"/>
-      <c r="C45" s="224" t="s">
+      <c r="C45" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="224"/>
+      <c r="D45" s="236"/>
       <c r="E45" s="160"/>
       <c r="F45" s="160"/>
       <c r="G45" s="160" t="s">
@@ -34758,25 +35881,25 @@
       <c r="M48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="224" t="s">
+      <c r="AB48" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="AC48" s="224"/>
-      <c r="AD48" s="217" t="s">
+      <c r="AC48" s="236"/>
+      <c r="AD48" s="230" t="s">
         <v>177</v>
       </c>
-      <c r="AE48" s="217"/>
-      <c r="AF48" s="217"/>
-      <c r="AG48" s="217" t="s">
+      <c r="AE48" s="230"/>
+      <c r="AF48" s="230"/>
+      <c r="AG48" s="230" t="s">
         <v>178</v>
       </c>
-      <c r="AH48" s="217"/>
-      <c r="AI48" s="217" t="s">
+      <c r="AH48" s="230"/>
+      <c r="AI48" s="230" t="s">
         <v>179</v>
       </c>
-      <c r="AJ48" s="217"/>
-      <c r="AK48" s="217"/>
-      <c r="AL48" s="217"/>
+      <c r="AJ48" s="230"/>
+      <c r="AK48" s="230"/>
+      <c r="AL48" s="230"/>
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="13"/>
@@ -34883,10 +36006,10 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="220" t="s">
+      <c r="E52" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="221"/>
+      <c r="F52" s="248"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -34917,8 +36040,8 @@
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="226"/>
-      <c r="F53" s="227"/>
+      <c r="E53" s="239"/>
+      <c r="F53" s="240"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -34949,8 +36072,8 @@
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="226"/>
-      <c r="F54" s="227"/>
+      <c r="E54" s="239"/>
+      <c r="F54" s="240"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -34981,18 +36104,18 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="222" t="s">
+      <c r="E55" s="237" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="223"/>
-      <c r="G55" s="222" t="s">
+      <c r="F55" s="238"/>
+      <c r="G55" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="223"/>
-      <c r="I55" s="222" t="s">
+      <c r="H55" s="238"/>
+      <c r="I55" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="J55" s="223"/>
+      <c r="J55" s="238"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -35019,10 +36142,10 @@
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="237" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="223"/>
+      <c r="F56" s="238"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -35035,10 +36158,10 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="237" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="223"/>
+      <c r="F57" s="238"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -35167,11 +36290,11 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="Z61" s="29"/>
-      <c r="AA61" s="224" t="s">
+      <c r="AA61" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="AB61" s="224"/>
-      <c r="AC61" s="224"/>
+      <c r="AB61" s="236"/>
+      <c r="AC61" s="236"/>
       <c r="AD61" s="160" t="s">
         <v>163</v>
       </c>
@@ -35331,11 +36454,11 @@
     </row>
     <row r="68" spans="2:42" x14ac:dyDescent="0.15">
       <c r="Z68" s="29"/>
-      <c r="AA68" s="224" t="s">
+      <c r="AA68" s="236" t="s">
         <v>28</v>
       </c>
-      <c r="AB68" s="224"/>
-      <c r="AC68" s="224"/>
+      <c r="AB68" s="236"/>
+      <c r="AC68" s="236"/>
       <c r="AD68" s="160" t="s">
         <v>163</v>
       </c>
@@ -35489,10 +36612,10 @@
     </row>
     <row r="74" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B74" s="13"/>
-      <c r="C74" s="224" t="s">
+      <c r="C74" s="236" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="224"/>
+      <c r="D74" s="236"/>
       <c r="E74" s="169"/>
       <c r="F74" s="170"/>
       <c r="G74" s="160" t="s">
@@ -35666,11 +36789,11 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="Z79" s="29"/>
-      <c r="AA79" s="224" t="s">
+      <c r="AA79" s="236" t="s">
         <v>199</v>
       </c>
-      <c r="AB79" s="224"/>
-      <c r="AC79" s="224"/>
+      <c r="AB79" s="236"/>
+      <c r="AC79" s="236"/>
       <c r="AD79" s="180" t="s">
         <v>163</v>
       </c>
@@ -35698,10 +36821,10 @@
     </row>
     <row r="80" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B80" s="13"/>
-      <c r="C80" s="220" t="s">
+      <c r="C80" s="247" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="221"/>
+      <c r="D80" s="248"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -35730,8 +36853,8 @@
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B81" s="13"/>
-      <c r="C81" s="230"/>
-      <c r="D81" s="231"/>
+      <c r="C81" s="243"/>
+      <c r="D81" s="244"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -35742,11 +36865,11 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="Z81" s="29"/>
-      <c r="AA81" s="224" t="s">
+      <c r="AA81" s="236" t="s">
         <v>199</v>
       </c>
-      <c r="AB81" s="224"/>
-      <c r="AC81" s="224"/>
+      <c r="AB81" s="236"/>
+      <c r="AC81" s="236"/>
       <c r="AD81" s="180" t="s">
         <v>226</v>
       </c>
@@ -35770,8 +36893,8 @@
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B82" s="13"/>
-      <c r="C82" s="232"/>
-      <c r="D82" s="233"/>
+      <c r="C82" s="245"/>
+      <c r="D82" s="246"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -35800,8 +36923,8 @@
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B83" s="13"/>
-      <c r="C83" s="228"/>
-      <c r="D83" s="229"/>
+      <c r="C83" s="241"/>
+      <c r="D83" s="242"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -35829,18 +36952,18 @@
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.15">
       <c r="B84" s="13"/>
-      <c r="C84" s="222" t="s">
+      <c r="C84" s="237" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="223"/>
-      <c r="E84" s="222" t="s">
+      <c r="D84" s="238"/>
+      <c r="E84" s="237" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="223"/>
-      <c r="G84" s="222" t="s">
+      <c r="F84" s="238"/>
+      <c r="G84" s="237" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="223"/>
+      <c r="H84" s="238"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -35953,6 +37076,24 @@
       <c r="AN87" s="29"/>
       <c r="AO87" s="29"/>
     </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.15">
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="13"/>
+      <c r="AO90" s="13"/>
+    </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A91" s="172"/>
       <c r="B91" s="13"/>
@@ -35967,6 +37108,22 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="13"/>
+      <c r="AI91" s="13"/>
+      <c r="AJ91" s="13"/>
+      <c r="AK91" s="13"/>
+      <c r="AL91" s="13"/>
+      <c r="AM91" s="13"/>
+      <c r="AN91" s="13"/>
+      <c r="AO91" s="13"/>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A92" s="172"/>
@@ -35982,14 +37139,30 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="13"/>
+      <c r="Z92" s="13"/>
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="13"/>
+      <c r="AD92" s="13"/>
+      <c r="AE92" s="13"/>
+      <c r="AF92" s="13"/>
+      <c r="AG92" s="13"/>
+      <c r="AH92" s="13"/>
+      <c r="AI92" s="13"/>
+      <c r="AJ92" s="13"/>
+      <c r="AK92" s="13"/>
+      <c r="AL92" s="13"/>
+      <c r="AM92" s="13"/>
+      <c r="AN92" s="13"/>
+      <c r="AO92" s="13"/>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A93" s="172"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="225" t="s">
+      <c r="C93" s="235" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="225"/>
+      <c r="D93" s="235"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -35999,14 +37172,30 @@
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
+      <c r="Z93" s="13"/>
+      <c r="AA93" s="13"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="13"/>
+      <c r="AD93" s="13"/>
+      <c r="AE93" s="13"/>
+      <c r="AF93" s="13"/>
+      <c r="AG93" s="13"/>
+      <c r="AH93" s="13"/>
+      <c r="AI93" s="13"/>
+      <c r="AJ93" s="13"/>
+      <c r="AK93" s="13"/>
+      <c r="AL93" s="13"/>
+      <c r="AM93" s="13"/>
+      <c r="AN93" s="13"/>
+      <c r="AO93" s="13"/>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A94" s="172"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="225" t="s">
+      <c r="C94" s="235" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="225"/>
+      <c r="D94" s="235"/>
       <c r="E94" s="167" t="s">
         <v>200</v>
       </c>
@@ -36028,6 +37217,34 @@
       </c>
       <c r="L94" s="160"/>
       <c r="M94" s="13"/>
+      <c r="Z94" s="13"/>
+      <c r="AA94" s="236" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB94" s="236"/>
+      <c r="AC94" s="236"/>
+      <c r="AD94" s="212" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE94" s="212" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF94" s="212" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG94" s="212"/>
+      <c r="AH94" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI94" s="212" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ94" s="13"/>
+      <c r="AK94" s="13"/>
+      <c r="AL94" s="13"/>
+      <c r="AM94" s="13"/>
+      <c r="AN94" s="13"/>
+      <c r="AO94" s="13"/>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A95" s="172"/>
@@ -36043,14 +37260,30 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="13"/>
+      <c r="Z95" s="13"/>
+      <c r="AA95" s="13"/>
+      <c r="AB95" s="13"/>
+      <c r="AC95" s="13"/>
+      <c r="AD95" s="13"/>
+      <c r="AE95" s="13"/>
+      <c r="AF95" s="13"/>
+      <c r="AG95" s="13"/>
+      <c r="AH95" s="13"/>
+      <c r="AI95" s="13"/>
+      <c r="AJ95" s="13"/>
+      <c r="AK95" s="13"/>
+      <c r="AL95" s="13"/>
+      <c r="AM95" s="13"/>
+      <c r="AN95" s="13"/>
+      <c r="AO95" s="13"/>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A96" s="172"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="234" t="s">
+      <c r="C96" s="233" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="235"/>
+      <c r="D96" s="234"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -36060,14 +37293,30 @@
       <c r="K96" s="13"/>
       <c r="L96" s="13"/>
       <c r="M96" s="13"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="Z96" s="13"/>
+      <c r="AA96" s="13"/>
+      <c r="AB96" s="13"/>
+      <c r="AC96" s="13"/>
+      <c r="AD96" s="13"/>
+      <c r="AE96" s="13"/>
+      <c r="AF96" s="13"/>
+      <c r="AG96" s="13"/>
+      <c r="AH96" s="13"/>
+      <c r="AI96" s="13"/>
+      <c r="AJ96" s="13"/>
+      <c r="AK96" s="13"/>
+      <c r="AL96" s="13"/>
+      <c r="AM96" s="13"/>
+      <c r="AN96" s="13"/>
+      <c r="AO96" s="13"/>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A97" s="172"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="225" t="s">
+      <c r="C97" s="235" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="225"/>
+      <c r="D97" s="235"/>
       <c r="E97" s="167" t="s">
         <v>206</v>
       </c>
@@ -36091,8 +37340,24 @@
       </c>
       <c r="L97" s="160"/>
       <c r="M97" s="13"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="Z97" s="13"/>
+      <c r="AA97" s="13"/>
+      <c r="AB97" s="13"/>
+      <c r="AC97" s="13"/>
+      <c r="AD97" s="13"/>
+      <c r="AE97" s="13"/>
+      <c r="AF97" s="13"/>
+      <c r="AG97" s="13"/>
+      <c r="AH97" s="13"/>
+      <c r="AI97" s="13"/>
+      <c r="AJ97" s="13"/>
+      <c r="AK97" s="13"/>
+      <c r="AL97" s="13"/>
+      <c r="AM97" s="13"/>
+      <c r="AN97" s="13"/>
+      <c r="AO97" s="13"/>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A98" s="172"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -36106,8 +37371,24 @@
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="Z98" s="13"/>
+      <c r="AA98" s="13"/>
+      <c r="AB98" s="13"/>
+      <c r="AC98" s="13"/>
+      <c r="AD98" s="13"/>
+      <c r="AE98" s="13"/>
+      <c r="AF98" s="13"/>
+      <c r="AG98" s="13"/>
+      <c r="AH98" s="13"/>
+      <c r="AI98" s="13"/>
+      <c r="AJ98" s="13"/>
+      <c r="AK98" s="13"/>
+      <c r="AL98" s="13"/>
+      <c r="AM98" s="13"/>
+      <c r="AN98" s="13"/>
+      <c r="AO98" s="13"/>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A99" s="172"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -36121,8 +37402,24 @@
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
       <c r="M99" s="13"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="Z99" s="13"/>
+      <c r="AA99" s="13"/>
+      <c r="AB99" s="13"/>
+      <c r="AC99" s="13"/>
+      <c r="AD99" s="13"/>
+      <c r="AE99" s="13"/>
+      <c r="AF99" s="13"/>
+      <c r="AG99" s="13"/>
+      <c r="AH99" s="13"/>
+      <c r="AI99" s="13"/>
+      <c r="AJ99" s="13"/>
+      <c r="AK99" s="13"/>
+      <c r="AL99" s="13"/>
+      <c r="AM99" s="13"/>
+      <c r="AN99" s="13"/>
+      <c r="AO99" s="13"/>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A100" s="172"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -36136,20 +37433,47 @@
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
       <c r="M100" s="13"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="Z100" s="13"/>
+      <c r="AA100" s="13"/>
+      <c r="AB100" s="13"/>
+      <c r="AC100" s="13"/>
+      <c r="AD100" s="13"/>
+      <c r="AE100" s="13"/>
+      <c r="AF100" s="13"/>
+      <c r="AG100" s="13"/>
+      <c r="AH100" s="13"/>
+      <c r="AI100" s="13"/>
+      <c r="AJ100" s="13"/>
+      <c r="AK100" s="13"/>
+      <c r="AL100" s="13"/>
+      <c r="AM100" s="13"/>
+      <c r="AN100" s="13"/>
+      <c r="AO100" s="13"/>
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A101" s="172"/>
       <c r="B101" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AA81:AC81"/>
+  <mergeCells count="42">
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="C93:D93"/>
@@ -36166,24 +37490,14 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AA94:AC94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36192,7 +37506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH105"/>
   <sheetViews>
     <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
@@ -36310,7 +37624,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="247"/>
+      <c r="E4" s="255"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -36345,7 +37659,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="247"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -36390,11 +37704,11 @@
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="248" t="s">
+      <c r="N6" s="256" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
+      <c r="O6" s="256"/>
+      <c r="P6" s="256"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -36407,16 +37721,16 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="214" t="s">
+      <c r="AC6" s="227" t="s">
         <v>149</v>
       </c>
-      <c r="AD6" s="215"/>
-      <c r="AE6" s="216"/>
-      <c r="AF6" s="236" t="s">
+      <c r="AD6" s="228"/>
+      <c r="AE6" s="229"/>
+      <c r="AF6" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="237"/>
-      <c r="AH6" s="238"/>
+      <c r="AG6" s="260"/>
+      <c r="AH6" s="261"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
@@ -36509,16 +37823,16 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="241" t="s">
+      <c r="V8" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="244" t="s">
+      <c r="W8" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="244" t="s">
+      <c r="X8" s="267" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" s="244" t="s">
+      <c r="Y8" s="267" t="s">
         <v>105</v>
       </c>
       <c r="Z8" s="136" t="s">
@@ -36531,7 +37845,7 @@
       <c r="AC8" s="153">
         <v>1</v>
       </c>
-      <c r="AD8" s="239" t="s">
+      <c r="AD8" s="262" t="s">
         <v>150</v>
       </c>
       <c r="AE8" s="128" t="s">
@@ -36579,10 +37893,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="242"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="240"/>
-      <c r="Y9" s="240"/>
+      <c r="V9" s="265"/>
+      <c r="W9" s="268"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
       <c r="Z9" s="138" t="s">
         <v>108</v>
       </c>
@@ -36593,7 +37907,7 @@
       <c r="AC9" s="153">
         <v>2</v>
       </c>
-      <c r="AD9" s="240"/>
+      <c r="AD9" s="263"/>
       <c r="AE9" s="128" t="s">
         <v>153</v>
       </c>
@@ -36621,10 +37935,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="249" t="s">
+      <c r="L10" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="250"/>
+      <c r="M10" s="258"/>
       <c r="N10" s="47">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -36640,8 +37954,8 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="242"/>
-      <c r="W10" s="245"/>
+      <c r="V10" s="265"/>
+      <c r="W10" s="268"/>
       <c r="X10" s="128" t="s">
         <v>110</v>
       </c>
@@ -36694,12 +38008,12 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="242"/>
-      <c r="W11" s="245"/>
-      <c r="X11" s="239" t="s">
+      <c r="V11" s="265"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="239" t="s">
+      <c r="Y11" s="262" t="s">
         <v>115</v>
       </c>
       <c r="Z11" s="140" t="s">
@@ -36739,10 +38053,10 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="242"/>
-      <c r="W12" s="245"/>
-      <c r="X12" s="245"/>
-      <c r="Y12" s="245"/>
+      <c r="V12" s="265"/>
+      <c r="W12" s="268"/>
+      <c r="X12" s="268"/>
+      <c r="Y12" s="268"/>
       <c r="Z12" s="142" t="s">
         <v>118</v>
       </c>
@@ -36776,10 +38090,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="242"/>
-      <c r="W13" s="245"/>
-      <c r="X13" s="245"/>
-      <c r="Y13" s="245"/>
+      <c r="V13" s="265"/>
+      <c r="W13" s="268"/>
+      <c r="X13" s="268"/>
+      <c r="Y13" s="268"/>
       <c r="Z13" s="144" t="s">
         <v>120</v>
       </c>
@@ -36817,10 +38131,10 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="241" t="s">
+      <c r="V14" s="264" t="s">
         <v>122</v>
       </c>
-      <c r="W14" s="244" t="s">
+      <c r="W14" s="267" t="s">
         <v>123</v>
       </c>
       <c r="X14" s="129" t="s">
@@ -36862,12 +38176,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="242"/>
-      <c r="W15" s="245"/>
-      <c r="X15" s="239" t="s">
+      <c r="V15" s="265"/>
+      <c r="W15" s="268"/>
+      <c r="X15" s="262" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="239" t="s">
+      <c r="Y15" s="262" t="s">
         <v>129</v>
       </c>
       <c r="Z15" s="140" t="s">
@@ -36903,10 +38217,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="243"/>
-      <c r="W16" s="246"/>
-      <c r="X16" s="246"/>
-      <c r="Y16" s="246"/>
+      <c r="V16" s="266"/>
+      <c r="W16" s="269"/>
+      <c r="X16" s="269"/>
+      <c r="Y16" s="269"/>
       <c r="Z16" s="144" t="s">
         <v>132</v>
       </c>
@@ -37173,11 +38487,11 @@
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="251" t="s">
+      <c r="N25" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="252"/>
-      <c r="P25" s="253"/>
+      <c r="O25" s="253"/>
+      <c r="P25" s="254"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -37594,7 +38908,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="218"/>
+      <c r="J43" s="231"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
       <c r="M43" s="89"/>
@@ -37611,7 +38925,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="218"/>
+      <c r="J44" s="231"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
       <c r="M44" s="87"/>
@@ -37685,17 +38999,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="254" t="s">
+      <c r="K48" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="254" t="s">
+      <c r="L48" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="251" t="s">
+      <c r="M48" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="252"/>
-      <c r="O48" s="253"/>
+      <c r="N48" s="253"/>
+      <c r="O48" s="254"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="13"/>
     </row>
@@ -37713,8 +39027,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="255"/>
-      <c r="L49" s="255"/>
+      <c r="K49" s="251"/>
+      <c r="L49" s="251"/>
       <c r="M49" s="54" t="s">
         <v>39</v>
       </c>
@@ -37862,11 +39176,11 @@
       <c r="L55" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="251" t="s">
+      <c r="M55" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="252"/>
-      <c r="O55" s="253"/>
+      <c r="N55" s="253"/>
+      <c r="O55" s="254"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -38291,17 +39605,17 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="254" t="s">
+      <c r="K87" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="L87" s="254" t="s">
+      <c r="L87" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="M87" s="251" t="s">
+      <c r="M87" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="252"/>
-      <c r="O87" s="253"/>
+      <c r="N87" s="253"/>
+      <c r="O87" s="254"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
@@ -38313,8 +39627,8 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="255"/>
-      <c r="L88" s="255"/>
+      <c r="K88" s="251"/>
+      <c r="L88" s="251"/>
       <c r="M88" s="54" t="s">
         <v>39</v>
       </c>
@@ -38335,13 +39649,13 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="256" t="s">
+      <c r="K89" s="249" t="s">
         <v>235</v>
       </c>
-      <c r="L89" s="256"/>
-      <c r="M89" s="256"/>
-      <c r="N89" s="256"/>
-      <c r="O89" s="256"/>
+      <c r="L89" s="249"/>
+      <c r="M89" s="249"/>
+      <c r="N89" s="249"/>
+      <c r="O89" s="249"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
@@ -38407,13 +39721,13 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="256" t="s">
+      <c r="K92" s="249" t="s">
         <v>236</v>
       </c>
-      <c r="L92" s="256"/>
-      <c r="M92" s="256"/>
-      <c r="N92" s="256"/>
-      <c r="O92" s="256"/>
+      <c r="L92" s="249"/>
+      <c r="M92" s="249"/>
+      <c r="N92" s="249"/>
+      <c r="O92" s="249"/>
       <c r="P92" s="13"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
@@ -38654,20 +39968,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K89:O89"/>
-    <mergeCell ref="K92:O92"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -38681,6 +39981,20 @@
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
     <mergeCell ref="V8:V13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:O87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -38691,7 +40005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -39685,10 +40999,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="13"/>
-      <c r="B83" s="257" t="s">
+      <c r="B83" s="270" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="257"/>
+      <c r="C83" s="270"/>
       <c r="D83" s="69" t="s">
         <v>56</v>
       </c>
@@ -39707,7 +41021,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="13"/>
-      <c r="B84" s="254" t="s">
+      <c r="B84" s="250" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="95" t="s">
@@ -39729,7 +41043,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="13"/>
-      <c r="B85" s="258"/>
+      <c r="B85" s="271"/>
       <c r="C85" s="96" t="s">
         <v>65</v>
       </c>
@@ -39749,7 +41063,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="13"/>
-      <c r="B86" s="255"/>
+      <c r="B86" s="251"/>
       <c r="C86" s="97" t="s">
         <v>66</v>
       </c>
@@ -39829,7 +41143,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="13"/>
-      <c r="B91" s="254" t="s">
+      <c r="B91" s="250" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="99"/>
@@ -39849,7 +41163,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="13"/>
-      <c r="B92" s="258"/>
+      <c r="B92" s="271"/>
       <c r="C92" s="99"/>
       <c r="D92" s="98">
         <v>15</v>
@@ -39867,7 +41181,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
-      <c r="B93" s="255"/>
+      <c r="B93" s="251"/>
       <c r="C93" s="99"/>
       <c r="D93" s="94" t="s">
         <v>67</v>
@@ -40346,7 +41660,7 @@
       <c r="L125" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="M125" s="259" t="s">
+      <c r="M125" s="272" t="s">
         <v>240</v>
       </c>
       <c r="N125" s="69" t="s">
@@ -40361,7 +41675,7 @@
       <c r="Q125" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="R125" s="259" t="s">
+      <c r="R125" s="272" t="s">
         <v>241</v>
       </c>
       <c r="S125" s="69" t="s">
@@ -40394,7 +41708,7 @@
       <c r="L126" s="201" t="s">
         <v>55</v>
       </c>
-      <c r="M126" s="260"/>
+      <c r="M126" s="273"/>
       <c r="N126" s="68">
         <v>0.7</v>
       </c>
@@ -40407,7 +41721,7 @@
       <c r="Q126" s="198">
         <v>0.1</v>
       </c>
-      <c r="R126" s="260"/>
+      <c r="R126" s="273"/>
       <c r="S126" s="68">
         <v>0.1</v>
       </c>
@@ -40674,7 +41988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -40738,10 +42052,10 @@
       <c r="B6" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="234" t="s">
+      <c r="C6" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="235"/>
+      <c r="D6" s="234"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -40756,8 +42070,8 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="188"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="227"/>
+      <c r="C7" s="239"/>
+      <c r="D7" s="240"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -40772,8 +42086,8 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="188"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="227"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -40840,10 +42154,10 @@
       <c r="B12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="234" t="s">
+      <c r="C12" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="235"/>
+      <c r="D12" s="234"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -40860,10 +42174,10 @@
       <c r="B13" s="188">
         <v>1</v>
       </c>
-      <c r="C13" s="226" t="s">
+      <c r="C13" s="239" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="227"/>
+      <c r="D13" s="240"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -40880,10 +42194,10 @@
       <c r="B14" s="188">
         <v>2</v>
       </c>
-      <c r="C14" s="226" t="s">
+      <c r="C14" s="239" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="227"/>
+      <c r="D14" s="240"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -41151,10 +42465,10 @@
       <c r="B33" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="234" t="s">
+      <c r="C33" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="235"/>
+      <c r="D33" s="234"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -41169,8 +42483,8 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="13"/>
       <c r="B34" s="188"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="227"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="240"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -41185,8 +42499,8 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="188"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="227"/>
+      <c r="C35" s="239"/>
+      <c r="D35" s="240"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -41201,8 +42515,8 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="13"/>
       <c r="B36" s="188"/>
-      <c r="C36" s="213"/>
-      <c r="D36" s="213"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -41217,8 +42531,8 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="13"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="261"/>
+      <c r="C37" s="274"/>
+      <c r="D37" s="274"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -41267,10 +42581,10 @@
       <c r="B40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="234" t="s">
+      <c r="C40" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="235"/>
+      <c r="D40" s="234"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -41287,10 +42601,10 @@
       <c r="B41" s="188">
         <v>1</v>
       </c>
-      <c r="C41" s="226" t="s">
+      <c r="C41" s="239" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="227"/>
+      <c r="D41" s="240"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -41307,10 +42621,10 @@
       <c r="B42" s="188">
         <v>2</v>
       </c>
-      <c r="C42" s="226" t="s">
+      <c r="C42" s="239" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="227"/>
+      <c r="D42" s="240"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -41325,8 +42639,8 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="188"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="213"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -41468,12 +42782,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
@@ -41483,6 +42791,12 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\workspace4.7\git_xlsmapper\src\site\sphinx\memo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\workspace2019-03\git_xlsmapper\src\site\sphinx\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1CB6CFDC-FA57-413F-93C7-4DCA8685D15F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77BBF3E-C7E0-4519-B907-EEC84F70479E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="3045" windowWidth="27075" windowHeight="10470" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -31,14 +31,183 @@
     <sheet name="Hint" sheetId="7" r:id="rId16"/>
     <sheet name="Converter" sheetId="10" r:id="rId17"/>
     <sheet name="XlsFormula" sheetId="15" r:id="rId18"/>
+    <sheet name="Comment" sheetId="24" r:id="rId19"/>
+    <sheet name="LabelledComment" sheetId="26" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>土江龍男</author>
+  </authors>
+  <commentList>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{60F2083B-1357-4997-B547-6AB18F3DC810}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>サンプルコメント</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>土江龍男</author>
+  </authors>
+  <commentList>
+    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{D419A1B1-3216-4C1F-A051-B92A3079135C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>サンプルコメント</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>土江龍男</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7E48F077-7A33-4B07-9FAF-578A71FAB169}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>タイトルを入力してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BF7A352E-084B-4737-8322-55F6576C22A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>名前を入力してください。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>土江龍男</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{B7114C00-CDBE-4728-87A1-67BF219C4306}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{F22A6997-6BB1-4EC0-A6F3-EA1D27C9A1E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>コメント2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L17" authorId="0" shapeId="0" xr:uid="{EF065864-7619-49CD-812C-DA650BD22D6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>XXXActionのクラス名を指定します。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0" xr:uid="{3DAC53F9-01E2-448C-9104-2DB74193F931}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>XXXFormのクラス名を指定します。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="246">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -1548,7 +1717,7 @@
     <numFmt numFmtId="178" formatCode="0&quot;℃&quot;_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1627,6 +1796,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2599,7 +2776,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3213,6 +3390,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3228,25 +3420,19 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3254,6 +3440,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3279,41 +3471,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3347,6 +3509,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3398,15 +3590,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6520,16 +6703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6544,8 +6727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2790826" y="2895600"/>
-          <a:ext cx="323850" cy="257175"/>
+          <a:off x="2809876" y="2905126"/>
+          <a:ext cx="247649" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6586,12 +6769,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>146760</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3528787" cy="459100"/>
+    <xdr:ext cx="4742709" cy="459100"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
@@ -6605,8 +6788,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1047750" y="3404310"/>
-          <a:ext cx="3528787" cy="459100"/>
+          <a:off x="647700" y="3404310"/>
+          <a:ext cx="4742709" cy="459100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6635,7 +6818,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>位置情報、見出し情報のキーは、</a:t>
+            <a:t>位置情報、見出し情報、セルのコメント情報のキーは、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -9689,6 +9872,442 @@
             <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D5EBCD-32A6-4FA0-884E-73C41A0B2F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1162050" y="781050"/>
+          <a:ext cx="219074" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="963277" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4F9F55-01C1-4B2E-9E93-7C21FC5431C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="857250"/>
+          <a:ext cx="963277" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>同じラベル名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAECB67E-4426-484D-A438-3D8E6CA9DCF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1162050" y="1038225"/>
+          <a:ext cx="209550" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD54E74-F863-424B-A694-6079991B4407}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2714625" y="609600"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1669560" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{832BA0F1-A0B0-412A-884D-DF765142587E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="457200"/>
+          <a:ext cx="1669560" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>headerLabel="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アクション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19BF4DCE-F25A-4EFB-B23B-C85A303C002F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2705100" y="1114425"/>
+          <a:ext cx="304800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2207464" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A7B942-698E-4044-9F05-F90F460D3DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="981075"/>
+          <a:ext cx="2207464" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>headerLabel="</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アクションフォーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -27299,12 +27918,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>128400</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4024435" cy="275717"/>
+    <xdr:ext cx="5247077" cy="275717"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="テキスト ボックス 14">
@@ -27318,8 +27937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="357000" y="3038850"/>
-          <a:ext cx="4024435" cy="275717"/>
+          <a:off x="128400" y="3724650"/>
+          <a:ext cx="5247077" cy="275717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27348,7 +27967,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>位置情報、見出し情報のキーは、</a:t>
+            <a:t>位置情報、見出し情報・セルのコメント情報のキーは、</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -28519,7 +29138,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="107"/>
     <col min="2" max="2" width="9" style="107" customWidth="1"/>
@@ -28529,18 +29148,18 @@
     <col min="6" max="16384" width="9" style="107"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="B3" s="105" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="106"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="108" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="109" t="s">
         <v>90</v>
       </c>
@@ -28554,7 +29173,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="110"/>
       <c r="C7" s="110"/>
       <c r="D7" s="111"/>
@@ -28574,9 +29193,9 @@
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:18">
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -28595,7 +29214,7 @@
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18">
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -28614,7 +29233,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18">
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -28633,7 +29252,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:18">
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -28654,21 +29273,21 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="250" t="s">
+      <c r="E5" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="250" t="s">
+      <c r="F5" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="252" t="s">
+      <c r="G5" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="253"/>
-      <c r="I5" s="254"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="271"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -28679,12 +29298,12 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
       <c r="G6" s="54" t="s">
         <v>39</v>
       </c>
@@ -28704,17 +29323,17 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="249" t="s">
+      <c r="E7" s="274" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="274"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -28725,7 +29344,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -28755,7 +29374,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -28785,17 +29404,17 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:18">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="249" t="s">
+      <c r="E10" s="274" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
+      <c r="F10" s="274"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -28806,7 +29425,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -28836,7 +29455,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -28866,7 +29485,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -28896,7 +29515,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -28915,7 +29534,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -28934,7 +29553,7 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18">
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -28953,7 +29572,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -28972,7 +29591,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18">
       <c r="B18" s="13"/>
       <c r="C18" s="202" t="s">
         <v>234</v>
@@ -28995,41 +29614,41 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18">
       <c r="B19" s="13"/>
-      <c r="C19" s="250" t="s">
+      <c r="C19" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="250" t="s">
+      <c r="D19" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="252" t="s">
+      <c r="E19" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="253"/>
-      <c r="G19" s="254"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="271"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="250" t="s">
+      <c r="I19" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="250" t="s">
+      <c r="J19" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="252" t="s">
+      <c r="K19" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="253"/>
-      <c r="M19" s="254"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="271"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18">
       <c r="B20" s="13"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="251"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
       <c r="E20" s="54" t="s">
         <v>39</v>
       </c>
@@ -29040,8 +29659,8 @@
         <v>41</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="I20" s="251"/>
-      <c r="J20" s="251"/>
+      <c r="I20" s="273"/>
+      <c r="J20" s="273"/>
       <c r="K20" s="54" t="s">
         <v>39</v>
       </c>
@@ -29057,15 +29676,15 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18">
       <c r="B21" s="13"/>
-      <c r="C21" s="249" t="s">
+      <c r="C21" s="274" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="249"/>
-      <c r="E21" s="249"/>
-      <c r="F21" s="249"/>
-      <c r="G21" s="249"/>
+      <c r="D21" s="274"/>
+      <c r="E21" s="274"/>
+      <c r="F21" s="274"/>
+      <c r="G21" s="274"/>
       <c r="H21" s="13"/>
       <c r="I21" s="203"/>
       <c r="J21" s="204"/>
@@ -29078,7 +29697,7 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18">
       <c r="B22" s="13"/>
       <c r="C22" s="90">
         <v>1</v>
@@ -29108,7 +29727,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18">
       <c r="B23" s="13"/>
       <c r="C23" s="90">
         <v>2</v>
@@ -29138,30 +29757,30 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18">
       <c r="B24" s="13"/>
-      <c r="C24" s="249" t="s">
+      <c r="C24" s="274" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="G24" s="249"/>
+      <c r="D24" s="274"/>
+      <c r="E24" s="274"/>
+      <c r="F24" s="274"/>
+      <c r="G24" s="274"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="249" t="s">
+      <c r="I24" s="274" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="249"/>
-      <c r="K24" s="249"/>
-      <c r="L24" s="249"/>
-      <c r="M24" s="249"/>
+      <c r="J24" s="274"/>
+      <c r="K24" s="274"/>
+      <c r="L24" s="274"/>
+      <c r="M24" s="274"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -29191,7 +29810,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -29221,7 +29840,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -29251,7 +29870,7 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -29270,7 +29889,7 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -29289,7 +29908,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -29308,7 +29927,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -29327,7 +29946,7 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -29346,7 +29965,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:18">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -29365,7 +29984,7 @@
       <c r="Q33" s="13"/>
       <c r="R33" s="13"/>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:18">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -29384,7 +30003,7 @@
       <c r="Q34" s="13"/>
       <c r="R34" s="13"/>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:18">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -29400,7 +30019,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:18">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -29416,7 +30035,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:18">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -29434,11 +30053,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E10:I10"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
@@ -29448,6 +30062,11 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29463,7 +30082,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
@@ -29475,7 +30094,7 @@
     <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -29484,7 +30103,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -29493,7 +30112,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -29502,7 +30121,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -29513,7 +30132,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="16" t="s">
         <v>6</v>
@@ -29521,10 +30140,10 @@
       <c r="C5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="270" t="s">
+      <c r="D5" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="270"/>
+      <c r="E5" s="275"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
@@ -29533,7 +30152,7 @@
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="17">
         <v>1</v>
@@ -29557,7 +30176,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="17">
         <v>2</v>
@@ -29579,7 +30198,7 @@
       </c>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -29591,7 +30210,7 @@
       <c r="I8" s="17">
         <v>1</v>
       </c>
-      <c r="J8" s="275" t="s">
+      <c r="J8" s="280" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -29599,7 +30218,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -29611,13 +30230,13 @@
       <c r="I9" s="17">
         <v>2</v>
       </c>
-      <c r="J9" s="276"/>
+      <c r="J9" s="281"/>
       <c r="K9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -29637,7 +30256,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -29657,7 +30276,7 @@
       </c>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -29671,28 +30290,28 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -29704,7 +30323,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="13"/>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -29713,7 +30332,7 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="13"/>
       <c r="B18" s="28" t="s">
         <v>1</v>
@@ -29724,7 +30343,7 @@
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="13"/>
       <c r="B19" s="17">
         <v>1</v>
@@ -29735,7 +30354,7 @@
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="13"/>
       <c r="B20" s="17">
         <v>2</v>
@@ -29744,98 +30363,98 @@
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="13"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="13"/>
       <c r="B24" s="65"/>
       <c r="C24" s="66"/>
       <c r="D24" s="29"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="13"/>
       <c r="B25" s="67"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="13"/>
       <c r="B26" s="67"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="13"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="13"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="13"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="13"/>
     </row>
   </sheetData>
@@ -29855,14 +30474,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="5.75" customWidth="1"/>
@@ -29872,7 +30491,7 @@
     <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -29882,7 +30501,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -29892,7 +30511,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -29902,7 +30521,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -29912,7 +30531,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -29922,7 +30541,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -29934,7 +30553,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="16" t="s">
         <v>22</v>
@@ -29954,7 +30573,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="17">
         <v>1</v>
@@ -29972,9 +30591,9 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="255"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="265"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="17">
         <v>2</v>
@@ -29984,9 +30603,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="255"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="265"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -29996,7 +30615,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -30006,7 +30625,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -30016,7 +30635,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -30026,7 +30645,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -30036,7 +30655,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -30046,7 +30665,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>0</v>
@@ -30058,7 +30677,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="31" t="s">
         <v>1</v>
@@ -30078,7 +30697,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="17">
         <v>1</v>
@@ -30096,9 +30715,9 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="255"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="265"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="17">
         <v>2</v>
@@ -30108,9 +30727,9 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="255"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H21" s="265"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -30120,7 +30739,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -30130,7 +30749,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -30140,7 +30759,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -30150,7 +30769,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -30160,7 +30779,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -30170,7 +30789,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -30180,7 +30799,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
         <v>0</v>
@@ -30192,7 +30811,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="104" t="s">
         <v>1</v>
@@ -30214,7 +30833,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="17">
         <v>1</v>
@@ -30234,9 +30853,9 @@
       <c r="G32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="255"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="265"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="17">
         <v>2</v>
@@ -30246,9 +30865,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="255"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="265"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -30258,7 +30877,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -30268,7 +30887,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -30278,7 +30897,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -30288,7 +30907,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -30298,7 +30917,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -30308,7 +30927,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -30318,7 +30937,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -30328,7 +30947,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="13"/>
       <c r="B44" s="10" t="s">
         <v>0</v>
@@ -30340,7 +30959,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" s="13"/>
       <c r="B45" s="113" t="s">
         <v>97</v>
@@ -30356,7 +30975,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="13"/>
       <c r="B46" s="17"/>
       <c r="C46" s="117"/>
@@ -30366,7 +30985,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -30376,7 +30995,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -30386,7 +31005,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="1" t="s">
         <v>0</v>
@@ -30398,7 +31017,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="113" t="s">
         <v>6</v>
@@ -30418,7 +31037,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="17"/>
       <c r="C51" s="2"/>
@@ -30428,7 +31047,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -30438,7 +31057,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -30458,18 +31077,19 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A2:Y45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.625" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -30477,7 +31097,7 @@
     <col min="16" max="23" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -30493,7 +31113,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -30509,7 +31129,7 @@
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -30534,7 +31154,7 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -30561,7 +31181,7 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24">
       <c r="A6" s="13"/>
       <c r="B6" s="168" t="s">
         <v>1</v>
@@ -30569,18 +31189,18 @@
       <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="270" t="s">
+      <c r="D6" s="275" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="270"/>
-      <c r="K6" s="270"/>
-      <c r="L6" s="270"/>
-      <c r="M6" s="270"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="275"/>
+      <c r="I6" s="275"/>
+      <c r="J6" s="275"/>
+      <c r="K6" s="275"/>
+      <c r="L6" s="275"/>
+      <c r="M6" s="275"/>
       <c r="N6" s="13"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -30592,7 +31212,7 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24">
       <c r="A7" s="13"/>
       <c r="B7" s="17">
         <v>1</v>
@@ -30633,7 +31253,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24">
       <c r="A8" s="13"/>
       <c r="B8" s="17">
         <v>2</v>
@@ -30674,7 +31294,7 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -30699,7 +31319,7 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -30724,7 +31344,7 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -30749,7 +31369,7 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -30773,7 +31393,7 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -30797,7 +31417,7 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -30822,7 +31442,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -30847,7 +31467,7 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>0</v>
@@ -30874,7 +31494,7 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25">
       <c r="A17" s="13"/>
       <c r="B17" s="215" t="s">
         <v>1</v>
@@ -30882,16 +31502,16 @@
       <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="227" t="s">
+      <c r="D17" s="232" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="228"/>
-      <c r="F17" s="228"/>
-      <c r="G17" s="228"/>
-      <c r="H17" s="228"/>
-      <c r="I17" s="228"/>
-      <c r="J17" s="228"/>
-      <c r="K17" s="287"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="227"/>
       <c r="L17" s="213"/>
       <c r="M17" s="213"/>
       <c r="N17" s="13"/>
@@ -30905,7 +31525,7 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25">
       <c r="A18" s="13"/>
       <c r="B18" s="17">
         <v>1</v>
@@ -30932,7 +31552,7 @@
       <c r="J18" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="K18" s="288"/>
+      <c r="K18" s="228"/>
       <c r="L18" s="67"/>
       <c r="M18" s="67"/>
       <c r="N18" s="13"/>
@@ -30946,7 +31566,7 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25">
       <c r="A19" s="13"/>
       <c r="B19" s="17">
         <v>2</v>
@@ -30959,7 +31579,7 @@
       <c r="H19" s="185"/>
       <c r="I19" s="185"/>
       <c r="J19" s="191"/>
-      <c r="K19" s="288"/>
+      <c r="K19" s="228"/>
       <c r="L19" s="67"/>
       <c r="M19" s="67"/>
       <c r="N19" s="13"/>
@@ -30973,7 +31593,7 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -30998,7 +31618,7 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -31023,7 +31643,7 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -31050,7 +31670,7 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -31077,7 +31697,7 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -31104,7 +31724,7 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25">
       <c r="O25" s="13"/>
       <c r="P25" s="168" t="s">
         <v>1</v>
@@ -31112,17 +31732,17 @@
       <c r="Q25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="236" t="s">
+      <c r="R25" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-      <c r="U25" s="236"/>
-      <c r="V25" s="236"/>
-      <c r="W25" s="236"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="242"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="242"/>
+      <c r="W25" s="242"/>
       <c r="X25" s="13"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25">
       <c r="O26" s="13"/>
       <c r="P26" s="17">
         <v>1</v>
@@ -31133,18 +31753,18 @@
       <c r="R26" s="187" t="s">
         <v>212</v>
       </c>
-      <c r="S26" s="277" t="s">
+      <c r="S26" s="282" t="s">
         <v>213</v>
       </c>
-      <c r="T26" s="278"/>
-      <c r="U26" s="279"/>
-      <c r="V26" s="280" t="s">
+      <c r="T26" s="283"/>
+      <c r="U26" s="284"/>
+      <c r="V26" s="285" t="s">
         <v>214</v>
       </c>
-      <c r="W26" s="281"/>
+      <c r="W26" s="286"/>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25">
       <c r="O27" s="13"/>
       <c r="P27" s="17">
         <v>2</v>
@@ -31155,18 +31775,18 @@
       <c r="R27" s="187" t="s">
         <v>215</v>
       </c>
-      <c r="S27" s="277" t="s">
+      <c r="S27" s="282" t="s">
         <v>216</v>
       </c>
-      <c r="T27" s="278"/>
-      <c r="U27" s="279"/>
-      <c r="V27" s="280" t="s">
+      <c r="T27" s="283"/>
+      <c r="U27" s="284"/>
+      <c r="V27" s="285" t="s">
         <v>217</v>
       </c>
-      <c r="W27" s="281"/>
+      <c r="W27" s="286"/>
       <c r="X27" s="13"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25">
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -31178,7 +31798,7 @@
       <c r="W28" s="174"/>
       <c r="X28" s="13"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:25">
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -31190,7 +31810,7 @@
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25">
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -31202,7 +31822,7 @@
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25">
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -31214,7 +31834,7 @@
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -31230,7 +31850,7 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -31248,7 +31868,7 @@
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -31266,7 +31886,7 @@
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -31284,7 +31904,7 @@
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>0</v>
@@ -31304,7 +31924,7 @@
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="A39" s="13"/>
       <c r="B39" s="183" t="s">
         <v>1</v>
@@ -31312,14 +31932,14 @@
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="227" t="s">
+      <c r="D39" s="232" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="228"/>
-      <c r="I39" s="229"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="233"/>
+      <c r="G39" s="233"/>
+      <c r="H39" s="233"/>
+      <c r="I39" s="234"/>
       <c r="J39" s="182"/>
       <c r="K39" s="182"/>
       <c r="L39" s="182"/>
@@ -31328,7 +31948,7 @@
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="A40" s="13"/>
       <c r="B40" s="17">
         <v>1</v>
@@ -31362,7 +31982,7 @@
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="A41" s="13"/>
       <c r="B41" s="17">
         <v>2</v>
@@ -31392,7 +32012,7 @@
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -31410,7 +32030,7 @@
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -31428,7 +32048,7 @@
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -31446,7 +32066,7 @@
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -31479,6 +32099,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -31490,13 +32111,13 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="11" width="4.125" customWidth="1"/>
     <col min="12" max="17" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21">
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -31518,7 +32139,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:21">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -31540,7 +32161,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -31562,17 +32183,17 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21">
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="282"/>
-      <c r="K8" s="282"/>
+      <c r="F8" s="287"/>
+      <c r="G8" s="287"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
+      <c r="K8" s="287"/>
       <c r="L8" s="182"/>
       <c r="M8" s="182"/>
       <c r="N8" s="182"/>
@@ -31584,13 +32205,13 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="235" t="s">
+      <c r="D9" s="243" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="235"/>
+      <c r="E9" s="243"/>
       <c r="F9" s="184" t="s">
         <v>163</v>
       </c>
@@ -31620,7 +32241,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21">
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -31642,7 +32263,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21">
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -31664,7 +32285,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -31686,7 +32307,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -31708,7 +32329,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -31730,7 +32351,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:19">
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -31749,7 +32370,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:19">
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -31768,7 +32389,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:19">
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -31787,16 +32408,16 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:19">
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="282"/>
-      <c r="G21" s="282"/>
-      <c r="H21" s="282"/>
-      <c r="I21" s="282"/>
-      <c r="J21" s="282"/>
-      <c r="K21" s="282"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="287"/>
+      <c r="K21" s="287"/>
       <c r="L21" s="182"/>
       <c r="M21" s="182"/>
       <c r="N21" s="182"/>
@@ -31806,12 +32427,12 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:19">
       <c r="C22" s="13"/>
-      <c r="D22" s="235" t="s">
+      <c r="D22" s="243" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="235"/>
+      <c r="E22" s="243"/>
       <c r="F22" s="184" t="s">
         <v>187</v>
       </c>
@@ -31835,7 +32456,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:19">
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -31854,7 +32475,7 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:19">
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -31873,7 +32494,7 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:19">
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -31892,7 +32513,7 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:19">
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -31911,7 +32532,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:19">
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -31951,7 +32572,7 @@
       <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="2.75" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
@@ -31961,7 +32582,7 @@
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -31986,7 +32607,7 @@
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
     </row>
-    <row r="2" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="14.25" thickBot="1">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -32014,7 +32635,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="14.25" thickBot="1">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -32044,7 +32665,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="14.25" thickBot="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -32076,7 +32697,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="14.25" thickBot="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -32110,7 +32731,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="14.25" thickBot="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -32148,7 +32769,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="14.25" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -32184,7 +32805,7 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="14.25" thickBot="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -32212,7 +32833,7 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="14.25" thickBot="1">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -32242,7 +32863,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
     </row>
-    <row r="10" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="14.25" thickBot="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -32274,7 +32895,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
     </row>
-    <row r="11" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="14.25" thickBot="1">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -32308,7 +32929,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -32348,7 +32969,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
     </row>
-    <row r="13" spans="1:25" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="14.25" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -32386,7 +33007,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -32412,7 +33033,7 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -32438,7 +33059,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -32464,7 +33085,7 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -32490,7 +33111,7 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25">
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="O18" s="13"/>
@@ -32505,7 +33126,7 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25">
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -32518,7 +33139,7 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25">
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -32531,7 +33152,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25">
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -32544,7 +33165,7 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:25">
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -32557,7 +33178,7 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:25">
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -32570,7 +33191,7 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:25">
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -32599,7 +33220,7 @@
       <selection activeCell="A2" sqref="A2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -32608,7 +33229,7 @@
     <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -32618,7 +33239,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -32630,7 +33251,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="19" t="s">
         <v>1</v>
@@ -32646,7 +33267,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="17">
         <v>1</v>
@@ -32655,12 +33276,12 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="255"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="17">
         <v>2</v>
@@ -32669,12 +33290,12 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="255"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="26">
         <v>3</v>
@@ -32690,7 +33311,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -32700,7 +33321,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -32710,7 +33331,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
         <v>20</v>
@@ -32724,7 +33345,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -32734,7 +33355,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -32744,7 +33365,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -32754,7 +33375,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -32784,14 +33405,14 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.375" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -32801,7 +33422,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -32813,7 +33434,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="75" t="s">
         <v>1</v>
@@ -32829,7 +33450,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="81">
         <v>1</v>
@@ -32838,12 +33459,12 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="255"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="81">
         <v>2</v>
@@ -32852,12 +33473,12 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="255"/>
+      <c r="E6" s="265"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="82">
         <v>3</v>
@@ -32871,7 +33492,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -32899,9 +33520,9 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="154" t="s">
         <v>155</v>
       </c>
@@ -32910,22 +33531,22 @@
       <c r="D3" s="39"/>
       <c r="E3" s="39"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="283" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="288" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="284" t="s">
+      <c r="B4" s="289" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="285" t="s">
+      <c r="C4" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="283"/>
-      <c r="B5" s="284"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="288"/>
+      <c r="B5" s="289"/>
       <c r="C5" s="155" t="s">
         <v>158</v>
       </c>
@@ -32936,7 +33557,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="90">
         <v>1</v>
       </c>
@@ -32954,7 +33575,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="90">
         <v>2</v>
       </c>
@@ -32972,7 +33593,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="90">
         <v>3</v>
       </c>
@@ -32990,7 +33611,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="156">
         <v>4</v>
       </c>
@@ -33022,6 +33643,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3B3859-6BC6-448C-9CD8-4CBF35230BDC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E13"/>
@@ -33030,14 +33678,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5">
       <c r="B3" s="105" t="s">
         <v>75</v>
       </c>
@@ -33047,13 +33695,13 @@
       <c r="D3" s="107"/>
       <c r="E3" s="107"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5">
       <c r="B4" s="107"/>
       <c r="C4" s="107"/>
       <c r="D4" s="107"/>
       <c r="E4" s="107"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="108" t="s">
         <v>76</v>
       </c>
@@ -33061,7 +33709,7 @@
       <c r="D5" s="107"/>
       <c r="E5" s="107"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="109" t="s">
         <v>77</v>
       </c>
@@ -33075,11 +33723,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="110">
         <v>1</v>
       </c>
-      <c r="C7" s="225" t="s">
+      <c r="C7" s="230" t="s">
         <v>81</v>
       </c>
       <c r="D7" s="111" t="s">
@@ -33089,11 +33737,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="110">
         <v>2</v>
       </c>
-      <c r="C8" s="225"/>
+      <c r="C8" s="230"/>
       <c r="D8" s="111" t="s">
         <v>84</v>
       </c>
@@ -33101,11 +33749,11 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="110">
         <v>3</v>
       </c>
-      <c r="C9" s="225"/>
+      <c r="C9" s="230"/>
       <c r="D9" s="111" t="s">
         <v>85</v>
       </c>
@@ -33113,7 +33761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="110">
         <v>4</v>
       </c>
@@ -33127,19 +33775,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="B11" s="110"/>
       <c r="C11" s="110"/>
       <c r="D11" s="111"/>
       <c r="E11" s="110"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5">
       <c r="B12" s="110"/>
       <c r="C12" s="110"/>
       <c r="D12" s="111"/>
       <c r="E12" s="110"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5">
       <c r="B13" s="110"/>
       <c r="C13" s="110"/>
       <c r="D13" s="111"/>
@@ -33151,6 +33799,179 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE39A520-44DB-49A5-A2BE-5D66E6F64D07}">
+  <dimension ref="B3:N22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="30.875" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14">
+      <c r="B3" s="226"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="226"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="226"/>
+      <c r="C4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="226"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="226"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="226"/>
+      <c r="C7" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="226"/>
+      <c r="C8" s="231" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="226"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="10:14">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="10:14">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="10:14">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="10:14">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="10:14">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="10:14">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33162,14 +33983,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -33184,11 +34005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:W75"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
@@ -33197,7 +34018,7 @@
     <col min="20" max="20" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -33206,7 +34027,7 @@
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -33222,7 +34043,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="s">
@@ -33241,7 +34062,7 @@
       <c r="O4" s="29"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="15" t="s">
@@ -33262,7 +34083,7 @@
       <c r="O5" s="29"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -33285,7 +34106,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="15" t="s">
@@ -33304,7 +34125,7 @@
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="15" t="s">
@@ -33325,7 +34146,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -33342,7 +34163,7 @@
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -33359,7 +34180,7 @@
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -33375,7 +34196,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -33384,7 +34205,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -33393,7 +34214,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -33402,7 +34223,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="10:16">
       <c r="J17" s="13"/>
       <c r="K17" s="159" t="s">
         <v>29</v>
@@ -33415,7 +34236,7 @@
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="10:16">
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -33423,7 +34244,7 @@
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
     </row>
-    <row r="19" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="10:16">
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
@@ -33432,7 +34253,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="13"/>
     </row>
-    <row r="20" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="10:16">
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
@@ -33441,7 +34262,7 @@
       <c r="O20" s="29"/>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="10:16">
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
@@ -33450,7 +34271,7 @@
       <c r="O21" s="29"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="10:16">
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -33459,7 +34280,7 @@
       <c r="O22" s="33"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="10:16">
       <c r="J23" s="29"/>
       <c r="K23" s="159" t="s">
         <v>28</v>
@@ -33470,7 +34291,7 @@
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="10:16">
       <c r="J24" s="29"/>
       <c r="K24" s="177"/>
       <c r="L24" s="13"/>
@@ -33479,7 +34300,7 @@
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="10:16">
       <c r="J25" s="29"/>
       <c r="K25" s="178"/>
       <c r="L25" s="13"/>
@@ -33488,7 +34309,7 @@
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="10:16">
       <c r="J26" s="29"/>
       <c r="K26" s="179"/>
       <c r="L26" s="13"/>
@@ -33497,7 +34318,7 @@
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="27" spans="10:16">
       <c r="J27" s="29"/>
       <c r="K27" s="32" t="s">
         <v>25</v>
@@ -33508,7 +34329,7 @@
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="10:16">
       <c r="J28" s="29"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -33517,7 +34338,7 @@
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
     </row>
-    <row r="29" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="10:16">
       <c r="J29" s="29"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -33526,7 +34347,7 @@
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
     </row>
-    <row r="30" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="10:16">
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
@@ -33534,12 +34355,12 @@
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
     </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="10:18">
       <c r="K33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="10:18">
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
       <c r="L35" s="29"/>
@@ -33548,7 +34369,7 @@
       <c r="O35" s="29"/>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="10:18">
       <c r="J36" s="29"/>
       <c r="K36" s="15" t="s">
         <v>29</v>
@@ -33561,7 +34382,7 @@
       <c r="O36" s="29"/>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="10:18">
       <c r="J37" s="29"/>
       <c r="K37" s="34"/>
       <c r="L37" s="29"/>
@@ -33570,7 +34391,7 @@
       <c r="O37" s="33"/>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="10:18">
       <c r="J38" s="29"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -33579,7 +34400,7 @@
       <c r="O38" s="13"/>
       <c r="P38" s="13"/>
     </row>
-    <row r="39" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="10:18">
       <c r="J39" s="29"/>
       <c r="K39" s="35" t="s">
         <v>28</v>
@@ -33590,18 +34411,18 @@
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
     </row>
-    <row r="40" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="10:18">
       <c r="J40" s="29"/>
-      <c r="K40" s="226" t="s">
+      <c r="K40" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="L40" s="226"/>
-      <c r="M40" s="226"/>
-      <c r="N40" s="226"/>
+      <c r="L40" s="231"/>
+      <c r="M40" s="231"/>
+      <c r="N40" s="231"/>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="10:18">
       <c r="J41" s="29"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
@@ -33610,7 +34431,7 @@
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="10:18">
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -33618,7 +34439,7 @@
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="10:18">
       <c r="J43" s="162"/>
       <c r="K43" s="162"/>
       <c r="L43" s="162"/>
@@ -33629,7 +34450,7 @@
       <c r="Q43" s="162"/>
       <c r="R43" s="162"/>
     </row>
-    <row r="44" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="10:18">
       <c r="K44" s="162" t="s">
         <v>209</v>
       </c>
@@ -33640,7 +34461,7 @@
       <c r="P44" s="162"/>
       <c r="Q44" s="162"/>
     </row>
-    <row r="45" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="10:18">
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -33649,7 +34470,7 @@
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="10:18">
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -33658,7 +34479,7 @@
       <c r="O46" s="13"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="10:18">
       <c r="J47" s="13"/>
       <c r="K47" s="173"/>
       <c r="L47" s="173"/>
@@ -33667,20 +34488,20 @@
       <c r="O47" s="13"/>
       <c r="P47" s="13"/>
     </row>
-    <row r="48" spans="10:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="10:18">
       <c r="J48" s="13"/>
-      <c r="K48" s="227" t="s">
+      <c r="K48" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="L48" s="228"/>
-      <c r="M48" s="229"/>
+      <c r="L48" s="233"/>
+      <c r="M48" s="234"/>
       <c r="N48" s="32" t="s">
         <v>25</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
     </row>
-    <row r="49" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="10:16">
       <c r="J49" s="13"/>
       <c r="K49" s="174"/>
       <c r="L49" s="174"/>
@@ -33689,7 +34510,7 @@
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
     </row>
-    <row r="50" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="10:16">
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -33698,7 +34519,7 @@
       <c r="O50" s="13"/>
       <c r="P50" s="13"/>
     </row>
-    <row r="51" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="10:16">
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
       <c r="L51" s="13"/>
@@ -33707,7 +34528,7 @@
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
     </row>
-    <row r="52" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="10:16">
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
       <c r="L52" s="13"/>
@@ -33716,7 +34537,7 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
     </row>
-    <row r="53" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="10:16">
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
@@ -33725,7 +34546,7 @@
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
     </row>
-    <row r="54" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="10:16">
       <c r="J54" s="13"/>
       <c r="K54" s="173"/>
       <c r="L54" s="173"/>
@@ -33734,20 +34555,20 @@
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="10:16">
       <c r="J55" s="13"/>
-      <c r="K55" s="227" t="s">
+      <c r="K55" s="232" t="s">
         <v>28</v>
       </c>
-      <c r="L55" s="228"/>
-      <c r="M55" s="229"/>
+      <c r="L55" s="233"/>
+      <c r="M55" s="234"/>
       <c r="N55" s="32" t="s">
         <v>25</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
     </row>
-    <row r="56" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="10:16">
       <c r="J56" s="13"/>
       <c r="K56" s="174"/>
       <c r="L56" s="174"/>
@@ -33756,7 +34577,7 @@
       <c r="O56" s="13"/>
       <c r="P56" s="13"/>
     </row>
-    <row r="57" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="10:16">
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
       <c r="L57" s="13"/>
@@ -33765,7 +34586,7 @@
       <c r="O57" s="13"/>
       <c r="P57" s="13"/>
     </row>
-    <row r="58" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="10:16">
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
       <c r="L58" s="13"/>
@@ -33774,7 +34595,7 @@
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
     </row>
-    <row r="59" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="10:16">
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
       <c r="L59" s="13"/>
@@ -33783,7 +34604,7 @@
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
     </row>
-    <row r="60" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="10:16">
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
@@ -33792,7 +34613,7 @@
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
     </row>
-    <row r="61" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="10:16">
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
@@ -33801,7 +34622,7 @@
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
     </row>
-    <row r="62" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="10:16">
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
       <c r="L62" s="13"/>
@@ -33810,10 +34631,10 @@
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
     </row>
-    <row r="63" spans="10:16" x14ac:dyDescent="0.15">
+    <row r="63" spans="10:16">
       <c r="J63" s="13"/>
     </row>
-    <row r="65" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="10:23">
       <c r="R65" t="s">
         <v>70</v>
       </c>
@@ -33823,7 +34644,7 @@
       <c r="V65" s="103"/>
       <c r="W65" s="103"/>
     </row>
-    <row r="66" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="10:23">
       <c r="R66" s="41"/>
       <c r="S66" s="41"/>
       <c r="T66" s="41"/>
@@ -33831,7 +34652,7 @@
       <c r="V66" s="41"/>
       <c r="W66" s="103"/>
     </row>
-    <row r="67" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="10:23">
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
@@ -33839,7 +34660,7 @@
       <c r="V67" s="13"/>
       <c r="W67" s="13"/>
     </row>
-    <row r="68" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="10:23">
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
@@ -33847,7 +34668,7 @@
       <c r="V68" s="13"/>
       <c r="W68" s="13"/>
     </row>
-    <row r="69" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="10:23">
       <c r="R69" s="13"/>
       <c r="S69" s="15" t="s">
         <v>71</v>
@@ -33859,7 +34680,7 @@
       <c r="V69" s="13"/>
       <c r="W69" s="13"/>
     </row>
-    <row r="70" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="10:23">
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
@@ -33867,7 +34688,7 @@
       <c r="V70" s="13"/>
       <c r="W70" s="13"/>
     </row>
-    <row r="71" spans="10:23" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="10:23" ht="40.5">
       <c r="R71" s="13"/>
       <c r="S71" s="102" t="s">
         <v>73</v>
@@ -33879,7 +34700,7 @@
       <c r="V71" s="13"/>
       <c r="W71" s="13"/>
     </row>
-    <row r="72" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="10:23">
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
@@ -33887,7 +34708,7 @@
       <c r="V72" s="13"/>
       <c r="W72" s="13"/>
     </row>
-    <row r="73" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="10:23">
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
@@ -33895,7 +34716,7 @@
       <c r="V73" s="13"/>
       <c r="W73" s="13"/>
     </row>
-    <row r="74" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="74" spans="10:23">
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
@@ -33903,7 +34724,7 @@
       <c r="V74" s="13"/>
       <c r="W74" s="13"/>
     </row>
-    <row r="75" spans="10:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="10:23">
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
@@ -33938,30 +34759,30 @@
       <selection activeCell="AD60" sqref="AD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="7" width="5.125" customWidth="1"/>
     <col min="11" max="25" width="3.875" customWidth="1"/>
     <col min="26" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="13"/>
@@ -33972,7 +34793,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
       <c r="C6" s="13"/>
@@ -33983,7 +34804,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26">
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="13"/>
@@ -33994,7 +34815,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="13"/>
@@ -34005,7 +34826,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26">
       <c r="A9" s="29"/>
       <c r="B9" s="59" t="s">
         <v>163</v>
@@ -34028,7 +34849,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="13"/>
@@ -34039,7 +34860,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -34050,7 +34871,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -34061,7 +34882,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -34072,7 +34893,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="59" t="s">
@@ -34085,7 +34906,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="59" t="s">
@@ -34098,7 +34919,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="59" t="s">
@@ -34127,7 +34948,7 @@
       <c r="Y16" s="162"/>
       <c r="Z16" s="162"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="59" t="s">
@@ -34156,7 +34977,7 @@
       <c r="Y17" s="163"/>
       <c r="Z17" s="163"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -34183,7 +35004,7 @@
       <c r="Y18" s="163"/>
       <c r="Z18" s="163"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -34210,7 +35031,7 @@
       <c r="Y19" s="163"/>
       <c r="Z19" s="163"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -34237,7 +35058,7 @@
       <c r="Y20" s="163"/>
       <c r="Z20" s="163"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -34264,7 +35085,7 @@
       <c r="Y21" s="163"/>
       <c r="Z21" s="163"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -34291,7 +35112,7 @@
       <c r="Y22" s="163"/>
       <c r="Z22" s="163"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -34318,7 +35139,7 @@
       <c r="Y23" s="163"/>
       <c r="Z23" s="163"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:26">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -34345,7 +35166,7 @@
       <c r="Y24" s="163"/>
       <c r="Z24" s="163"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:26">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -34372,7 +35193,7 @@
       <c r="Y25" s="163"/>
       <c r="Z25" s="163"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:26">
       <c r="I26" s="13"/>
       <c r="K26" s="162"/>
       <c r="L26" s="163"/>
@@ -34391,7 +35212,7 @@
       <c r="Y26" s="163"/>
       <c r="Z26" s="163"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:26">
       <c r="K27" s="162"/>
       <c r="L27" s="163"/>
       <c r="M27" s="163"/>
@@ -34409,7 +35230,7 @@
       <c r="Y27" s="163"/>
       <c r="Z27" s="163"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:26">
       <c r="K28" s="13"/>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -34427,7 +35248,7 @@
       <c r="Y28" s="29"/>
       <c r="Z28" s="29"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:26">
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
@@ -34445,7 +35266,7 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:26">
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="29"/>
@@ -34463,7 +35284,7 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:26">
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="161"/>
@@ -34481,31 +35302,31 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:26">
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="230" t="s">
+      <c r="M32" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="N32" s="230"/>
-      <c r="O32" s="230"/>
-      <c r="P32" s="230" t="s">
+      <c r="N32" s="237"/>
+      <c r="O32" s="237"/>
+      <c r="P32" s="237" t="s">
         <v>178</v>
       </c>
-      <c r="Q32" s="230"/>
-      <c r="R32" s="230" t="s">
+      <c r="Q32" s="237"/>
+      <c r="R32" s="237" t="s">
         <v>179</v>
       </c>
-      <c r="S32" s="230"/>
-      <c r="T32" s="230"/>
-      <c r="U32" s="230"/>
+      <c r="S32" s="237"/>
+      <c r="T32" s="237"/>
+      <c r="U32" s="237"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="33" spans="11:28">
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="161"/>
@@ -34523,7 +35344,7 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="11:28">
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
       <c r="M34" s="29"/>
@@ -34541,7 +35362,7 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="11:28">
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
@@ -34559,7 +35380,7 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="11:28">
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
@@ -34577,7 +35398,7 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="37" spans="11:28">
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
@@ -34595,7 +35416,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="38" spans="11:28">
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
@@ -34613,7 +35434,7 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="11:28">
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
       <c r="M39" s="13"/>
@@ -34631,7 +35452,7 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="44" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="44" spans="11:28">
       <c r="L44" s="193"/>
       <c r="M44" s="193"/>
       <c r="N44" s="193"/>
@@ -34650,7 +35471,7 @@
       <c r="AA44" s="13"/>
       <c r="AB44" s="13"/>
     </row>
-    <row r="45" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="45" spans="11:28">
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
@@ -34669,7 +35490,7 @@
       <c r="AA45" s="13"/>
       <c r="AB45" s="13"/>
     </row>
-    <row r="46" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="46" spans="11:28">
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
@@ -34688,7 +35509,7 @@
       <c r="AA46" s="13"/>
       <c r="AB46" s="13"/>
     </row>
-    <row r="47" spans="11:28" x14ac:dyDescent="0.15">
+    <row r="47" spans="11:28">
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
@@ -34707,10 +35528,10 @@
       <c r="AA47" s="13"/>
       <c r="AB47" s="13"/>
     </row>
-    <row r="48" spans="11:28" x14ac:dyDescent="0.15">
-      <c r="L48" s="231"/>
-      <c r="M48" s="231"/>
-      <c r="N48" s="232"/>
+    <row r="48" spans="11:28">
+      <c r="L48" s="235"/>
+      <c r="M48" s="235"/>
+      <c r="N48" s="236"/>
       <c r="O48" s="181" t="s">
         <v>163</v>
       </c>
@@ -34738,7 +35559,7 @@
       <c r="AA48" s="13"/>
       <c r="AB48" s="13"/>
     </row>
-    <row r="49" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="49" spans="12:28">
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
@@ -34757,10 +35578,10 @@
       <c r="AA49" s="13"/>
       <c r="AB49" s="13"/>
     </row>
-    <row r="50" spans="12:28" x14ac:dyDescent="0.15">
-      <c r="L50" s="231"/>
-      <c r="M50" s="231"/>
-      <c r="N50" s="232"/>
+    <row r="50" spans="12:28">
+      <c r="L50" s="235"/>
+      <c r="M50" s="235"/>
+      <c r="N50" s="236"/>
       <c r="O50" s="181" t="s">
         <v>226</v>
       </c>
@@ -34784,7 +35605,7 @@
       <c r="AA50" s="13"/>
       <c r="AB50" s="13"/>
     </row>
-    <row r="51" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="51" spans="12:28">
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
@@ -34803,7 +35624,7 @@
       <c r="AA51" s="13"/>
       <c r="AB51" s="13"/>
     </row>
-    <row r="52" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="52" spans="12:28">
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
@@ -34821,7 +35642,7 @@
       <c r="AA52" s="13"/>
       <c r="AB52" s="13"/>
     </row>
-    <row r="53" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="53" spans="12:28">
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
@@ -34840,7 +35661,7 @@
       <c r="AA53" s="13"/>
       <c r="AB53" s="13"/>
     </row>
-    <row r="54" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="54" spans="12:28">
       <c r="L54" s="29"/>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
@@ -34859,7 +35680,7 @@
       <c r="AA54" s="13"/>
       <c r="AB54" s="13"/>
     </row>
-    <row r="55" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="55" spans="12:28">
       <c r="L55" s="29"/>
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
@@ -34878,7 +35699,7 @@
       <c r="AA55" s="13"/>
       <c r="AB55" s="13"/>
     </row>
-    <row r="58" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="58" spans="12:28">
       <c r="L58" s="193"/>
       <c r="M58" s="193"/>
       <c r="N58" s="193"/>
@@ -34897,7 +35718,7 @@
       <c r="AA58" s="13"/>
       <c r="AB58" s="13"/>
     </row>
-    <row r="59" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="59" spans="12:28">
       <c r="L59" s="216"/>
       <c r="M59" s="216"/>
       <c r="N59" s="216"/>
@@ -34916,7 +35737,7 @@
       <c r="AA59" s="13"/>
       <c r="AB59" s="13"/>
     </row>
-    <row r="60" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="60" spans="12:28">
       <c r="L60" s="216"/>
       <c r="M60" s="216"/>
       <c r="N60" s="216"/>
@@ -34935,7 +35756,7 @@
       <c r="AA60" s="13"/>
       <c r="AB60" s="13"/>
     </row>
-    <row r="61" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="61" spans="12:28">
       <c r="L61" s="216"/>
       <c r="M61" s="216"/>
       <c r="N61" s="216"/>
@@ -34954,10 +35775,10 @@
       <c r="AA61" s="13"/>
       <c r="AB61" s="13"/>
     </row>
-    <row r="62" spans="12:28" x14ac:dyDescent="0.15">
-      <c r="L62" s="231"/>
-      <c r="M62" s="231"/>
-      <c r="N62" s="232"/>
+    <row r="62" spans="12:28">
+      <c r="L62" s="235"/>
+      <c r="M62" s="235"/>
+      <c r="N62" s="236"/>
       <c r="O62" s="214" t="s">
         <v>163</v>
       </c>
@@ -34983,11 +35804,11 @@
       <c r="AA62" s="13"/>
       <c r="AB62" s="13"/>
     </row>
-    <row r="63" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="63" spans="12:28">
       <c r="L63" s="216"/>
       <c r="M63" s="216"/>
       <c r="N63" s="216"/>
-      <c r="O63" s="289"/>
+      <c r="O63" s="229"/>
       <c r="P63" s="216"/>
       <c r="Q63" s="216"/>
       <c r="R63" s="216"/>
@@ -35002,7 +35823,7 @@
       <c r="AA63" s="13"/>
       <c r="AB63" s="13"/>
     </row>
-    <row r="64" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="64" spans="12:28">
       <c r="L64" s="216"/>
       <c r="M64" s="216"/>
       <c r="N64" s="216"/>
@@ -35021,7 +35842,7 @@
       <c r="AA64" s="13"/>
       <c r="AB64" s="13"/>
     </row>
-    <row r="65" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="65" spans="12:28">
       <c r="L65" s="216"/>
       <c r="M65" s="216"/>
       <c r="N65" s="216"/>
@@ -35040,7 +35861,7 @@
       <c r="AA65" s="13"/>
       <c r="AB65" s="13"/>
     </row>
-    <row r="66" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="66" spans="12:28">
       <c r="L66" s="216"/>
       <c r="M66" s="216"/>
       <c r="N66" s="216"/>
@@ -35059,7 +35880,7 @@
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
     </row>
-    <row r="67" spans="12:28" x14ac:dyDescent="0.15">
+    <row r="67" spans="12:28">
       <c r="M67" s="216"/>
       <c r="N67" s="216"/>
       <c r="O67" s="216"/>
@@ -35097,11 +35918,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W96" sqref="W96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="5.375" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
@@ -35111,23 +35932,23 @@
     <col min="43" max="45" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="3:21">
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
     </row>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:21">
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:21">
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:21">
       <c r="E4" s="33"/>
       <c r="F4" s="33"/>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:21">
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="29"/>
@@ -35148,7 +35969,7 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:21">
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="29"/>
@@ -35169,7 +35990,7 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:21">
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="29"/>
@@ -35190,7 +36011,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:21">
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="29"/>
@@ -35211,12 +36032,12 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:21">
       <c r="C9" s="13"/>
-      <c r="D9" s="236" t="s">
+      <c r="D9" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="236"/>
+      <c r="E9" s="242"/>
       <c r="F9" s="59" t="s">
         <v>163</v>
       </c>
@@ -35237,10 +36058,10 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="236" t="s">
+      <c r="N9" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="236"/>
+      <c r="O9" s="242"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -35248,7 +36069,7 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="3:21">
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="29"/>
@@ -35281,7 +36102,7 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:21">
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -35302,7 +36123,7 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:21">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -35323,7 +36144,7 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="3:21">
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -35344,7 +36165,7 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:21">
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -35365,7 +36186,7 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="3:21">
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -35386,7 +36207,7 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -35400,7 +36221,7 @@
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13">
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -35414,7 +36235,7 @@
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13">
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -35428,7 +36249,7 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -35442,16 +36263,16 @@
       <c r="L23" s="13"/>
       <c r="M23" s="13"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13">
       <c r="B24" s="13"/>
-      <c r="C24" s="247" t="s">
+      <c r="C24" s="238" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="248"/>
-      <c r="E24" s="237" t="s">
+      <c r="D24" s="239"/>
+      <c r="E24" s="240" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="238"/>
+      <c r="F24" s="241"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -35460,14 +36281,14 @@
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="237" t="s">
+      <c r="E25" s="240" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="238"/>
+      <c r="F25" s="241"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -35476,14 +36297,14 @@
       <c r="L25" s="13"/>
       <c r="M25" s="13"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="237" t="s">
+      <c r="E26" s="240" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="238"/>
+      <c r="F26" s="241"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -35492,14 +36313,14 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="237" t="s">
+      <c r="E27" s="240" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="238"/>
+      <c r="F27" s="241"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -35508,7 +36329,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -35522,7 +36343,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -35536,7 +36357,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:13">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -35550,7 +36371,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -35564,14 +36385,14 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:13">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="247" t="s">
+      <c r="E32" s="238" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="248"/>
+      <c r="F32" s="239"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -35580,14 +36401,14 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:43">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="237" t="s">
+      <c r="E33" s="240" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="238"/>
+      <c r="F33" s="241"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -35596,14 +36417,14 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:43">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="237" t="s">
+      <c r="E34" s="240" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="238"/>
+      <c r="F34" s="241"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -35612,14 +36433,14 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:43">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="237" t="s">
+      <c r="E35" s="240" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="238"/>
+      <c r="F35" s="241"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -35628,14 +36449,14 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:43">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="237" t="s">
+      <c r="E36" s="240" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="238"/>
+      <c r="F36" s="241"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -35644,7 +36465,7 @@
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
     </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:43">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -35658,7 +36479,7 @@
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:43">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -35672,7 +36493,7 @@
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:43">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -35686,7 +36507,7 @@
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:43">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -35700,7 +36521,7 @@
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:43">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -35714,7 +36535,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:43">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -35728,7 +36549,7 @@
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:43">
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -35760,12 +36581,12 @@
       <c r="AP44" s="29"/>
       <c r="AQ44" s="29"/>
     </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:43">
       <c r="B45" s="13"/>
-      <c r="C45" s="236" t="s">
+      <c r="C45" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="236"/>
+      <c r="D45" s="242"/>
       <c r="E45" s="160"/>
       <c r="F45" s="160"/>
       <c r="G45" s="160" t="s">
@@ -35802,7 +36623,7 @@
       <c r="AP45" s="13"/>
       <c r="AQ45" s="13"/>
     </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:43">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -35834,7 +36655,7 @@
       <c r="AP46" s="13"/>
       <c r="AQ46" s="13"/>
     </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:43">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -35866,7 +36687,7 @@
       <c r="AP47" s="13"/>
       <c r="AQ47" s="13"/>
     </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:43">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -35881,32 +36702,32 @@
       <c r="M48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="236" t="s">
+      <c r="AB48" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="AC48" s="236"/>
-      <c r="AD48" s="230" t="s">
+      <c r="AC48" s="242"/>
+      <c r="AD48" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="AE48" s="230"/>
-      <c r="AF48" s="230"/>
-      <c r="AG48" s="230" t="s">
+      <c r="AE48" s="237"/>
+      <c r="AF48" s="237"/>
+      <c r="AG48" s="237" t="s">
         <v>178</v>
       </c>
-      <c r="AH48" s="230"/>
-      <c r="AI48" s="230" t="s">
+      <c r="AH48" s="237"/>
+      <c r="AI48" s="237" t="s">
         <v>179</v>
       </c>
-      <c r="AJ48" s="230"/>
-      <c r="AK48" s="230"/>
-      <c r="AL48" s="230"/>
+      <c r="AJ48" s="237"/>
+      <c r="AK48" s="237"/>
+      <c r="AL48" s="237"/>
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="13"/>
       <c r="AP48" s="13"/>
       <c r="AQ48" s="13"/>
     </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:43">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -35938,7 +36759,7 @@
       <c r="AP49" s="13"/>
       <c r="AQ49" s="13"/>
     </row>
-    <row r="50" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:43">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -35970,7 +36791,7 @@
       <c r="AP50" s="13"/>
       <c r="AQ50" s="13"/>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:43">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -36002,14 +36823,14 @@
       <c r="AP51" s="13"/>
       <c r="AQ51" s="13"/>
     </row>
-    <row r="52" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:43">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="247" t="s">
+      <c r="E52" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="248"/>
+      <c r="F52" s="239"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -36036,12 +36857,12 @@
       <c r="AP52" s="13"/>
       <c r="AQ52" s="13"/>
     </row>
-    <row r="53" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:43">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="239"/>
-      <c r="F53" s="240"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="245"/>
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -36068,12 +36889,12 @@
       <c r="AP53" s="13"/>
       <c r="AQ53" s="13"/>
     </row>
-    <row r="54" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:43">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="239"/>
-      <c r="F54" s="240"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="245"/>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -36100,22 +36921,22 @@
       <c r="AP54" s="13"/>
       <c r="AQ54" s="13"/>
     </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:43">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="237" t="s">
+      <c r="E55" s="240" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="238"/>
-      <c r="G55" s="237" t="s">
+      <c r="F55" s="241"/>
+      <c r="G55" s="240" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="238"/>
-      <c r="I55" s="237" t="s">
+      <c r="H55" s="241"/>
+      <c r="I55" s="240" t="s">
         <v>193</v>
       </c>
-      <c r="J55" s="238"/>
+      <c r="J55" s="241"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -36138,14 +36959,14 @@
       <c r="AP55" s="13"/>
       <c r="AQ55" s="13"/>
     </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:43">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="237" t="s">
+      <c r="E56" s="240" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="238"/>
+      <c r="F56" s="241"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -36154,14 +36975,14 @@
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
     </row>
-    <row r="57" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:43">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="237" t="s">
+      <c r="E57" s="240" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="238"/>
+      <c r="F57" s="241"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -36186,7 +37007,7 @@
       <c r="AN57" s="13"/>
       <c r="AO57" s="13"/>
     </row>
-    <row r="58" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:43">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -36216,7 +37037,7 @@
       <c r="AN58" s="29"/>
       <c r="AO58" s="29"/>
     </row>
-    <row r="59" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:43">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -36246,7 +37067,7 @@
       <c r="AN59" s="29"/>
       <c r="AO59" s="29"/>
     </row>
-    <row r="60" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:43">
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -36276,7 +37097,7 @@
       <c r="AN60" s="29"/>
       <c r="AO60" s="29"/>
     </row>
-    <row r="61" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:43">
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -36290,11 +37111,11 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="Z61" s="29"/>
-      <c r="AA61" s="236" t="s">
+      <c r="AA61" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="AB61" s="236"/>
-      <c r="AC61" s="236"/>
+      <c r="AB61" s="242"/>
+      <c r="AC61" s="242"/>
       <c r="AD61" s="160" t="s">
         <v>163</v>
       </c>
@@ -36320,7 +37141,7 @@
       <c r="AN61" s="29"/>
       <c r="AO61" s="29"/>
     </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:43">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -36350,7 +37171,7 @@
       <c r="AN62" s="29"/>
       <c r="AO62" s="29"/>
     </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:43">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -36380,7 +37201,7 @@
       <c r="AN63" s="29"/>
       <c r="AO63" s="29"/>
     </row>
-    <row r="64" spans="2:43" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:43">
       <c r="Z64" s="13"/>
       <c r="AA64" s="13"/>
       <c r="AB64" s="13"/>
@@ -36398,7 +37219,7 @@
       <c r="AN64" s="29"/>
       <c r="AO64" s="29"/>
     </row>
-    <row r="65" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:42">
       <c r="Z65" s="29"/>
       <c r="AA65" s="29"/>
       <c r="AB65" s="29"/>
@@ -36416,7 +37237,7 @@
       <c r="AN65" s="29"/>
       <c r="AO65" s="29"/>
     </row>
-    <row r="66" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:42">
       <c r="Z66" s="29"/>
       <c r="AA66" s="29"/>
       <c r="AB66" s="29"/>
@@ -36434,7 +37255,7 @@
       <c r="AN66" s="29"/>
       <c r="AO66" s="29"/>
     </row>
-    <row r="67" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:42">
       <c r="Z67" s="29"/>
       <c r="AA67" s="161"/>
       <c r="AB67" s="161"/>
@@ -36452,13 +37273,13 @@
       <c r="AN67" s="29"/>
       <c r="AO67" s="29"/>
     </row>
-    <row r="68" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:42">
       <c r="Z68" s="29"/>
-      <c r="AA68" s="236" t="s">
+      <c r="AA68" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="AB68" s="236"/>
-      <c r="AC68" s="236"/>
+      <c r="AB68" s="242"/>
+      <c r="AC68" s="242"/>
       <c r="AD68" s="160" t="s">
         <v>163</v>
       </c>
@@ -36484,7 +37305,7 @@
       <c r="AN68" s="29"/>
       <c r="AO68" s="29"/>
     </row>
-    <row r="69" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:42">
       <c r="Z69" s="29"/>
       <c r="AA69" s="161"/>
       <c r="AB69" s="161"/>
@@ -36502,7 +37323,7 @@
       <c r="AN69" s="29"/>
       <c r="AO69" s="29"/>
     </row>
-    <row r="70" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:42">
       <c r="Z70" s="29"/>
       <c r="AA70" s="29"/>
       <c r="AB70" s="29"/>
@@ -36520,7 +37341,7 @@
       <c r="AN70" s="29"/>
       <c r="AO70" s="29"/>
     </row>
-    <row r="71" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:42">
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -36550,7 +37371,7 @@
       <c r="AN71" s="29"/>
       <c r="AO71" s="29"/>
     </row>
-    <row r="72" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:42">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -36580,7 +37401,7 @@
       <c r="AN72" s="29"/>
       <c r="AO72" s="29"/>
     </row>
-    <row r="73" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:42">
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -36610,12 +37431,12 @@
       <c r="AN73" s="29"/>
       <c r="AO73" s="29"/>
     </row>
-    <row r="74" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:42">
       <c r="B74" s="13"/>
-      <c r="C74" s="236" t="s">
+      <c r="C74" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="236"/>
+      <c r="D74" s="242"/>
       <c r="E74" s="169"/>
       <c r="F74" s="170"/>
       <c r="G74" s="160" t="s">
@@ -36651,7 +37472,7 @@
       <c r="AO74" s="163"/>
       <c r="AP74" s="162"/>
     </row>
-    <row r="75" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:42">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -36682,7 +37503,7 @@
       <c r="AO75" s="193"/>
       <c r="AP75" s="162"/>
     </row>
-    <row r="76" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:42">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -36713,7 +37534,7 @@
       <c r="AO76" s="29"/>
       <c r="AP76" s="162"/>
     </row>
-    <row r="77" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:42">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -36744,7 +37565,7 @@
       <c r="AO77" s="29"/>
       <c r="AP77" s="162"/>
     </row>
-    <row r="78" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:42">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -36775,7 +37596,7 @@
       <c r="AO78" s="29"/>
       <c r="AP78" s="162"/>
     </row>
-    <row r="79" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:42">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -36789,11 +37610,11 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="Z79" s="29"/>
-      <c r="AA79" s="236" t="s">
+      <c r="AA79" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="AB79" s="236"/>
-      <c r="AC79" s="236"/>
+      <c r="AB79" s="242"/>
+      <c r="AC79" s="242"/>
       <c r="AD79" s="180" t="s">
         <v>163</v>
       </c>
@@ -36819,12 +37640,12 @@
       <c r="AN79" s="29"/>
       <c r="AO79" s="29"/>
     </row>
-    <row r="80" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:42">
       <c r="B80" s="13"/>
-      <c r="C80" s="247" t="s">
+      <c r="C80" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="248"/>
+      <c r="D80" s="239"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -36851,10 +37672,10 @@
       <c r="AN80" s="29"/>
       <c r="AO80" s="29"/>
     </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:41">
       <c r="B81" s="13"/>
-      <c r="C81" s="243"/>
-      <c r="D81" s="244"/>
+      <c r="C81" s="248"/>
+      <c r="D81" s="249"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
@@ -36865,11 +37686,11 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="Z81" s="29"/>
-      <c r="AA81" s="236" t="s">
+      <c r="AA81" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="AB81" s="236"/>
-      <c r="AC81" s="236"/>
+      <c r="AB81" s="242"/>
+      <c r="AC81" s="242"/>
       <c r="AD81" s="180" t="s">
         <v>226</v>
       </c>
@@ -36891,10 +37712,10 @@
       <c r="AN81" s="29"/>
       <c r="AO81" s="29"/>
     </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:41">
       <c r="B82" s="13"/>
-      <c r="C82" s="245"/>
-      <c r="D82" s="246"/>
+      <c r="C82" s="250"/>
+      <c r="D82" s="251"/>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
       <c r="G82" s="13"/>
@@ -36921,10 +37742,10 @@
       <c r="AN82" s="29"/>
       <c r="AO82" s="29"/>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:41">
       <c r="B83" s="13"/>
-      <c r="C83" s="241"/>
-      <c r="D83" s="242"/>
+      <c r="C83" s="246"/>
+      <c r="D83" s="247"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -36950,20 +37771,20 @@
       <c r="AN83" s="29"/>
       <c r="AO83" s="29"/>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:41">
       <c r="B84" s="13"/>
-      <c r="C84" s="237" t="s">
+      <c r="C84" s="240" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="238"/>
-      <c r="E84" s="237" t="s">
+      <c r="D84" s="241"/>
+      <c r="E84" s="240" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="238"/>
-      <c r="G84" s="237" t="s">
+      <c r="F84" s="241"/>
+      <c r="G84" s="240" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="238"/>
+      <c r="H84" s="241"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -36986,7 +37807,7 @@
       <c r="AN84" s="29"/>
       <c r="AO84" s="29"/>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:41">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -37016,7 +37837,7 @@
       <c r="AN85" s="29"/>
       <c r="AO85" s="29"/>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:41">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -37046,7 +37867,7 @@
       <c r="AN86" s="29"/>
       <c r="AO86" s="29"/>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:41">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -37076,7 +37897,7 @@
       <c r="AN87" s="29"/>
       <c r="AO87" s="29"/>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:41">
       <c r="Z90" s="13"/>
       <c r="AA90" s="13"/>
       <c r="AB90" s="13"/>
@@ -37094,7 +37915,7 @@
       <c r="AN90" s="13"/>
       <c r="AO90" s="13"/>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:41">
       <c r="A91" s="172"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -37125,7 +37946,7 @@
       <c r="AN91" s="13"/>
       <c r="AO91" s="13"/>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:41">
       <c r="A92" s="172"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -37156,13 +37977,13 @@
       <c r="AN92" s="13"/>
       <c r="AO92" s="13"/>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:41">
       <c r="A93" s="172"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="235" t="s">
+      <c r="C93" s="243" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="235"/>
+      <c r="D93" s="243"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -37189,13 +38010,13 @@
       <c r="AN93" s="13"/>
       <c r="AO93" s="13"/>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:41">
       <c r="A94" s="172"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="235" t="s">
+      <c r="C94" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="235"/>
+      <c r="D94" s="243"/>
       <c r="E94" s="167" t="s">
         <v>200</v>
       </c>
@@ -37218,11 +38039,11 @@
       <c r="L94" s="160"/>
       <c r="M94" s="13"/>
       <c r="Z94" s="13"/>
-      <c r="AA94" s="236" t="s">
+      <c r="AA94" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="AB94" s="236"/>
-      <c r="AC94" s="236"/>
+      <c r="AB94" s="242"/>
+      <c r="AC94" s="242"/>
       <c r="AD94" s="212" t="s">
         <v>163</v>
       </c>
@@ -37246,7 +38067,7 @@
       <c r="AN94" s="13"/>
       <c r="AO94" s="13"/>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:41">
       <c r="A95" s="172"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -37277,13 +38098,13 @@
       <c r="AN95" s="13"/>
       <c r="AO95" s="13"/>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:41">
       <c r="A96" s="172"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="233" t="s">
+      <c r="C96" s="252" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="234"/>
+      <c r="D96" s="253"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -37310,13 +38131,13 @@
       <c r="AN96" s="13"/>
       <c r="AO96" s="13"/>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:41">
       <c r="A97" s="172"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="235" t="s">
+      <c r="C97" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="235"/>
+      <c r="D97" s="243"/>
       <c r="E97" s="167" t="s">
         <v>206</v>
       </c>
@@ -37357,7 +38178,7 @@
       <c r="AN97" s="13"/>
       <c r="AO97" s="13"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:41">
       <c r="A98" s="172"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -37388,7 +38209,7 @@
       <c r="AN98" s="13"/>
       <c r="AO98" s="13"/>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:41">
       <c r="A99" s="172"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -37419,7 +38240,7 @@
       <c r="AN99" s="13"/>
       <c r="AO99" s="13"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:41">
       <c r="A100" s="172"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -37450,30 +38271,20 @@
       <c r="AN100" s="13"/>
       <c r="AO100" s="13"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:41">
       <c r="A101" s="172"/>
       <c r="B101" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AA94:AC94"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="C93:D93"/>
@@ -37490,14 +38301,24 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AA81:AC81"/>
-    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37513,7 +38334,7 @@
       <selection activeCell="H85" sqref="H85:R100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="6.25" customWidth="1"/>
@@ -37534,7 +38355,7 @@
     <col min="29" max="29" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -37558,7 +38379,7 @@
       <c r="AG1" s="13"/>
       <c r="AH1" s="13"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -37587,7 +38408,7 @@
       <c r="AG2" s="13"/>
       <c r="AH2" s="13"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34">
       <c r="A3" s="1"/>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -37615,7 +38436,7 @@
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34">
       <c r="A4" s="1"/>
       <c r="B4" s="17">
         <v>1</v>
@@ -37624,7 +38445,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="255"/>
+      <c r="E4" s="265"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -37652,14 +38473,14 @@
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34">
       <c r="A5" s="1"/>
       <c r="B5" s="17">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="255"/>
+      <c r="E5" s="265"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -37689,7 +38510,7 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
     </row>
-    <row r="6" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="14.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -37704,11 +38525,11 @@
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="256" t="s">
+      <c r="N6" s="266" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="256"/>
-      <c r="P6" s="256"/>
+      <c r="O6" s="266"/>
+      <c r="P6" s="266"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -37721,18 +38542,18 @@
       <c r="Z6" s="44"/>
       <c r="AA6" s="44"/>
       <c r="AB6" s="13"/>
-      <c r="AC6" s="227" t="s">
+      <c r="AC6" s="232" t="s">
         <v>149</v>
       </c>
-      <c r="AD6" s="228"/>
-      <c r="AE6" s="229"/>
-      <c r="AF6" s="259" t="s">
+      <c r="AD6" s="233"/>
+      <c r="AE6" s="234"/>
+      <c r="AF6" s="254" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="260"/>
-      <c r="AH6" s="261"/>
-    </row>
-    <row r="7" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AG6" s="255"/>
+      <c r="AH6" s="256"/>
+    </row>
+    <row r="7" spans="1:34" ht="14.25" thickBot="1">
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -37796,7 +38617,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34">
       <c r="B8" t="s">
         <v>31</v>
       </c>
@@ -37823,16 +38644,16 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="264" t="s">
+      <c r="V8" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="267" t="s">
+      <c r="W8" s="262" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="267" t="s">
+      <c r="X8" s="262" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" s="267" t="s">
+      <c r="Y8" s="262" t="s">
         <v>105</v>
       </c>
       <c r="Z8" s="136" t="s">
@@ -37845,7 +38666,7 @@
       <c r="AC8" s="153">
         <v>1</v>
       </c>
-      <c r="AD8" s="262" t="s">
+      <c r="AD8" s="257" t="s">
         <v>150</v>
       </c>
       <c r="AE8" s="128" t="s">
@@ -37862,7 +38683,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -37893,10 +38714,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="265"/>
-      <c r="W9" s="268"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
+      <c r="V9" s="260"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="258"/>
+      <c r="Y9" s="258"/>
       <c r="Z9" s="138" t="s">
         <v>108</v>
       </c>
@@ -37907,7 +38728,7 @@
       <c r="AC9" s="153">
         <v>2</v>
       </c>
-      <c r="AD9" s="263"/>
+      <c r="AD9" s="258"/>
       <c r="AE9" s="128" t="s">
         <v>153</v>
       </c>
@@ -37922,7 +38743,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34">
       <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -37935,10 +38756,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="257" t="s">
+      <c r="L10" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="258"/>
+      <c r="M10" s="268"/>
       <c r="N10" s="47">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -37954,8 +38775,8 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="265"/>
-      <c r="W10" s="268"/>
+      <c r="V10" s="260"/>
+      <c r="W10" s="263"/>
       <c r="X10" s="128" t="s">
         <v>110</v>
       </c>
@@ -37989,7 +38810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34">
       <c r="A11" s="13"/>
       <c r="B11" s="28" t="s">
         <v>1</v>
@@ -38008,12 +38829,12 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="265"/>
-      <c r="W11" s="268"/>
-      <c r="X11" s="262" t="s">
+      <c r="V11" s="260"/>
+      <c r="W11" s="263"/>
+      <c r="X11" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="262" t="s">
+      <c r="Y11" s="257" t="s">
         <v>115</v>
       </c>
       <c r="Z11" s="140" t="s">
@@ -38030,7 +38851,7 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34">
       <c r="A12" s="13"/>
       <c r="B12" s="17">
         <v>1</v>
@@ -38053,10 +38874,10 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="265"/>
-      <c r="W12" s="268"/>
-      <c r="X12" s="268"/>
-      <c r="Y12" s="268"/>
+      <c r="V12" s="260"/>
+      <c r="W12" s="263"/>
+      <c r="X12" s="263"/>
+      <c r="Y12" s="263"/>
       <c r="Z12" s="142" t="s">
         <v>118</v>
       </c>
@@ -38071,7 +38892,7 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
     </row>
-    <row r="13" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="14.25" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="17"/>
       <c r="C13" s="2"/>
@@ -38090,10 +38911,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="265"/>
-      <c r="W13" s="268"/>
-      <c r="X13" s="268"/>
-      <c r="Y13" s="268"/>
+      <c r="V13" s="260"/>
+      <c r="W13" s="263"/>
+      <c r="X13" s="263"/>
+      <c r="Y13" s="263"/>
       <c r="Z13" s="144" t="s">
         <v>120</v>
       </c>
@@ -38108,7 +38929,7 @@
       <c r="AG13" s="13"/>
       <c r="AH13" s="13"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34">
       <c r="A14" s="13"/>
       <c r="B14" s="17">
         <v>2</v>
@@ -38131,10 +38952,10 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="264" t="s">
+      <c r="V14" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="W14" s="267" t="s">
+      <c r="W14" s="262" t="s">
         <v>123</v>
       </c>
       <c r="X14" s="129" t="s">
@@ -38157,7 +38978,7 @@
       <c r="AG14" s="13"/>
       <c r="AH14" s="13"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="44"/>
@@ -38176,12 +38997,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="265"/>
-      <c r="W15" s="268"/>
-      <c r="X15" s="262" t="s">
+      <c r="V15" s="260"/>
+      <c r="W15" s="263"/>
+      <c r="X15" s="257" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="262" t="s">
+      <c r="Y15" s="257" t="s">
         <v>129</v>
       </c>
       <c r="Z15" s="140" t="s">
@@ -38198,7 +39019,7 @@
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="14.25" thickBot="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="44"/>
@@ -38217,10 +39038,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="266"/>
-      <c r="W16" s="269"/>
-      <c r="X16" s="269"/>
-      <c r="Y16" s="269"/>
+      <c r="V16" s="261"/>
+      <c r="W16" s="264"/>
+      <c r="X16" s="264"/>
+      <c r="Y16" s="264"/>
       <c r="Z16" s="144" t="s">
         <v>132</v>
       </c>
@@ -38235,7 +39056,7 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="1:34" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="14.25" thickBot="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="44"/>
@@ -38271,7 +39092,7 @@
       <c r="AG17" s="13"/>
       <c r="AH17" s="13"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -38295,7 +39116,7 @@
       <c r="AG18" s="13"/>
       <c r="AH18" s="13"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:34">
       <c r="J19" t="s">
         <v>45</v>
       </c>
@@ -38314,7 +39135,7 @@
       <c r="AG19" s="13"/>
       <c r="AH19" s="13"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:34">
       <c r="U20" s="13"/>
       <c r="V20" s="146"/>
       <c r="W20" s="146"/>
@@ -38330,7 +39151,7 @@
       <c r="AG20" s="13"/>
       <c r="AH20" s="13"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:34">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -38363,7 +39184,7 @@
       <c r="AG21" s="13"/>
       <c r="AH21" s="13"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:34">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -38396,7 +39217,7 @@
       <c r="AG22" s="13"/>
       <c r="AH22" s="13"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:34">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>0</v>
@@ -38431,7 +39252,7 @@
       <c r="AG23" s="13"/>
       <c r="AH23" s="13"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:34">
       <c r="A24" s="13"/>
       <c r="B24" s="28" t="s">
         <v>1</v>
@@ -38468,7 +39289,7 @@
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:34">
       <c r="A25" s="44"/>
       <c r="B25" s="17">
         <v>1</v>
@@ -38487,11 +39308,11 @@
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="252" t="s">
+      <c r="N25" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="253"/>
-      <c r="P25" s="254"/>
+      <c r="O25" s="270"/>
+      <c r="P25" s="271"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -38509,7 +39330,7 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:34">
       <c r="A26" s="44"/>
       <c r="B26" s="17">
         <v>2</v>
@@ -38558,7 +39379,7 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34">
       <c r="A27" s="44"/>
       <c r="B27" s="195">
         <v>3</v>
@@ -38601,7 +39422,7 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34">
       <c r="A28" s="44"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -38639,7 +39460,7 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34">
       <c r="A29" s="44"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -38664,7 +39485,7 @@
       <c r="AG29" s="13"/>
       <c r="AH29" s="13"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34">
       <c r="A30" s="44"/>
       <c r="B30" s="13" t="s">
         <v>0</v>
@@ -38691,7 +39512,7 @@
       <c r="AG30" s="13"/>
       <c r="AH30" s="13"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34">
       <c r="A31" s="44"/>
       <c r="B31" s="28" t="s">
         <v>1</v>
@@ -38720,7 +39541,7 @@
       <c r="AG31" s="13"/>
       <c r="AH31" s="13"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34">
       <c r="A32" s="44"/>
       <c r="B32" s="17">
         <v>1</v>
@@ -38749,7 +39570,7 @@
       <c r="AG32" s="13"/>
       <c r="AH32" s="13"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:34">
       <c r="A33" s="44"/>
       <c r="B33" s="17">
         <v>2</v>
@@ -38778,7 +39599,7 @@
       <c r="AG33" s="13"/>
       <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:34">
       <c r="A34" s="13"/>
       <c r="B34" s="61"/>
       <c r="C34" s="61"/>
@@ -38803,7 +39624,7 @@
       <c r="AG34" s="13"/>
       <c r="AH34" s="13"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:34">
       <c r="A35" s="13"/>
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
@@ -38822,7 +39643,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:34">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -38832,7 +39653,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:34">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -38842,7 +39663,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:34">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -38852,7 +39673,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:34">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -38865,7 +39686,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:34">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -38874,7 +39695,7 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:34">
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -38888,7 +39709,7 @@
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:34">
       <c r="I42" s="13"/>
       <c r="J42" s="52"/>
       <c r="K42" s="45"/>
@@ -38899,7 +39720,7 @@
       <c r="P42" s="44"/>
       <c r="Q42" s="13"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:34">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -38908,7 +39729,7 @@
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="231"/>
+      <c r="J43" s="235"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
       <c r="M43" s="89"/>
@@ -38916,7 +39737,7 @@
       <c r="O43" s="89"/>
       <c r="P43" s="13"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:34">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -38925,7 +39746,7 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="231"/>
+      <c r="J44" s="235"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
       <c r="M44" s="87"/>
@@ -38933,7 +39754,7 @@
       <c r="O44" s="87"/>
       <c r="P44" s="13"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:34">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -38950,7 +39771,7 @@
       <c r="O45" s="86"/>
       <c r="P45" s="13"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:34">
       <c r="A46" s="13"/>
       <c r="B46" s="64" t="s">
         <v>0</v>
@@ -38969,7 +39790,7 @@
       <c r="O46" s="86"/>
       <c r="P46" s="13"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:34">
       <c r="A47" s="13"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62"/>
@@ -38989,7 +39810,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:34">
       <c r="A48" s="13"/>
       <c r="B48" s="63"/>
       <c r="C48" s="63"/>
@@ -38999,21 +39820,21 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="250" t="s">
+      <c r="K48" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="250" t="s">
+      <c r="L48" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="252" t="s">
+      <c r="M48" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="253"/>
-      <c r="O48" s="254"/>
+      <c r="N48" s="270"/>
+      <c r="O48" s="271"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20">
       <c r="A49" s="13"/>
       <c r="B49" s="28" t="s">
         <v>1</v>
@@ -39027,8 +39848,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="251"/>
-      <c r="L49" s="251"/>
+      <c r="K49" s="273"/>
+      <c r="L49" s="273"/>
       <c r="M49" s="54" t="s">
         <v>39</v>
       </c>
@@ -39041,7 +39862,7 @@
       <c r="P49" s="89"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" s="13"/>
       <c r="B50" s="17">
         <v>1</v>
@@ -39074,7 +39895,7 @@
       <c r="P50" s="87"/>
       <c r="Q50" s="13"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="13"/>
       <c r="B51" s="17">
         <v>2</v>
@@ -39105,7 +39926,7 @@
       <c r="P51" s="86"/>
       <c r="Q51" s="13"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -39123,7 +39944,7 @@
       <c r="P52" s="86"/>
       <c r="Q52" s="13"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -39141,7 +39962,7 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -39160,7 +39981,7 @@
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -39176,17 +39997,17 @@
       <c r="L55" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="252" t="s">
+      <c r="M55" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="253"/>
-      <c r="O55" s="254"/>
+      <c r="N55" s="270"/>
+      <c r="O55" s="271"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -39203,7 +40024,7 @@
       <c r="O56" s="101"/>
       <c r="P56" s="13"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -39231,7 +40052,7 @@
       </c>
       <c r="P57" s="13"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -39259,7 +40080,7 @@
       </c>
       <c r="P58" s="13"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -39269,7 +40090,7 @@
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -39279,7 +40100,7 @@
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20">
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -39289,7 +40110,7 @@
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20">
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -39299,7 +40120,7 @@
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20">
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -39309,11 +40130,11 @@
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20">
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
     </row>
-    <row r="65" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="9:18">
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -39325,7 +40146,7 @@
       <c r="Q65" s="13"/>
       <c r="R65" s="13"/>
     </row>
-    <row r="66" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="9:18">
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -39337,7 +40158,7 @@
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
     </row>
-    <row r="67" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="67" spans="9:18">
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -39349,7 +40170,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
     </row>
-    <row r="68" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="68" spans="9:18">
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -39361,7 +40182,7 @@
       <c r="Q68" s="13"/>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="9:18">
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
@@ -39373,7 +40194,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="9:18">
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
@@ -39385,7 +40206,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="13"/>
     </row>
-    <row r="71" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="71" spans="9:18">
       <c r="I71" s="13"/>
       <c r="J71" s="13" t="s">
         <v>98</v>
@@ -39399,7 +40220,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="9:18">
       <c r="I72" s="13"/>
       <c r="J72" s="73"/>
       <c r="K72" s="118" t="s">
@@ -39417,7 +40238,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="13"/>
     </row>
-    <row r="73" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="73" spans="9:18">
       <c r="I73" s="13"/>
       <c r="J73" s="73"/>
       <c r="K73" s="17">
@@ -39435,7 +40256,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
     </row>
-    <row r="74" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="9:18">
       <c r="I74" s="13"/>
       <c r="J74" s="73"/>
       <c r="K74" s="17">
@@ -39449,7 +40270,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
     </row>
-    <row r="75" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="9:18">
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
@@ -39461,7 +40282,7 @@
       <c r="Q75" s="13"/>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="76" spans="9:18">
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
@@ -39473,7 +40294,7 @@
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
     </row>
-    <row r="77" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="9:18">
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
@@ -39485,7 +40306,7 @@
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
     </row>
-    <row r="78" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="78" spans="9:18">
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
@@ -39496,7 +40317,7 @@
       <c r="P78" s="13"/>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="79" spans="9:18">
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
@@ -39507,7 +40328,7 @@
       <c r="P79" s="13"/>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="9:18" x14ac:dyDescent="0.15">
+    <row r="80" spans="9:18">
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
@@ -39518,7 +40339,7 @@
       <c r="P80" s="13"/>
       <c r="Q80" s="13"/>
     </row>
-    <row r="81" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="7:20">
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
@@ -39527,14 +40348,14 @@
       <c r="P81" s="13"/>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="82" spans="7:20">
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="83" spans="7:20">
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
@@ -39550,7 +40371,7 @@
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="84" spans="7:20">
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
@@ -39566,7 +40387,7 @@
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="7:20">
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
@@ -39582,7 +40403,7 @@
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="7:20">
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
@@ -39600,35 +40421,35 @@
       <c r="S86" s="13"/>
       <c r="T86" s="13"/>
     </row>
-    <row r="87" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="7:20">
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="250" t="s">
+      <c r="K87" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="L87" s="250" t="s">
+      <c r="L87" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="M87" s="252" t="s">
+      <c r="M87" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="253"/>
-      <c r="O87" s="254"/>
+      <c r="N87" s="270"/>
+      <c r="O87" s="271"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
       <c r="T87" s="13"/>
     </row>
-    <row r="88" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="7:20">
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="251"/>
-      <c r="L88" s="251"/>
+      <c r="K88" s="273"/>
+      <c r="L88" s="273"/>
       <c r="M88" s="54" t="s">
         <v>39</v>
       </c>
@@ -39644,25 +40465,25 @@
       <c r="S88" s="13"/>
       <c r="T88" s="13"/>
     </row>
-    <row r="89" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="7:20">
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="249" t="s">
+      <c r="K89" s="274" t="s">
         <v>235</v>
       </c>
-      <c r="L89" s="249"/>
-      <c r="M89" s="249"/>
-      <c r="N89" s="249"/>
-      <c r="O89" s="249"/>
+      <c r="L89" s="274"/>
+      <c r="M89" s="274"/>
+      <c r="N89" s="274"/>
+      <c r="O89" s="274"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
     </row>
-    <row r="90" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="7:20">
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
@@ -39689,7 +40510,7 @@
       <c r="S90" s="13"/>
       <c r="T90" s="13"/>
     </row>
-    <row r="91" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="7:20">
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
@@ -39716,25 +40537,25 @@
       <c r="S91" s="13"/>
       <c r="T91" s="13"/>
     </row>
-    <row r="92" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="7:20">
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="249" t="s">
+      <c r="K92" s="274" t="s">
         <v>236</v>
       </c>
-      <c r="L92" s="249"/>
-      <c r="M92" s="249"/>
-      <c r="N92" s="249"/>
-      <c r="O92" s="249"/>
+      <c r="L92" s="274"/>
+      <c r="M92" s="274"/>
+      <c r="N92" s="274"/>
+      <c r="O92" s="274"/>
       <c r="P92" s="13"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
       <c r="T92" s="13"/>
     </row>
-    <row r="93" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="7:20">
       <c r="G93" s="13"/>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
@@ -39761,7 +40582,7 @@
       <c r="S93" s="13"/>
       <c r="T93" s="13"/>
     </row>
-    <row r="94" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="7:20">
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
@@ -39788,7 +40609,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="7:20">
       <c r="G95" s="13"/>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
@@ -39815,7 +40636,7 @@
       <c r="S95" s="13"/>
       <c r="T95" s="13"/>
     </row>
-    <row r="96" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="7:20">
       <c r="G96" s="13"/>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
@@ -39831,7 +40652,7 @@
       <c r="S96" s="13"/>
       <c r="T96" s="13"/>
     </row>
-    <row r="97" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="7:20">
       <c r="G97" s="13"/>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
@@ -39847,7 +40668,7 @@
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
     </row>
-    <row r="98" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="7:20">
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
@@ -39863,7 +40684,7 @@
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
     </row>
-    <row r="99" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="7:20">
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
@@ -39879,7 +40700,7 @@
       <c r="S99" s="13"/>
       <c r="T99" s="13"/>
     </row>
-    <row r="100" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="7:20">
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
@@ -39895,7 +40716,7 @@
       <c r="S100" s="13"/>
       <c r="T100" s="13"/>
     </row>
-    <row r="101" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="7:20">
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
@@ -39911,7 +40732,7 @@
       <c r="S101" s="13"/>
       <c r="T101" s="13"/>
     </row>
-    <row r="102" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="7:20">
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
@@ -39927,7 +40748,7 @@
       <c r="S102" s="13"/>
       <c r="T102" s="13"/>
     </row>
-    <row r="103" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="7:20">
       <c r="G103" s="13"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
@@ -39943,7 +40764,7 @@
       <c r="S103" s="13"/>
       <c r="T103" s="13"/>
     </row>
-    <row r="104" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="7:20">
       <c r="G104" s="13"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
@@ -39959,7 +40780,7 @@
       <c r="S104" s="13"/>
       <c r="T104" s="13"/>
     </row>
-    <row r="105" spans="7:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="7:20">
       <c r="G105" s="13"/>
       <c r="H105" s="13"/>
       <c r="R105" s="13"/>
@@ -39968,6 +40789,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -39981,20 +40816,6 @@
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
     <mergeCell ref="V8:V13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K89:O89"/>
-    <mergeCell ref="K92:O92"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:O87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -40012,16 +40833,16 @@
       <selection activeCell="D10" sqref="D10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="9" width="7.125" customWidth="1"/>
     <col min="13" max="22" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -40033,7 +40854,7 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -40045,7 +40866,7 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -40057,7 +40878,7 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -40069,7 +40890,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -40081,7 +40902,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
@@ -40105,7 +40926,7 @@
       <c r="I10" s="70"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -40125,7 +40946,7 @@
       <c r="I11" s="70"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -40137,7 +40958,7 @@
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -40149,7 +40970,7 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -40161,7 +40982,7 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -40173,7 +40994,7 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -40185,7 +41006,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -40197,7 +41018,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -40209,7 +41030,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -40221,7 +41042,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -40233,7 +41054,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -40245,7 +41066,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -40257,7 +41078,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -40269,7 +41090,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -40281,7 +41102,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
@@ -40294,7 +41115,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="28" t="s">
@@ -40315,7 +41136,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="28" t="s">
@@ -40334,7 +41155,7 @@
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -40345,7 +41166,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -40356,7 +41177,7 @@
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -40367,10 +41188,10 @@
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="13"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -40383,7 +41204,7 @@
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -40396,7 +41217,7 @@
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -40409,7 +41230,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -40422,7 +41243,7 @@
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -40435,7 +41256,7 @@
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="13"/>
       <c r="B40" s="62" t="s">
         <v>60</v>
@@ -40460,7 +41281,7 @@
       <c r="J40" s="70"/>
       <c r="K40" s="13"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -40481,7 +41302,7 @@
       <c r="J41" s="70"/>
       <c r="K41" s="13"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -40494,7 +41315,7 @@
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -40507,7 +41328,7 @@
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -40520,7 +41341,7 @@
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -40533,7 +41354,7 @@
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="62" t="s">
@@ -40548,7 +41369,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="62"/>
@@ -40561,7 +41382,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="62"/>
@@ -40574,7 +41395,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="28" t="s">
@@ -40597,7 +41418,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="28" t="s">
@@ -40618,7 +41439,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -40631,7 +41452,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -40644,7 +41465,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -40657,7 +41478,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -40670,7 +41491,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -40683,7 +41504,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -40696,7 +41517,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -40709,7 +41530,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="62" t="s">
@@ -40724,7 +41545,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="62"/>
@@ -40737,7 +41558,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="62"/>
@@ -40750,7 +41571,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="194" t="s">
@@ -40773,7 +41594,7 @@
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="194" t="s">
@@ -40794,7 +41615,7 @@
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -40807,7 +41628,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -40820,7 +41641,7 @@
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -40833,7 +41654,7 @@
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -40846,7 +41667,7 @@
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -40859,7 +41680,7 @@
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -40872,7 +41693,7 @@
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -40885,7 +41706,7 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -40898,7 +41719,7 @@
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -40911,7 +41732,7 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -40923,7 +41744,7 @@
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -40935,7 +41756,7 @@
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -40947,7 +41768,7 @@
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -40959,7 +41780,7 @@
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -40971,7 +41792,7 @@
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -40983,7 +41804,7 @@
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
         <v>60</v>
@@ -40997,12 +41818,12 @@
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10">
       <c r="A83" s="13"/>
-      <c r="B83" s="270" t="s">
+      <c r="B83" s="275" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="270"/>
+      <c r="C83" s="275"/>
       <c r="D83" s="69" t="s">
         <v>56</v>
       </c>
@@ -41019,9 +41840,9 @@
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10">
       <c r="A84" s="13"/>
-      <c r="B84" s="250" t="s">
+      <c r="B84" s="272" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="95" t="s">
@@ -41041,9 +41862,9 @@
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10">
       <c r="A85" s="13"/>
-      <c r="B85" s="271"/>
+      <c r="B85" s="276"/>
       <c r="C85" s="96" t="s">
         <v>65</v>
       </c>
@@ -41061,9 +41882,9 @@
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10">
       <c r="A86" s="13"/>
-      <c r="B86" s="251"/>
+      <c r="B86" s="273"/>
       <c r="C86" s="97" t="s">
         <v>66</v>
       </c>
@@ -41081,7 +41902,7 @@
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -41093,7 +41914,7 @@
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -41105,7 +41926,7 @@
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
         <v>60</v>
@@ -41119,7 +41940,7 @@
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10">
       <c r="A90" s="13"/>
       <c r="B90" s="78" t="s">
         <v>54</v>
@@ -41141,9 +41962,9 @@
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10">
       <c r="A91" s="13"/>
-      <c r="B91" s="250" t="s">
+      <c r="B91" s="272" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="99"/>
@@ -41161,9 +41982,9 @@
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10">
       <c r="A92" s="13"/>
-      <c r="B92" s="271"/>
+      <c r="B92" s="276"/>
       <c r="C92" s="99"/>
       <c r="D92" s="98">
         <v>15</v>
@@ -41179,9 +42000,9 @@
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10">
       <c r="A93" s="13"/>
-      <c r="B93" s="251"/>
+      <c r="B93" s="273"/>
       <c r="C93" s="99"/>
       <c r="D93" s="94" t="s">
         <v>67</v>
@@ -41197,7 +42018,7 @@
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -41209,7 +42030,7 @@
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -41221,7 +42042,7 @@
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -41233,7 +42054,7 @@
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -41245,7 +42066,7 @@
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:10">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -41257,7 +42078,7 @@
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:10">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -41269,7 +42090,7 @@
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:10">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -41281,7 +42102,7 @@
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:10">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -41293,7 +42114,7 @@
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:10">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -41305,7 +42126,7 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:10">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -41317,7 +42138,7 @@
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:10">
       <c r="A105" s="13"/>
       <c r="B105" s="13" t="s">
         <v>60</v>
@@ -41341,7 +42162,7 @@
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:10">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="190" t="s">
@@ -41363,7 +42184,7 @@
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:10">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -41375,7 +42196,7 @@
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:10">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -41387,7 +42208,7 @@
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:10">
       <c r="A109" s="13"/>
       <c r="B109" s="13" t="s">
         <v>60</v>
@@ -41411,7 +42232,7 @@
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:10">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="190" t="s">
@@ -41433,7 +42254,7 @@
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:10">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -41445,7 +42266,7 @@
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:10">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -41457,7 +42278,7 @@
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:24">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -41469,7 +42290,7 @@
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:24">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -41481,7 +42302,7 @@
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:24">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -41493,7 +42314,7 @@
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:24">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -41505,7 +42326,7 @@
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:24">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -41517,12 +42338,12 @@
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:24">
       <c r="L119" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:24">
       <c r="J120" s="13"/>
       <c r="K120" s="13"/>
       <c r="L120" s="13"/>
@@ -41539,7 +42360,7 @@
       <c r="W120" s="13"/>
       <c r="X120" s="13"/>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:24">
       <c r="A121" s="162"/>
       <c r="B121" s="162"/>
       <c r="C121" s="162"/>
@@ -41565,7 +42386,7 @@
       <c r="W121" s="13"/>
       <c r="X121" s="13"/>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:24">
       <c r="A122" s="162"/>
       <c r="B122" s="162"/>
       <c r="C122" s="162"/>
@@ -41591,7 +42412,7 @@
       <c r="W122" s="13"/>
       <c r="X122" s="13"/>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:24">
       <c r="A123" s="162"/>
       <c r="B123" s="162"/>
       <c r="C123" s="162"/>
@@ -41617,7 +42438,7 @@
       <c r="W123" s="13"/>
       <c r="X123" s="13"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:24">
       <c r="A124" s="162"/>
       <c r="B124" s="162"/>
       <c r="C124" s="162"/>
@@ -41645,7 +42466,7 @@
       <c r="W124" s="13"/>
       <c r="X124" s="13"/>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:24">
       <c r="A125" s="162"/>
       <c r="B125" s="162"/>
       <c r="C125" s="162"/>
@@ -41660,7 +42481,7 @@
       <c r="L125" s="201" t="s">
         <v>54</v>
       </c>
-      <c r="M125" s="272" t="s">
+      <c r="M125" s="277" t="s">
         <v>240</v>
       </c>
       <c r="N125" s="69" t="s">
@@ -41675,7 +42496,7 @@
       <c r="Q125" s="197" t="s">
         <v>59</v>
       </c>
-      <c r="R125" s="272" t="s">
+      <c r="R125" s="277" t="s">
         <v>241</v>
       </c>
       <c r="S125" s="69" t="s">
@@ -41693,7 +42514,7 @@
       <c r="W125" s="13"/>
       <c r="X125" s="13"/>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:24">
       <c r="A126" s="162"/>
       <c r="B126" s="162"/>
       <c r="C126" s="162"/>
@@ -41708,7 +42529,7 @@
       <c r="L126" s="201" t="s">
         <v>55</v>
       </c>
-      <c r="M126" s="273"/>
+      <c r="M126" s="278"/>
       <c r="N126" s="68">
         <v>0.7</v>
       </c>
@@ -41721,7 +42542,7 @@
       <c r="Q126" s="198">
         <v>0.1</v>
       </c>
-      <c r="R126" s="273"/>
+      <c r="R126" s="278"/>
       <c r="S126" s="68">
         <v>0.1</v>
       </c>
@@ -41737,7 +42558,7 @@
       <c r="W126" s="13"/>
       <c r="X126" s="13"/>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:24">
       <c r="A127" s="162"/>
       <c r="B127" s="162"/>
       <c r="C127" s="162"/>
@@ -41763,7 +42584,7 @@
       <c r="W127" s="13"/>
       <c r="X127" s="13"/>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:24">
       <c r="A128" s="162"/>
       <c r="B128" s="162"/>
       <c r="C128" s="162"/>
@@ -41789,7 +42610,7 @@
       <c r="W128" s="13"/>
       <c r="X128" s="13"/>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:24">
       <c r="A129" s="162"/>
       <c r="B129" s="162"/>
       <c r="C129" s="162"/>
@@ -41815,7 +42636,7 @@
       <c r="W129" s="13"/>
       <c r="X129" s="13"/>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:24">
       <c r="A130" s="162"/>
       <c r="B130" s="162"/>
       <c r="C130" s="162"/>
@@ -41841,7 +42662,7 @@
       <c r="W130" s="13"/>
       <c r="X130" s="13"/>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:24">
       <c r="A131" s="162"/>
       <c r="B131" s="162"/>
       <c r="C131" s="162"/>
@@ -41867,7 +42688,7 @@
       <c r="W131" s="13"/>
       <c r="X131" s="13"/>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:24">
       <c r="A132" s="162"/>
       <c r="B132" s="162"/>
       <c r="C132" s="162"/>
@@ -41893,7 +42714,7 @@
       <c r="W132" s="13"/>
       <c r="X132" s="13"/>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:24">
       <c r="A133" s="162"/>
       <c r="B133" s="162"/>
       <c r="C133" s="162"/>
@@ -41919,7 +42740,7 @@
       <c r="W133" s="13"/>
       <c r="X133" s="13"/>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:24">
       <c r="A134" s="162"/>
       <c r="B134" s="162"/>
       <c r="C134" s="162"/>
@@ -41945,7 +42766,7 @@
       <c r="W134" s="13"/>
       <c r="X134" s="13"/>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:24">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -41995,12 +42816,12 @@
       <selection activeCell="A49" sqref="A49:N51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="11" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -42013,7 +42834,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -42029,7 +42850,7 @@
       <c r="M4" s="172"/>
       <c r="N4" s="172"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>0</v>
@@ -42047,15 +42868,15 @@
       <c r="M5" s="172"/>
       <c r="N5" s="172"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="13"/>
       <c r="B6" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="233" t="s">
+      <c r="C6" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="234"/>
+      <c r="D6" s="253"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -42067,11 +42888,11 @@
       <c r="M6" s="172"/>
       <c r="N6" s="172"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="13"/>
       <c r="B7" s="188"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="240"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="245"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -42083,11 +42904,11 @@
       <c r="M7" s="172"/>
       <c r="N7" s="172"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="13"/>
       <c r="B8" s="188"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="245"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -42099,7 +42920,7 @@
       <c r="M8" s="172"/>
       <c r="N8" s="172"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -42115,7 +42936,7 @@
       <c r="M9" s="172"/>
       <c r="N9" s="172"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -42131,7 +42952,7 @@
       <c r="M10" s="172"/>
       <c r="N10" s="172"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
         <v>0</v>
@@ -42149,15 +42970,15 @@
       <c r="M11" s="172"/>
       <c r="N11" s="172"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14">
       <c r="A12" s="13"/>
       <c r="B12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="233" t="s">
+      <c r="C12" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="234"/>
+      <c r="D12" s="253"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -42169,15 +42990,15 @@
       <c r="M12" s="172"/>
       <c r="N12" s="172"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14">
       <c r="A13" s="13"/>
       <c r="B13" s="188">
         <v>1</v>
       </c>
-      <c r="C13" s="239" t="s">
+      <c r="C13" s="244" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="240"/>
+      <c r="D13" s="245"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -42189,15 +43010,15 @@
       <c r="M13" s="172"/>
       <c r="N13" s="172"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14">
       <c r="A14" s="13"/>
       <c r="B14" s="188">
         <v>2</v>
       </c>
-      <c r="C14" s="239" t="s">
+      <c r="C14" s="244" t="s">
         <v>232</v>
       </c>
-      <c r="D14" s="240"/>
+      <c r="D14" s="245"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -42209,7 +43030,7 @@
       <c r="M14" s="172"/>
       <c r="N14" s="172"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="13"/>
       <c r="B15" s="195">
         <v>3</v>
@@ -42229,7 +43050,7 @@
       <c r="M15" s="172"/>
       <c r="N15" s="172"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -42245,7 +43066,7 @@
       <c r="M16" s="172"/>
       <c r="N16" s="172"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -42261,7 +43082,7 @@
       <c r="M17" s="172"/>
       <c r="N17" s="172"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -42277,7 +43098,7 @@
       <c r="M18" s="172"/>
       <c r="N18" s="172"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -42293,7 +43114,7 @@
       <c r="M19" s="172"/>
       <c r="N19" s="172"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -42309,7 +43130,7 @@
       <c r="M20" s="172"/>
       <c r="N20" s="172"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -42325,7 +43146,7 @@
       <c r="M21" s="172"/>
       <c r="N21" s="172"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -42341,7 +43162,7 @@
       <c r="M22" s="172"/>
       <c r="N22" s="172"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -42357,7 +43178,7 @@
       <c r="M23" s="172"/>
       <c r="N23" s="172"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -42373,7 +43194,7 @@
       <c r="M24" s="172"/>
       <c r="N24" s="172"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -42389,7 +43210,7 @@
       <c r="M25" s="172"/>
       <c r="N25" s="172"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -42405,7 +43226,7 @@
       <c r="M26" s="172"/>
       <c r="N26" s="172"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -42421,12 +43242,12 @@
       <c r="M27" s="172"/>
       <c r="N27" s="172"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14">
       <c r="L28" s="172"/>
       <c r="M28" s="172"/>
       <c r="N28" s="172"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -42442,7 +43263,7 @@
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>0</v>
@@ -42460,15 +43281,15 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14">
       <c r="A33" s="13"/>
       <c r="B33" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="233" t="s">
+      <c r="C33" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="234"/>
+      <c r="D33" s="253"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -42480,11 +43301,11 @@
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14">
       <c r="A34" s="13"/>
       <c r="B34" s="188"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
@@ -42496,11 +43317,11 @@
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14">
       <c r="A35" s="13"/>
       <c r="B35" s="188"/>
-      <c r="C35" s="239"/>
-      <c r="D35" s="240"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="245"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
@@ -42512,11 +43333,11 @@
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14">
       <c r="A36" s="13"/>
       <c r="B36" s="188"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
+      <c r="C36" s="231"/>
+      <c r="D36" s="231"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
@@ -42528,11 +43349,11 @@
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14">
       <c r="A37" s="13"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="274"/>
-      <c r="D37" s="274"/>
+      <c r="C37" s="279"/>
+      <c r="D37" s="279"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -42544,7 +43365,7 @@
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -42560,7 +43381,7 @@
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -42576,15 +43397,15 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14">
       <c r="A40" s="13"/>
       <c r="B40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="233" t="s">
+      <c r="C40" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="234"/>
+      <c r="D40" s="253"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -42596,15 +43417,15 @@
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14">
       <c r="A41" s="13"/>
       <c r="B41" s="188">
         <v>1</v>
       </c>
-      <c r="C41" s="239" t="s">
+      <c r="C41" s="244" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="240"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
@@ -42616,15 +43437,15 @@
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14">
       <c r="A42" s="13"/>
       <c r="B42" s="188">
         <v>2</v>
       </c>
-      <c r="C42" s="239" t="s">
+      <c r="C42" s="244" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="240"/>
+      <c r="D42" s="245"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
@@ -42636,11 +43457,11 @@
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14">
       <c r="A43" s="13"/>
       <c r="B43" s="188"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="231"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -42652,7 +43473,7 @@
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -42668,7 +43489,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -42684,7 +43505,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -42700,7 +43521,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -42716,7 +43537,7 @@
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -42732,7 +43553,7 @@
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -42748,7 +43569,7 @@
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -42764,7 +43585,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -42782,6 +43603,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
@@ -42791,12 +43618,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/site/sphinx/memo/images.xlsx
+++ b/src/site/sphinx/memo/images.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\workspace2019-03\git_xlsmapper\src\site\sphinx\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77BBF3E-C7E0-4519-B907-EEC84F70479E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B30897B-B984-4F95-93DF-45FBE398F979}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List (template)" sheetId="14" r:id="rId1"/>
@@ -172,6 +172,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{D91AFCC1-9BD7-4E5A-A261-C3918715A445}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>yyyy/MM/ddの形式で設定してください。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{581B8E75-F126-4420-A825-3EFFF2A97306}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>設定してください。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L17" authorId="0" shapeId="0" xr:uid="{EF065864-7619-49CD-812C-DA650BD22D6A}">
       <text>
         <r>
@@ -202,12 +232,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{CA642B5E-A881-4017-BAE9-E9CFC6FC1A7D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">コメントです。
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="248">
   <si>
     <t>ユーザ一覧</t>
     <rPh sb="3" eb="5">
@@ -1706,6 +1751,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1717,7 +1776,7 @@
     <numFmt numFmtId="178" formatCode="0&quot;℃&quot;_ "/>
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1805,6 +1864,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1868,7 +1934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -2763,6 +2829,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2776,7 +2868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3429,10 +3521,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3440,12 +3538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3471,11 +3563,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3509,36 +3631,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3590,6 +3682,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -10307,6 +10417,260 @@
               <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17737</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>189187</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148787</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7EC473D-4B13-4020-BBF4-3B81DCFDD98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3433599" y="3772885"/>
+          <a:ext cx="171450" cy="816523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19827"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227287</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1008866" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEE3E59-B096-4189-84F2-814315AE863F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3643149" y="4042541"/>
+          <a:ext cx="1008866" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>verticalSize=5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5912</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>683171</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="右中かっこ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9446F9-C7E6-4CED-AAC4-D077462E56B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2649920" y="4024150"/>
+          <a:ext cx="171450" cy="1360432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19827"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358667</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9196</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1149354" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42FE19F-BF18-454A-8523-C8848E8D4E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2408184" y="4791403"/>
+          <a:ext cx="1149354" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>horizontalSize=2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -29277,17 +29641,17 @@
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="269" t="s">
+      <c r="G5" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="270"/>
-      <c r="I5" s="271"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="259"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -29302,8 +29666,8 @@
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
       <c r="G6" s="54" t="s">
         <v>39</v>
       </c>
@@ -29327,13 +29691,13 @@
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="274" t="s">
+      <c r="E7" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="274"/>
-      <c r="G7" s="274"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="274"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -29408,13 +29772,13 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="274" t="s">
+      <c r="E10" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="274"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="274"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -29616,29 +29980,29 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="13"/>
-      <c r="C19" s="272" t="s">
+      <c r="C19" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="272" t="s">
+      <c r="D19" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="269" t="s">
+      <c r="E19" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="270"/>
-      <c r="G19" s="271"/>
+      <c r="F19" s="258"/>
+      <c r="G19" s="259"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="272" t="s">
+      <c r="I19" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="272" t="s">
+      <c r="J19" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="269" t="s">
+      <c r="K19" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="270"/>
-      <c r="M19" s="271"/>
+      <c r="L19" s="258"/>
+      <c r="M19" s="259"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
@@ -29647,8 +30011,8 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="13"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273"/>
+      <c r="C20" s="256"/>
+      <c r="D20" s="256"/>
       <c r="E20" s="54" t="s">
         <v>39</v>
       </c>
@@ -29659,8 +30023,8 @@
         <v>41</v>
       </c>
       <c r="H20" s="13"/>
-      <c r="I20" s="273"/>
-      <c r="J20" s="273"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="256"/>
       <c r="K20" s="54" t="s">
         <v>39</v>
       </c>
@@ -29678,13 +30042,13 @@
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="13"/>
-      <c r="C21" s="274" t="s">
+      <c r="C21" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="274"/>
-      <c r="F21" s="274"/>
-      <c r="G21" s="274"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
       <c r="H21" s="13"/>
       <c r="I21" s="203"/>
       <c r="J21" s="204"/>
@@ -29759,21 +30123,21 @@
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="13"/>
-      <c r="C24" s="274" t="s">
+      <c r="C24" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="D24" s="274"/>
-      <c r="E24" s="274"/>
-      <c r="F24" s="274"/>
-      <c r="G24" s="274"/>
+      <c r="D24" s="254"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="274" t="s">
+      <c r="I24" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="J24" s="274"/>
-      <c r="K24" s="274"/>
-      <c r="L24" s="274"/>
-      <c r="M24" s="274"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="254"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="254"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
       <c r="P24" s="13"/>
@@ -30053,6 +30417,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E10:I10"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="J19:J20"/>
@@ -30062,11 +30431,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="E10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30477,8 +30841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30591,7 +30955,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="265"/>
+      <c r="H8" s="260"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1"/>
@@ -30603,7 +30967,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="265"/>
+      <c r="H9" s="260"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1"/>
@@ -30715,7 +31079,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="265"/>
+      <c r="H20" s="260"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1"/>
@@ -30727,7 +31091,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="265"/>
+      <c r="H21" s="260"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1"/>
@@ -30853,7 +31217,7 @@
       <c r="G32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="265"/>
+      <c r="H32" s="260"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
@@ -30865,7 +31229,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="265"/>
+      <c r="H33" s="260"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1"/>
@@ -31732,14 +32096,14 @@
       <c r="Q25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R25" s="242" t="s">
+      <c r="R25" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="S25" s="242"/>
-      <c r="T25" s="242"/>
-      <c r="U25" s="242"/>
-      <c r="V25" s="242"/>
-      <c r="W25" s="242"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
       <c r="X25" s="13"/>
     </row>
     <row r="26" spans="1:25">
@@ -32208,10 +32572,10 @@
     <row r="9" spans="2:21">
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="243" t="s">
+      <c r="D9" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="E9" s="243"/>
+      <c r="E9" s="240"/>
       <c r="F9" s="184" t="s">
         <v>163</v>
       </c>
@@ -32429,10 +32793,10 @@
     </row>
     <row r="22" spans="3:19">
       <c r="C22" s="13"/>
-      <c r="D22" s="243" t="s">
+      <c r="D22" s="240" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="243"/>
+      <c r="E22" s="240"/>
       <c r="F22" s="184" t="s">
         <v>187</v>
       </c>
@@ -33276,7 +33640,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="265"/>
+      <c r="E5" s="260"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -33290,7 +33654,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="265"/>
+      <c r="E6" s="260"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -33459,7 +33823,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="265"/>
+      <c r="E5" s="260"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -33473,7 +33837,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="265"/>
+      <c r="E6" s="260"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -33804,10 +34168,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE39A520-44DB-49A5-A2BE-5D66E6F64D07}">
-  <dimension ref="B3:N22"/>
+  <dimension ref="B3:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -33904,6 +34268,11 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14">
+      <c r="C16" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" s="292"/>
+      <c r="E16" s="293"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="15" t="s">
@@ -33912,7 +34281,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="10:14">
+    <row r="17" spans="2:14">
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="15" t="s">
@@ -33923,14 +34292,14 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="10:14">
+    <row r="18" spans="2:14">
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="10:14">
+    <row r="19" spans="2:14">
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="15" t="s">
@@ -33939,7 +34308,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="10:14">
+    <row r="20" spans="2:14">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="15" t="s">
@@ -33950,23 +34319,78 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="10:14">
+    <row r="21" spans="2:14">
+      <c r="B21" s="178"/>
+      <c r="C21" s="296"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="10:14">
+    <row r="22" spans="2:14">
+      <c r="B22" s="294"/>
+      <c r="C22" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="295"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="178"/>
+      <c r="C23" s="297"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="178"/>
+      <c r="C24" s="178"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="178"/>
+      <c r="C25" s="178"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C8:F8"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36034,10 +36458,10 @@
     </row>
     <row r="9" spans="3:21">
       <c r="C9" s="13"/>
-      <c r="D9" s="242" t="s">
+      <c r="D9" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="242"/>
+      <c r="E9" s="241"/>
       <c r="F9" s="59" t="s">
         <v>163</v>
       </c>
@@ -36058,10 +36482,10 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
-      <c r="N9" s="242" t="s">
+      <c r="N9" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="242"/>
+      <c r="O9" s="241"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
@@ -36265,14 +36689,14 @@
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="13"/>
-      <c r="C24" s="238" t="s">
+      <c r="C24" s="252" t="s">
         <v>182</v>
       </c>
-      <c r="D24" s="239"/>
-      <c r="E24" s="240" t="s">
+      <c r="D24" s="253"/>
+      <c r="E24" s="242" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="241"/>
+      <c r="F24" s="243"/>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -36285,10 +36709,10 @@
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="240" t="s">
+      <c r="E25" s="242" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="241"/>
+      <c r="F25" s="243"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -36301,10 +36725,10 @@
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="240" t="s">
+      <c r="E26" s="242" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="241"/>
+      <c r="F26" s="243"/>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -36317,10 +36741,10 @@
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="240" t="s">
+      <c r="E27" s="242" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="241"/>
+      <c r="F27" s="243"/>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -36389,10 +36813,10 @@
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="238" t="s">
+      <c r="E32" s="252" t="s">
         <v>183</v>
       </c>
-      <c r="F32" s="239"/>
+      <c r="F32" s="253"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -36405,10 +36829,10 @@
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="240" t="s">
+      <c r="E33" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="241"/>
+      <c r="F33" s="243"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -36421,10 +36845,10 @@
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="240" t="s">
+      <c r="E34" s="242" t="s">
         <v>185</v>
       </c>
-      <c r="F34" s="241"/>
+      <c r="F34" s="243"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -36437,10 +36861,10 @@
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="240" t="s">
+      <c r="E35" s="242" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="241"/>
+      <c r="F35" s="243"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -36453,10 +36877,10 @@
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="240" t="s">
+      <c r="E36" s="242" t="s">
         <v>176</v>
       </c>
-      <c r="F36" s="241"/>
+      <c r="F36" s="243"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -36583,10 +37007,10 @@
     </row>
     <row r="45" spans="2:43">
       <c r="B45" s="13"/>
-      <c r="C45" s="242" t="s">
+      <c r="C45" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="242"/>
+      <c r="D45" s="241"/>
       <c r="E45" s="160"/>
       <c r="F45" s="160"/>
       <c r="G45" s="160" t="s">
@@ -36702,10 +37126,10 @@
       <c r="M48" s="13"/>
       <c r="Z48" s="13"/>
       <c r="AA48" s="13"/>
-      <c r="AB48" s="242" t="s">
+      <c r="AB48" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="AC48" s="242"/>
+      <c r="AC48" s="241"/>
       <c r="AD48" s="237" t="s">
         <v>177</v>
       </c>
@@ -36827,10 +37251,10 @@
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="238" t="s">
+      <c r="E52" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="239"/>
+      <c r="F52" s="253"/>
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -36925,18 +37349,18 @@
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="240" t="s">
+      <c r="E55" s="242" t="s">
         <v>191</v>
       </c>
-      <c r="F55" s="241"/>
-      <c r="G55" s="240" t="s">
+      <c r="F55" s="243"/>
+      <c r="G55" s="242" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="241"/>
-      <c r="I55" s="240" t="s">
+      <c r="H55" s="243"/>
+      <c r="I55" s="242" t="s">
         <v>193</v>
       </c>
-      <c r="J55" s="241"/>
+      <c r="J55" s="243"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
@@ -36963,10 +37387,10 @@
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="240" t="s">
+      <c r="E56" s="242" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="241"/>
+      <c r="F56" s="243"/>
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -36979,10 +37403,10 @@
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="240" t="s">
+      <c r="E57" s="242" t="s">
         <v>195</v>
       </c>
-      <c r="F57" s="241"/>
+      <c r="F57" s="243"/>
       <c r="G57" s="13"/>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -37111,11 +37535,11 @@
       <c r="L61" s="13"/>
       <c r="M61" s="13"/>
       <c r="Z61" s="29"/>
-      <c r="AA61" s="242" t="s">
+      <c r="AA61" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="AB61" s="242"/>
-      <c r="AC61" s="242"/>
+      <c r="AB61" s="241"/>
+      <c r="AC61" s="241"/>
       <c r="AD61" s="160" t="s">
         <v>163</v>
       </c>
@@ -37275,11 +37699,11 @@
     </row>
     <row r="68" spans="2:42">
       <c r="Z68" s="29"/>
-      <c r="AA68" s="242" t="s">
+      <c r="AA68" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="AB68" s="242"/>
-      <c r="AC68" s="242"/>
+      <c r="AB68" s="241"/>
+      <c r="AC68" s="241"/>
       <c r="AD68" s="160" t="s">
         <v>163</v>
       </c>
@@ -37433,10 +37857,10 @@
     </row>
     <row r="74" spans="2:42">
       <c r="B74" s="13"/>
-      <c r="C74" s="242" t="s">
+      <c r="C74" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="242"/>
+      <c r="D74" s="241"/>
       <c r="E74" s="169"/>
       <c r="F74" s="170"/>
       <c r="G74" s="160" t="s">
@@ -37610,11 +38034,11 @@
       <c r="L79" s="13"/>
       <c r="M79" s="13"/>
       <c r="Z79" s="29"/>
-      <c r="AA79" s="242" t="s">
+      <c r="AA79" s="241" t="s">
         <v>199</v>
       </c>
-      <c r="AB79" s="242"/>
-      <c r="AC79" s="242"/>
+      <c r="AB79" s="241"/>
+      <c r="AC79" s="241"/>
       <c r="AD79" s="180" t="s">
         <v>163</v>
       </c>
@@ -37642,10 +38066,10 @@
     </row>
     <row r="80" spans="2:42">
       <c r="B80" s="13"/>
-      <c r="C80" s="238" t="s">
+      <c r="C80" s="252" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="239"/>
+      <c r="D80" s="253"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -37686,11 +38110,11 @@
       <c r="L81" s="13"/>
       <c r="M81" s="13"/>
       <c r="Z81" s="29"/>
-      <c r="AA81" s="242" t="s">
+      <c r="AA81" s="241" t="s">
         <v>199</v>
       </c>
-      <c r="AB81" s="242"/>
-      <c r="AC81" s="242"/>
+      <c r="AB81" s="241"/>
+      <c r="AC81" s="241"/>
       <c r="AD81" s="180" t="s">
         <v>226</v>
       </c>
@@ -37773,18 +38197,18 @@
     </row>
     <row r="84" spans="1:41">
       <c r="B84" s="13"/>
-      <c r="C84" s="240" t="s">
+      <c r="C84" s="242" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="241"/>
-      <c r="E84" s="240" t="s">
+      <c r="D84" s="243"/>
+      <c r="E84" s="242" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="241"/>
-      <c r="G84" s="240" t="s">
+      <c r="F84" s="243"/>
+      <c r="G84" s="242" t="s">
         <v>193</v>
       </c>
-      <c r="H84" s="241"/>
+      <c r="H84" s="243"/>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -37980,10 +38404,10 @@
     <row r="93" spans="1:41">
       <c r="A93" s="172"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="243" t="s">
+      <c r="C93" s="240" t="s">
         <v>205</v>
       </c>
-      <c r="D93" s="243"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="13"/>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -38013,10 +38437,10 @@
     <row r="94" spans="1:41">
       <c r="A94" s="172"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="243" t="s">
+      <c r="C94" s="240" t="s">
         <v>199</v>
       </c>
-      <c r="D94" s="243"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="167" t="s">
         <v>200</v>
       </c>
@@ -38039,11 +38463,11 @@
       <c r="L94" s="160"/>
       <c r="M94" s="13"/>
       <c r="Z94" s="13"/>
-      <c r="AA94" s="242" t="s">
+      <c r="AA94" s="241" t="s">
         <v>199</v>
       </c>
-      <c r="AB94" s="242"/>
-      <c r="AC94" s="242"/>
+      <c r="AB94" s="241"/>
+      <c r="AC94" s="241"/>
       <c r="AD94" s="212" t="s">
         <v>163</v>
       </c>
@@ -38101,10 +38525,10 @@
     <row r="96" spans="1:41">
       <c r="A96" s="172"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="252" t="s">
+      <c r="C96" s="238" t="s">
         <v>198</v>
       </c>
-      <c r="D96" s="253"/>
+      <c r="D96" s="239"/>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -38134,10 +38558,10 @@
     <row r="97" spans="1:41">
       <c r="A97" s="172"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="243" t="s">
+      <c r="C97" s="240" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="243"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="167" t="s">
         <v>206</v>
       </c>
@@ -38277,14 +38701,24 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="AA61:AC61"/>
-    <mergeCell ref="AA68:AC68"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="AA79:AC79"/>
-    <mergeCell ref="AA81:AC81"/>
-    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="AI48:AL48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="G55:H55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="C93:D93"/>
@@ -38301,24 +38735,14 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C74:D74"/>
-    <mergeCell ref="AI48:AL48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="AA61:AC61"/>
+    <mergeCell ref="AA68:AC68"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="AA79:AC79"/>
+    <mergeCell ref="AA81:AC81"/>
+    <mergeCell ref="AA94:AC94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38445,7 +38869,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="265"/>
+      <c r="E4" s="260"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -38480,7 +38904,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="265"/>
+      <c r="E5" s="260"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -38525,11 +38949,11 @@
       </c>
       <c r="L6" s="53"/>
       <c r="M6" s="44"/>
-      <c r="N6" s="266" t="s">
+      <c r="N6" s="261" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="266"/>
-      <c r="P6" s="266"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
       <c r="Q6" s="44"/>
       <c r="R6" s="13"/>
       <c r="U6" s="13"/>
@@ -38547,11 +38971,11 @@
       </c>
       <c r="AD6" s="233"/>
       <c r="AE6" s="234"/>
-      <c r="AF6" s="254" t="s">
+      <c r="AF6" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="AG6" s="255"/>
-      <c r="AH6" s="256"/>
+      <c r="AG6" s="265"/>
+      <c r="AH6" s="266"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" thickBot="1">
       <c r="F7" s="1"/>
@@ -38644,16 +39068,16 @@
       <c r="Q8" s="44"/>
       <c r="R8" s="13"/>
       <c r="U8" s="13"/>
-      <c r="V8" s="259" t="s">
+      <c r="V8" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="W8" s="262" t="s">
+      <c r="W8" s="272" t="s">
         <v>103</v>
       </c>
-      <c r="X8" s="262" t="s">
+      <c r="X8" s="272" t="s">
         <v>104</v>
       </c>
-      <c r="Y8" s="262" t="s">
+      <c r="Y8" s="272" t="s">
         <v>105</v>
       </c>
       <c r="Z8" s="136" t="s">
@@ -38666,7 +39090,7 @@
       <c r="AC8" s="153">
         <v>1</v>
       </c>
-      <c r="AD8" s="257" t="s">
+      <c r="AD8" s="267" t="s">
         <v>150</v>
       </c>
       <c r="AE8" s="128" t="s">
@@ -38714,10 +39138,10 @@
       <c r="Q9" s="44"/>
       <c r="R9" s="13"/>
       <c r="U9" s="13"/>
-      <c r="V9" s="260"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="258"/>
-      <c r="Y9" s="258"/>
+      <c r="V9" s="270"/>
+      <c r="W9" s="273"/>
+      <c r="X9" s="268"/>
+      <c r="Y9" s="268"/>
       <c r="Z9" s="138" t="s">
         <v>108</v>
       </c>
@@ -38728,7 +39152,7 @@
       <c r="AC9" s="153">
         <v>2</v>
       </c>
-      <c r="AD9" s="258"/>
+      <c r="AD9" s="268"/>
       <c r="AE9" s="128" t="s">
         <v>153</v>
       </c>
@@ -38756,10 +39180,10 @@
       <c r="H10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="48"/>
-      <c r="L10" s="267" t="s">
+      <c r="L10" s="262" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="268"/>
+      <c r="M10" s="263"/>
       <c r="N10" s="47">
         <f>AVERAGE(N8:N9)</f>
         <v>85</v>
@@ -38775,8 +39199,8 @@
       <c r="Q10" s="44"/>
       <c r="R10" s="13"/>
       <c r="U10" s="13"/>
-      <c r="V10" s="260"/>
-      <c r="W10" s="263"/>
+      <c r="V10" s="270"/>
+      <c r="W10" s="273"/>
       <c r="X10" s="128" t="s">
         <v>110</v>
       </c>
@@ -38829,12 +39253,12 @@
       <c r="Q11" s="44"/>
       <c r="R11" s="13"/>
       <c r="U11" s="13"/>
-      <c r="V11" s="260"/>
-      <c r="W11" s="263"/>
-      <c r="X11" s="257" t="s">
+      <c r="V11" s="270"/>
+      <c r="W11" s="273"/>
+      <c r="X11" s="267" t="s">
         <v>114</v>
       </c>
-      <c r="Y11" s="257" t="s">
+      <c r="Y11" s="267" t="s">
         <v>115</v>
       </c>
       <c r="Z11" s="140" t="s">
@@ -38874,10 +39298,10 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
       <c r="U12" s="13"/>
-      <c r="V12" s="260"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="263"/>
-      <c r="Y12" s="263"/>
+      <c r="V12" s="270"/>
+      <c r="W12" s="273"/>
+      <c r="X12" s="273"/>
+      <c r="Y12" s="273"/>
       <c r="Z12" s="142" t="s">
         <v>118</v>
       </c>
@@ -38911,10 +39335,10 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
       <c r="U13" s="13"/>
-      <c r="V13" s="260"/>
-      <c r="W13" s="263"/>
-      <c r="X13" s="263"/>
-      <c r="Y13" s="263"/>
+      <c r="V13" s="270"/>
+      <c r="W13" s="273"/>
+      <c r="X13" s="273"/>
+      <c r="Y13" s="273"/>
       <c r="Z13" s="144" t="s">
         <v>120</v>
       </c>
@@ -38952,10 +39376,10 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
       <c r="U14" s="13"/>
-      <c r="V14" s="259" t="s">
+      <c r="V14" s="269" t="s">
         <v>122</v>
       </c>
-      <c r="W14" s="262" t="s">
+      <c r="W14" s="272" t="s">
         <v>123</v>
       </c>
       <c r="X14" s="129" t="s">
@@ -38997,12 +39421,12 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="U15" s="13"/>
-      <c r="V15" s="260"/>
-      <c r="W15" s="263"/>
-      <c r="X15" s="257" t="s">
+      <c r="V15" s="270"/>
+      <c r="W15" s="273"/>
+      <c r="X15" s="267" t="s">
         <v>128</v>
       </c>
-      <c r="Y15" s="257" t="s">
+      <c r="Y15" s="267" t="s">
         <v>129</v>
       </c>
       <c r="Z15" s="140" t="s">
@@ -39038,10 +39462,10 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
       <c r="U16" s="13"/>
-      <c r="V16" s="261"/>
-      <c r="W16" s="264"/>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="264"/>
+      <c r="V16" s="271"/>
+      <c r="W16" s="274"/>
+      <c r="X16" s="274"/>
+      <c r="Y16" s="274"/>
       <c r="Z16" s="144" t="s">
         <v>132</v>
       </c>
@@ -39308,11 +39732,11 @@
       </c>
       <c r="L25" s="53"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="269" t="s">
+      <c r="N25" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="O25" s="270"/>
-      <c r="P25" s="271"/>
+      <c r="O25" s="258"/>
+      <c r="P25" s="259"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="13"/>
       <c r="U25" s="13"/>
@@ -39820,17 +40244,17 @@
       <c r="G48" s="13"/>
       <c r="I48" s="13"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="272" t="s">
+      <c r="K48" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="L48" s="272" t="s">
+      <c r="L48" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="269" t="s">
+      <c r="M48" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="N48" s="270"/>
-      <c r="O48" s="271"/>
+      <c r="N48" s="258"/>
+      <c r="O48" s="259"/>
       <c r="P48" s="44"/>
       <c r="Q48" s="13"/>
     </row>
@@ -39848,8 +40272,8 @@
       <c r="G49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
-      <c r="K49" s="273"/>
-      <c r="L49" s="273"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="256"/>
       <c r="M49" s="54" t="s">
         <v>39</v>
       </c>
@@ -39997,11 +40421,11 @@
       <c r="L55" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="M55" s="269" t="s">
+      <c r="M55" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="N55" s="270"/>
-      <c r="O55" s="271"/>
+      <c r="N55" s="258"/>
+      <c r="O55" s="259"/>
       <c r="P55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
@@ -40426,17 +40850,17 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
-      <c r="K87" s="272" t="s">
+      <c r="K87" s="255" t="s">
         <v>36</v>
       </c>
-      <c r="L87" s="272" t="s">
+      <c r="L87" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="M87" s="269" t="s">
+      <c r="M87" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="270"/>
-      <c r="O87" s="271"/>
+      <c r="N87" s="258"/>
+      <c r="O87" s="259"/>
       <c r="P87" s="13"/>
       <c r="Q87" s="13"/>
       <c r="R87" s="13"/>
@@ -40448,8 +40872,8 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
-      <c r="K88" s="273"/>
-      <c r="L88" s="273"/>
+      <c r="K88" s="256"/>
+      <c r="L88" s="256"/>
       <c r="M88" s="54" t="s">
         <v>39</v>
       </c>
@@ -40470,13 +40894,13 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="274" t="s">
+      <c r="K89" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="L89" s="274"/>
-      <c r="M89" s="274"/>
-      <c r="N89" s="274"/>
-      <c r="O89" s="274"/>
+      <c r="L89" s="254"/>
+      <c r="M89" s="254"/>
+      <c r="N89" s="254"/>
+      <c r="O89" s="254"/>
       <c r="P89" s="13"/>
       <c r="Q89" s="13"/>
       <c r="R89" s="13"/>
@@ -40542,13 +40966,13 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
-      <c r="K92" s="274" t="s">
+      <c r="K92" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="L92" s="274"/>
-      <c r="M92" s="274"/>
-      <c r="N92" s="274"/>
-      <c r="O92" s="274"/>
+      <c r="L92" s="254"/>
+      <c r="M92" s="254"/>
+      <c r="N92" s="254"/>
+      <c r="O92" s="254"/>
       <c r="P92" s="13"/>
       <c r="Q92" s="13"/>
       <c r="R92" s="13"/>
@@ -40789,20 +41213,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K89:O89"/>
-    <mergeCell ref="K92:O92"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="N25:P25"/>
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AD8:AD9"/>
@@ -40816,6 +41226,20 @@
     <mergeCell ref="X11:X13"/>
     <mergeCell ref="Y11:Y13"/>
     <mergeCell ref="V8:V13"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K89:O89"/>
+    <mergeCell ref="K92:O92"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="M87:O87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -41842,7 +42266,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="13"/>
-      <c r="B84" s="272" t="s">
+      <c r="B84" s="255" t="s">
         <v>69</v>
       </c>
       <c r="C84" s="95" t="s">
@@ -41884,7 +42308,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="13"/>
-      <c r="B86" s="273"/>
+      <c r="B86" s="256"/>
       <c r="C86" s="97" t="s">
         <v>66</v>
       </c>
@@ -41964,7 +42388,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="13"/>
-      <c r="B91" s="272" t="s">
+      <c r="B91" s="255" t="s">
         <v>69</v>
       </c>
       <c r="C91" s="99"/>
@@ -42002,7 +42426,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="13"/>
-      <c r="B93" s="273"/>
+      <c r="B93" s="256"/>
       <c r="C93" s="99"/>
       <c r="D93" s="94" t="s">
         <v>67</v>
@@ -42873,10 +43297,10 @@
       <c r="B6" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="252" t="s">
+      <c r="C6" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="253"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -42975,10 +43399,10 @@
       <c r="B12" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="252" t="s">
+      <c r="C12" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="253"/>
+      <c r="D12" s="239"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
@@ -43286,10 +43710,10 @@
       <c r="B33" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="252" t="s">
+      <c r="C33" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="253"/>
+      <c r="D33" s="239"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -43402,10 +43826,10 @@
       <c r="B40" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="252" t="s">
+      <c r="C40" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="253"/>
+      <c r="D40" s="239"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
@@ -43603,12 +44027,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C43:D43"/>
@@ -43618,6 +44036,12 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
